--- a/ind-IRs-to-idiosyncratic-shocks.xlsx
+++ b/ind-IRs-to-idiosyncratic-shocks.xlsx
@@ -760,196 +760,196 @@
         <v>112</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01874584519050426</v>
+        <v>0.2552122878688801</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8612450841021136</v>
+        <v>0.6674928113111511</v>
       </c>
       <c r="D2" t="n">
-        <v>0.184438962205305</v>
+        <v>0.08576853889679394</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09923193851575725</v>
+        <v>0.02499352984662511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0275095907556038</v>
+        <v>0.01361332454576585</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08711114563434262</v>
+        <v>-0.04177927794850083</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0266233829715963</v>
+        <v>0.01250079577865914</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.002333398334316698</v>
+        <v>-0.001902460281474879</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01713837453231784</v>
+        <v>0.006430039384902443</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003529804857183783</v>
+        <v>-0.0005391606829040896</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.003412973082101142</v>
+        <v>-0.001706707287808531</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001899557846744827</v>
+        <v>0.0009561265669662425</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.001548225935503156</v>
+        <v>-0.000393590654217989</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003760892900796817</v>
+        <v>0.0001224481287738452</v>
       </c>
       <c r="P2" t="n">
-        <v>7.005910069610972e-05</v>
+        <v>-7.159997595508025e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002284552879822535</v>
+        <v>5.514079274496447e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.9998242690888829</v>
+        <v>-0.9668680009374578</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6638925868440614</v>
+        <v>0.816918968442081</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3311085208402328</v>
+        <v>0.2163565378912671</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09992821335027939</v>
+        <v>-0.003794436518998333</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.07161463785173053</v>
+        <v>-0.07066736967551006</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.069157352514559</v>
+        <v>-0.01811881159866175</v>
       </c>
       <c r="X2" t="n">
-        <v>0.05624411959160795</v>
+        <v>0.04276613494491863</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.01661994111026568</v>
+        <v>-0.02061788993318172</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.001659133688120994</v>
+        <v>-0.0001246251963046951</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.007808920506142439</v>
+        <v>0.005111109856170993</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.003420875594393477</v>
+        <v>0.0007305162562500045</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.001825988606240639</v>
+        <v>-0.001397915230747804</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.004003697375099015</v>
+        <v>-0.001214855722207483</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.002106788622314962</v>
+        <v>0.001255067642400291</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.000881955195513685</v>
+        <v>-1.524913753351592e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0006869603096462623</v>
+        <v>-0.0003191810819614456</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9998245071677462</v>
+        <v>0.9665807343254129</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1421943749832636</v>
+        <v>0.1019578625362739</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.2722668630579592</v>
+        <v>0.1231223147587383</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.06502372324144834</v>
+        <v>-0.05456303913388912</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.02102696503884429</v>
+        <v>-0.002819590017497602</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.02467060646347761</v>
+        <v>0.004578161804589426</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1.735332294552656e-06</v>
+        <v>-0.007991289438263363</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0201883802775327</v>
+        <v>0.009483165760099702</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.001934094074084835</v>
+        <v>-0.0004069044624766303</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.0002186709983970052</v>
+        <v>-2.762007829581328e-05</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.002118630744784628</v>
+        <v>-0.0007407520509059567</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0003903936443594442</v>
+        <v>-0.0001184511487659061</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0005732908844606243</v>
+        <v>0.0004715968612570388</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.000588892305350602</v>
+        <v>-0.0002471072334352607</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0003460428109549795</v>
+        <v>4.312841828746513e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0001334487266581404</v>
+        <v>2.341548451103371e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.01874535749312021</v>
+        <v>0.2552877012543323</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.1085855451660102</v>
+        <v>0.02223787461924158</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.452790823734856</v>
+        <v>0.3523297739001693</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.06553642658503966</v>
+        <v>-0.09591663641367966</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.09410020357335305</v>
+        <v>-0.07047305924133586</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.00595460066046318</v>
+        <v>0.0186897251491301</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.03508776013278943</v>
+        <v>0.01385532289624907</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.004174808073944475</v>
+        <v>0.002349233202219908</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.01530285201372915</v>
+        <v>-0.009989985348301969</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.008194987676037848</v>
+        <v>0.004889905302827025</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.00452432241882889</v>
+        <v>0.001691924518637966</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.003923821428062471</v>
+        <v>-0.00200138283056303</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.001965424379322601</v>
+        <v>-0.0002378405648688601</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.001499887878590568</v>
+        <v>0.0004587458663050173</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.001125718754025783</v>
+        <v>0.0002855993820406972</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.0008633146643972983</v>
+        <v>-0.000304571915110279</v>
       </c>
     </row>
     <row r="3">
@@ -957,196 +957,196 @@
         <v>124</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2380482056498149</v>
+        <v>0.4049324120669303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7152977243794812</v>
+        <v>0.511903582206786</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01888243213873034</v>
+        <v>0.03404611486131635</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1114891138910958</v>
+        <v>0.06414224936335237</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04678187210191478</v>
+        <v>0.04374792043114531</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.03160313206633943</v>
+        <v>-0.06520950432856415</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04817726251034782</v>
+        <v>0.007383409908191582</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009010158038198655</v>
+        <v>-0.004611028045966348</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007596452365740541</v>
+        <v>-0.00473026708146124</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.005066830708883098</v>
+        <v>-0.003941180675350557</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001804935080982615</v>
+        <v>0.003505947054850289</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002705692653104988</v>
+        <v>-0.001188429743761342</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001527971005800251</v>
+        <v>0.0009693334464004468</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0008442126892034467</v>
+        <v>-1.107340553840281e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>-4.609306254581311e-05</v>
+        <v>-6.155159576976885e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0001370613537076383</v>
+        <v>4.19921572774487e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.9712536164751415</v>
+        <v>-0.9142673606695469</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9436320791693069</v>
+        <v>1.028702707816989</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06880652982603876</v>
+        <v>-0.04673099008110398</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01227849494714544</v>
+        <v>-0.08098436853354588</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.121317309171865</v>
+        <v>-0.008831990863605674</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01290071015536836</v>
+        <v>0.03941074262999345</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05659279988057426</v>
+        <v>-0.01200926522228379</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.01673646683710183</v>
+        <v>0.00395311618268585</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.02240332478965867</v>
+        <v>-0.01125733189947453</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.003558315428102867</v>
+        <v>-0.003101760935568597</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.003655288300147169</v>
+        <v>0.006841867629922525</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.006759167911157113</v>
+        <v>-0.0008106193238143727</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.002160714626270448</v>
+        <v>-0.001602747047061544</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.00157864908920885</v>
+        <v>7.151064827041626e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.0002270590952535179</v>
+        <v>0.0007582172268071469</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.001137451648644427</v>
+        <v>-0.0001417275586665168</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.9712530259042055</v>
+        <v>0.9139583018127679</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.05958071464509226</v>
+        <v>0.03580111200379318</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.097201381710024</v>
+        <v>0.08965819317588943</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.05112069325036307</v>
+        <v>0.02023303662744999</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.03610747282884386</v>
+        <v>-0.00292507621155022</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.015934725540217</v>
+        <v>-0.03040465734854306</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.01830104929817129</v>
+        <v>0.006626941595444677</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.001389868784517768</v>
+        <v>-0.01240929583738831</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.00600360553728053</v>
+        <v>-0.002031004772376385</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.0007674638346442618</v>
+        <v>0.002351377051305531</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.002936598010843134</v>
+        <v>-1.147612120802994e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0001016961563978016</v>
+        <v>-0.0002472195383541623</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0006883172109879096</v>
+        <v>0.0004783780474058997</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.0002049528554919699</v>
+        <v>0.0001457343494058395</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0003121274512746805</v>
+        <v>-7.015854416063601e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.06251300816906e-05</v>
+        <v>8.75711566821972e-05</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2380481701237545</v>
+        <v>0.4050691600273136</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1967206719202862</v>
+        <v>0.1155843021289588</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.06726047919902031</v>
+        <v>-0.1430613061168035</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.05669396984524664</v>
+        <v>0.06008114619802635</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.03161943701053949</v>
+        <v>0.073963954829947</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.03896030518471998</v>
+        <v>-0.05075399125740746</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.002945046830161745</v>
+        <v>-0.004584535814587338</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.004588850456179881</v>
+        <v>-7.785488432929036e-05</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.005035724094883901</v>
+        <v>0.002682882015254465</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.003765761898841285</v>
+        <v>-0.0007314302524601763</v>
       </c>
       <c r="BH3" t="n">
-        <v>9.745434825959658e-05</v>
+        <v>0.0001402491372667396</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.001264372853216954</v>
+        <v>-0.001789184131406893</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.001134713856738382</v>
+        <v>0.001293318466346988</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0004321556408748537</v>
+        <v>0.0003896887645827255</v>
       </c>
       <c r="BL3" t="n">
-        <v>-6.350422487011214e-05</v>
+        <v>-0.0003483844560439543</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.000292343744775995</v>
+        <v>-0.0001307605535994748</v>
       </c>
     </row>
     <row r="4">
@@ -1154,196 +1154,196 @@
         <v>128</v>
       </c>
       <c r="B4" t="n">
-        <v>0.09427364337806129</v>
+        <v>0.163695251566629</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8322970829614549</v>
+        <v>0.7545285284317568</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05343413231273546</v>
+        <v>0.0551557475433512</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1760287250542621</v>
+        <v>0.1069660967987631</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01272209586027288</v>
+        <v>0.02457020825579732</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04756830978042804</v>
+        <v>-0.07750657910459721</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04675242598836114</v>
+        <v>-0.01473772452581547</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004804770719134398</v>
+        <v>-0.0175325568693666</v>
       </c>
       <c r="J4" t="n">
-        <v>2.459394859417961e-06</v>
+        <v>-0.01697751004026119</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.006634240596351222</v>
+        <v>-0.00209029368081569</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001829611040079455</v>
+        <v>0.006450225358521812</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002310071591260636</v>
+        <v>0.0002321733613755847</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0004224966343300904</v>
+        <v>0.002765946739376185</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.001430915455980972</v>
+        <v>0.001007526011295536</v>
       </c>
       <c r="P4" t="n">
-        <v>7.751000640833568e-05</v>
+        <v>0.0002589476136069644</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0003102372426040578</v>
+        <v>-3.914248493265804e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.9955469143719801</v>
+        <v>-0.9865202948452706</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8117827651686464</v>
+        <v>0.8912258320778947</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1452507384573486</v>
+        <v>0.06266476463320216</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1298337606364937</v>
+        <v>0.06644511458541373</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.1316752453226039</v>
+        <v>-0.02105090266080067</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.0128157324852294</v>
+        <v>0.02309028520628226</v>
       </c>
       <c r="X4" t="n">
-        <v>0.05221292613460893</v>
+        <v>-0.0144482474506818</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.02213466974340479</v>
+        <v>-0.002426936872168152</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.02251087139080176</v>
+        <v>-0.02263366195020255</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.006019805952569276</v>
+        <v>-0.00287392502602232</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.004180930076870302</v>
+        <v>0.005649298290063883</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.006248567736388</v>
+        <v>-0.0009514961922758655</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.002479419183038937</v>
+        <v>-0.0001778205420606314</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.001951045671999375</v>
+        <v>0.001262314611728251</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0001723556879650348</v>
+        <v>0.0008560570033471221</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.001182320736519113</v>
+        <v>-0.0001103808684482371</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9955463423596536</v>
+        <v>0.9861891882369858</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.04044880804514508</v>
+        <v>0.04063970193316139</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1865759389271889</v>
+        <v>0.1481676543060915</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.09127824645878731</v>
+        <v>0.077178532825945</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.0001359072518262736</v>
+        <v>-0.03273762611975257</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.003926756978729206</v>
+        <v>-0.07093467669390299</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.01434472206454055</v>
+        <v>-0.003732758632401211</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.002158902307014391</v>
+        <v>-0.02319263455219818</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.003390685803488399</v>
+        <v>-0.004294008852647893</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.004052333220409669</v>
+        <v>0.002707897153984885</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.001118168655534396</v>
+        <v>0.00176255609300128</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0005852272511978551</v>
+        <v>0.002555952648366635</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0004821769955463431</v>
+        <v>0.002342212213818154</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.0005830851999614946</v>
+        <v>0.0001170128781418615</v>
       </c>
       <c r="AV4" t="n">
-        <v>8.110737210458151e-06</v>
+        <v>-4.275060893095135e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.391549799630657e-05</v>
+        <v>3.597171390284152e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.09427309271793385</v>
+        <v>0.1637500623141958</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1586479062305196</v>
+        <v>0.1263575297271964</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.1014379460568049</v>
+        <v>0.0819561960142086</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1093524057967098</v>
+        <v>0.1284043958646366</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.07066123207542123</v>
+        <v>0.009214551746899939</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.005845470354527032</v>
+        <v>-0.06734861162762841</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.01120178285156324</v>
+        <v>0.01230614546749499</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.01406738187857529</v>
+        <v>-0.007733354269324559</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.007623896785960713</v>
+        <v>-0.009431385906340512</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.002783506947175183</v>
+        <v>-0.004102431327598997</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.0004555072611916665</v>
+        <v>0.002732557602027393</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.003024520425073709</v>
+        <v>0.0007503713830928301</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.0008245884641393501</v>
+        <v>0.001694735332525463</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.000640625088765546</v>
+        <v>-0.0001278773108407212</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.0001927569000434905</v>
+        <v>0.0002106939618249756</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0005088225621938043</v>
+        <v>0.0002770787364084647</v>
       </c>
     </row>
     <row r="5">
@@ -1351,196 +1351,196 @@
         <v>132</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1603603730884562</v>
+        <v>0.3013843271002442</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7629383576561022</v>
+        <v>0.6168304517393979</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01217639277692088</v>
+        <v>-0.009049628830179846</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1748298592694007</v>
+        <v>0.09794754918387823</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08036477216086246</v>
+        <v>0.07412545298117734</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01959312639217541</v>
+        <v>-0.02513521047869864</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06665708270113507</v>
+        <v>0.03106791139361743</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02497943371961007</v>
+        <v>0.007929127817816774</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02057250706503563</v>
+        <v>0.001482137230146846</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001198887382842686</v>
+        <v>0.0002998344292736654</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002878334821449034</v>
+        <v>0.001604466247370528</v>
       </c>
       <c r="M5" t="n">
-        <v>0.009292113754176302</v>
+        <v>0.0008563801807537777</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00348681534729879</v>
+        <v>0.0005907426363651927</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0005358113054007194</v>
+        <v>-0.0003796595038750083</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0007881778538380596</v>
+        <v>0.0001976461264416685</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001102602855957047</v>
+        <v>0.0001187211629744661</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.9870573760985575</v>
+        <v>-0.9534694100342127</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8075536104188599</v>
+        <v>0.9268005172727235</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06443208209774001</v>
+        <v>-0.03529062636770527</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1406714124242897</v>
+        <v>0.03385589670382772</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.0618679424127732</v>
+        <v>0.01421964134259469</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.07311391279364331</v>
+        <v>-0.02658167756514648</v>
       </c>
       <c r="X5" t="n">
-        <v>0.08348515382735515</v>
+        <v>0.03518212963341569</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02906768735147146</v>
+        <v>0.0128235628030858</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.008404857988307162</v>
+        <v>-0.01255594198741848</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.006662200497230868</v>
+        <v>0.001253119475627423</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.001396494223967636</v>
+        <v>0.002872653024724117</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01120084297494404</v>
+        <v>0.001614172010139317</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.0008966699969245303</v>
+        <v>-0.0009585118339988836</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.00154143861148655</v>
+        <v>-0.0004838106850469457</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0004350216241721012</v>
+        <v>0.0003747647075642577</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001302093456122716</v>
+        <v>0.0003435214998076684</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.9870575975402319</v>
+        <v>0.953156678352159</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01468969807370619</v>
+        <v>0.0108981919611379</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1122870571970488</v>
+        <v>0.06992029752509062</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1376990681091059</v>
+        <v>0.09380282201114497</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.06620443205243105</v>
+        <v>0.04678271110328534</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0217103154308463</v>
+        <v>-0.007304096467296507</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.02520038538139469</v>
+        <v>0.01625077268031933</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.02478220044110018</v>
+        <v>0.001325742426317133</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.02096689684482123</v>
+        <v>0.007788244538265643</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.001664210517024055</v>
+        <v>-0.001208058331755787</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.006161071933603681</v>
+        <v>0.000676069478276747</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.004601833813900166</v>
+        <v>0.0002812212729255488</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.003959353202220776</v>
+        <v>0.0009299947360152719</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0004187576342218285</v>
+        <v>-0.0002290695255135375</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0007251960961251027</v>
+        <v>6.55659439954495e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0009100827076800643</v>
+        <v>-2.315197272424431e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.1603604540852227</v>
+        <v>0.3014835808100236</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.06277430700004773</v>
+        <v>0.04784744182553627</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.04011867845233278</v>
+        <v>-0.06152664908969213</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.2054046701851247</v>
+        <v>0.1922381746260488</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.1017718869144696</v>
+        <v>-0.02368663031856641</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.01719200287234511</v>
+        <v>-0.02041558617658337</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.01259204063803061</v>
+        <v>0.007773861858610695</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.03610266216436113</v>
+        <v>0.01579706985750647</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.0053762720023265</v>
+        <v>-0.0004207745182417022</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.004980805288757675</v>
+        <v>-0.002351062616303986</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.00221627339674425</v>
+        <v>-0.001260587566879724</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.00746679013332566</v>
+        <v>0.002668268512452052</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.0008237002468123788</v>
+        <v>0.0001678393257563651</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.0001455137636389185</v>
+        <v>-0.0004768923473409071</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.0003398402341992497</v>
+        <v>-0.000247763822574972</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.001435259673649267</v>
+        <v>0.0003252757673617646</v>
       </c>
     </row>
     <row r="6">
@@ -1548,196 +1548,196 @@
         <v>134</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1412962420867634</v>
+        <v>0.3217630342498956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8088938968135025</v>
+        <v>0.6007035078511481</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01992192875832997</v>
+        <v>0.009797120904515563</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1663855142507167</v>
+        <v>0.07380161047306175</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.009784366477840223</v>
+        <v>0.003267888548911195</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.09270659573607552</v>
+        <v>-0.08580285980394563</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0220144427118669</v>
+        <v>-0.001771846468942395</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01023495331145518</v>
+        <v>-0.01396123738090298</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002224965032084825</v>
+        <v>-0.002543447515886533</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.004750197502559164</v>
+        <v>0.0005596987362812111</v>
       </c>
       <c r="L6" t="n">
-        <v>6.294161865006765e-05</v>
+        <v>0.004676028498137088</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002546175656160683</v>
+        <v>0.0008217447161477157</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001048570818366182</v>
+        <v>0.001766056593701835</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.001199203135013862</v>
+        <v>-0.0005202805572950929</v>
       </c>
       <c r="P6" t="n">
-        <v>1.429150250274113e-05</v>
+        <v>-0.0001143627340898707</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.50224898082718e-05</v>
+        <v>-0.0001338241938525501</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.9899677567024937</v>
+        <v>-0.9467803916730537</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8659274452575934</v>
+        <v>0.953565611317279</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03720422622694416</v>
+        <v>-0.0443059225855417</v>
       </c>
       <c r="U6" t="n">
-        <v>0.2079617255258725</v>
+        <v>0.1118692234406152</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.09396918188800213</v>
+        <v>-0.0505741898431569</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.05449415805382206</v>
+        <v>-0.01361021290753534</v>
       </c>
       <c r="X6" t="n">
-        <v>0.03057919248260206</v>
+        <v>0.00206689052511883</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01427047743768737</v>
+        <v>0.001468490209560691</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.0180901952762636</v>
+        <v>-0.02092191708893877</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.003863090020349602</v>
+        <v>0.0001094364685621833</v>
       </c>
       <c r="AB6" t="n">
-        <v>-9.016254461726048e-05</v>
+        <v>0.006023306480328205</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.00678755392297247</v>
+        <v>0.001001934680845266</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.00155483540468744</v>
+        <v>-0.0003126027332427204</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.00148850507086426</v>
+        <v>-0.0003661971219297537</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.0002162319018141046</v>
+        <v>0.0005737756519815474</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.001003496009241109</v>
+        <v>0.0001927651787082448</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9899673975309417</v>
+        <v>0.9464550884509869</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.06246631818680801</v>
+        <v>0.02337735880547119</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.1330517077096908</v>
+        <v>0.08594523306563903</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.08270264607700505</v>
+        <v>0.0235988954842282</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03447526778395502</v>
+        <v>-0.03712298833239054</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.03743605352409538</v>
+        <v>-0.04792836974437771</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.007467809917844607</v>
+        <v>-0.008254028039205531</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.00416507740020799</v>
+        <v>-0.01181949149505071</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.007809269707270633</v>
+        <v>0.004618829611625228</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.004815690653752606</v>
+        <v>0.003125987177083541</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.000429629159091624</v>
+        <v>0.0012103287751731</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.0007236647709196569</v>
+        <v>0.001478315476970968</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.001183232730066738</v>
+        <v>0.0008209140964886748</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.0004696482510911359</v>
+        <v>-0.0002627826164626681</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.0002339513590049762</v>
+        <v>-0.0002993139092459096</v>
       </c>
       <c r="AW6" t="n">
-        <v>-9.299363976885634e-05</v>
+        <v>-0.0001819261762670907</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.1412980417507734</v>
+        <v>0.3218737890258643</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.1053270208535043</v>
+        <v>0.008560695273325182</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.08390999650779753</v>
+        <v>0.04855304484633537</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.1985343087293759</v>
+        <v>0.1509635743441415</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.09035206880733687</v>
+        <v>-0.02000761029137981</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.02510665091075615</v>
+        <v>-0.06450438305788091</v>
       </c>
       <c r="BD6" t="n">
-        <v>-0.008308142953610998</v>
+        <v>0.001008678919189491</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.01784255576648899</v>
+        <v>0.0008614379757292451</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.003399613906398419</v>
+        <v>-6.709600224276195e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.005404162101801788</v>
+        <v>-0.003729702338451124</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0.002291058679224731</v>
+        <v>3.048589129055183e-05</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.004694399610076537</v>
+        <v>0.002655079756893541</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.266436098398504e-05</v>
+        <v>0.001552988519226026</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.000628472456143433</v>
+        <v>-0.0009009591380185251</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.0008444807876757075</v>
+        <v>-0.0003474038390361188</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.0005951235632602701</v>
+        <v>0.000191345514729654</v>
       </c>
     </row>
     <row r="7">
@@ -1745,196 +1745,196 @@
         <v>136</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2692662256775762</v>
+        <v>0.3132581346345499</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7169381582575979</v>
+        <v>0.6551552126680519</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03485324578529119</v>
+        <v>0.06378312079237164</v>
       </c>
       <c r="E7" t="n">
-        <v>0.114328455880991</v>
+        <v>0.07649921250006234</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02195790326368758</v>
+        <v>0.00138602560144552</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01902432821805301</v>
+        <v>-0.01604259029103522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08074822856772829</v>
+        <v>0.02727981669615465</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0005335516755281775</v>
+        <v>-0.008465604993039397</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01523262522836719</v>
+        <v>-0.0007623010020586264</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00616965511624625</v>
+        <v>0.002656265321281413</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003430394740518873</v>
+        <v>-0.0004312066608324134</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009007808655772654</v>
+        <v>0.0006938139327683348</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.001084831387753392</v>
+        <v>-0.0009145827053016672</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002367995754885743</v>
+        <v>0.0001908758862343162</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00132332179224193</v>
+        <v>0.0004024058863880085</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0003159905303457547</v>
+        <v>-0.0002452960798015537</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.9630673548147928</v>
+        <v>-0.9496332273759961</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8932820720912958</v>
+        <v>0.928732692110817</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03262450547337695</v>
+        <v>0.007254485668743303</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1480904545589437</v>
+        <v>0.08578550638235977</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.2164042651583943</v>
+        <v>-0.1292822520485117</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001494555675902283</v>
+        <v>0.03046510544991765</v>
       </c>
       <c r="X7" t="n">
-        <v>0.1204582517280119</v>
+        <v>0.05231632923123962</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.006351041586444209</v>
+        <v>-0.01865449986788981</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.02448000599632058</v>
+        <v>-0.02064613051843107</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0001680122788794163</v>
+        <v>0.01341501297252594</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.008733172115922332</v>
+        <v>0.003263113558640906</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01161367355400672</v>
+        <v>-0.001283277289854322</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01068266597914075</v>
+        <v>-0.004270345776723323</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.001353762359380085</v>
+        <v>0.002128512410359826</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.00274053642053485</v>
+        <v>0.00133509871339081</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0004263372788869455</v>
+        <v>-0.0009261236205820267</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.9630660746526476</v>
+        <v>0.9493474902986705</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.04290596760841361</v>
+        <v>0.0483713765527126</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1561758796327113</v>
+        <v>0.1377228619952265</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.08233614966173092</v>
+        <v>0.07570558512266716</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.02548449911482981</v>
+        <v>-0.05526878311639852</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1002961521477527</v>
+        <v>0.02660118126362011</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.004658160486053971</v>
+        <v>-0.001425618462954516</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.02354320177915251</v>
+        <v>0.001423832196668287</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.01061290774311724</v>
+        <v>0.002643544355638886</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.003021750559642684</v>
+        <v>-0.004170806357152709</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.01339082550687866</v>
+        <v>0.002839445924516818</v>
       </c>
       <c r="AS7" t="n">
-        <v>-2.456655910081967e-05</v>
+        <v>-6.67362952640197e-06</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.002350422699179049</v>
+        <v>-0.0007772690582165803</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.001607436541710137</v>
+        <v>0.0002767301913152908</v>
       </c>
       <c r="AV7" t="n">
-        <v>-5.91944856549972e-05</v>
+        <v>-1.313831070133626e-05</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.001656105713701603</v>
+        <v>0.0001204489755994887</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.2692658272901353</v>
+        <v>0.3133518945630256</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.1126574978154225</v>
+        <v>-0.144248085283697</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2446907331734924</v>
+        <v>0.2048882466814682</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1068182659854381</v>
+        <v>0.1655694482777771</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0.2221892904738445</v>
+        <v>-0.1728868932471268</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1005194497876678</v>
+        <v>0.03155278365806725</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.01129983230992021</v>
+        <v>0.01892570317836284</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.03343403959559235</v>
+        <v>0.01076525178984746</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0.02179555314035556</v>
+        <v>-0.0128820077171277</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.01332668085915136</v>
+        <v>-0.006252689859106388</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.02124837145631466</v>
+        <v>0.00902188123714957</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.0002395212846839939</v>
+        <v>0.0010558576751058</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.00337778630564908</v>
+        <v>-0.004051513025444258</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.0001192389780212611</v>
+        <v>0.000407131684924775</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0006187923548443021</v>
+        <v>0.001052076071368093</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.002437302673856483</v>
+        <v>0.0002426621899528767</v>
       </c>
     </row>
     <row r="8">
@@ -1942,196 +1942,196 @@
         <v>138</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2221119935818954</v>
+        <v>0.3688899649899095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7083978742776104</v>
+        <v>0.5344152015917616</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01960250507142497</v>
+        <v>0.01426104947543983</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1540127006904187</v>
+        <v>0.07366839204922612</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01722018743781173</v>
+        <v>0.003895050079259903</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0561514342311589</v>
+        <v>-0.07331456901303121</v>
       </c>
       <c r="H8" t="n">
-        <v>0.015976564732692</v>
+        <v>-0.00748784853753752</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.005651620362310352</v>
+        <v>-0.01344242971145223</v>
       </c>
       <c r="J8" t="n">
-        <v>0.003971909700224991</v>
+        <v>-2.412874195591531e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.007941410824408414</v>
+        <v>-0.001754374784710618</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006844205605439289</v>
+        <v>0.004492445372093674</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001501326875076959</v>
+        <v>0.0004754356470763209</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001607975919434017</v>
+        <v>0.002114529375955458</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.001270287264125886</v>
+        <v>-0.0005383089484935896</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002235442246857945</v>
+        <v>-1.395550697999406e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.045395097321342e-05</v>
+        <v>-0.0002419735119098048</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.9750217112450079</v>
+        <v>-0.929412021490392</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8627806418067511</v>
+        <v>0.9062800030236192</v>
       </c>
       <c r="T8" t="n">
-        <v>0.05442008262024683</v>
+        <v>-0.01545729711488515</v>
       </c>
       <c r="U8" t="n">
-        <v>0.201962301953853</v>
+        <v>0.1337776580960278</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.157392986859852</v>
+        <v>-0.08787435805285107</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0236218613225793</v>
+        <v>0.002399054724757938</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03354364257170887</v>
+        <v>-0.0002426036503744892</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.03080573559162102</v>
+        <v>0.009129947682878781</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.02498984194350522</v>
+        <v>-0.0244272968762271</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.0101604484402942</v>
+        <v>-0.002684696037542906</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0008878390337764455</v>
+        <v>0.006238064518351728</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01077489061999535</v>
+        <v>0.003137588143014033</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.002092430406813329</v>
+        <v>-0.001049337834354999</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.002880090618889782</v>
+        <v>-0.001129567991560172</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.001153702321263874</v>
+        <v>0.0007581656032062685</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.00213793896025215</v>
+        <v>0.000556697256177516</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.9750209392473252</v>
+        <v>0.9290948262622436</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.02774748437558158</v>
+        <v>0.0111336302415843</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1553374588659281</v>
+        <v>0.1036851666252085</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.03744100095595911</v>
+        <v>-0.0003066420032372142</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.008687323527034184</v>
+        <v>-0.02414838062908193</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.02158461533228555</v>
+        <v>-0.04457466028241162</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.006550262864331723</v>
+        <v>-0.008503241050745626</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.003650547197600278</v>
+        <v>-0.01271065918920925</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.00539136473218925</v>
+        <v>0.003967292230134563</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.003542034436268867</v>
+        <v>0.002968389229511697</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0002192385418135952</v>
+        <v>0.001447122312117701</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.0004029167715121006</v>
+        <v>0.0009643503758731635</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001324451670622862</v>
+        <v>0.0008045246324926435</v>
       </c>
       <c r="AU8" t="n">
-        <v>-0.0002986477304446627</v>
+        <v>3.378085910623457e-05</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.0001129987715233957</v>
+        <v>-0.0002739519392135538</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.0002264267473198159</v>
+        <v>-0.0002065619170062578</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.222111973680744</v>
+        <v>0.3690162302944735</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.06359117841087975</v>
+        <v>-0.04282707727133393</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.07251573702536857</v>
+        <v>0.06953833994609127</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.1599394115491655</v>
+        <v>0.135304834513213</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.07010134489963753</v>
+        <v>0.003327144658816172</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.01417916567674831</v>
+        <v>-0.07277727976738117</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.01608923344886852</v>
+        <v>-0.003754648683044088</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0237057347732173</v>
+        <v>0.002658428651493833</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.003300884986365074</v>
+        <v>0.004511369262482868</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.004364447787259768</v>
+        <v>-0.006394597885001486</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.004902814026569606</v>
+        <v>-0.001046281394453707</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.004756657472931961</v>
+        <v>0.002454056431202957</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0007950419788543534</v>
+        <v>0.002645314779784769</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.0003058491318546711</v>
+        <v>-0.0009089489541975428</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.001539932155179662</v>
+        <v>-0.0007532064316749552</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0005798917359986496</v>
+        <v>0.0001080873795036526</v>
       </c>
     </row>
     <row r="9">
@@ -2139,196 +2139,196 @@
         <v>144</v>
       </c>
       <c r="B9" t="n">
-        <v>0.451585987291235</v>
+        <v>0.4847340923416952</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4831611767080998</v>
+        <v>0.4364355141709705</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05147310809931349</v>
+        <v>0.07428493077355107</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04709075247568942</v>
+        <v>0.03966312002826064</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07362908656771713</v>
+        <v>0.04279300010221616</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01632467287063443</v>
+        <v>-0.03670444659655169</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005839292916236897</v>
+        <v>-0.007350325656040226</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001439882011686843</v>
+        <v>-0.006815182423639946</v>
       </c>
       <c r="J9" t="n">
-        <v>0.004793489892123284</v>
+        <v>-0.004028767721261316</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.002513649349008285</v>
+        <v>-0.00201193894251394</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0001790536158899484</v>
+        <v>0.001026904035104274</v>
       </c>
       <c r="M9" t="n">
-        <v>-9.179577129933734e-05</v>
+        <v>-0.0003089805321241624</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0008028417711898866</v>
+        <v>0.0006209199375527152</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0002123379352228414</v>
+        <v>0.0002075898041541241</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0002335339637808695</v>
+        <v>4.481837930735419e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>-1.640793660071753e-05</v>
+        <v>5.950583456131966e-07</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.892210066656636</v>
+        <v>-0.8745641693769233</v>
       </c>
       <c r="S9" t="n">
-        <v>0.819640117791796</v>
+        <v>0.8626085425627801</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.02956677683006918</v>
+        <v>-0.0756294115622022</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1006076194094947</v>
+        <v>0.03562792290834182</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0008835570183434655</v>
+        <v>0.08771299406652452</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.02581608826796881</v>
+        <v>-0.02261228712069115</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01648102527969742</v>
+        <v>-0.01440368550954137</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.02025462745908846</v>
+        <v>0.01305985436686293</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.006576314090816558</v>
+        <v>-0.008908184984963112</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.009256625464004129</v>
+        <v>-0.005154522594271838</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.003171966229855285</v>
+        <v>0.002302989074062544</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.004063340855867146</v>
+        <v>1.134158092496189e-05</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.0007085756953363824</v>
+        <v>-0.0004366517086176131</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.00213307799355611</v>
+        <v>0.00017497981261668</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0001818883583201601</v>
+        <v>9.29288814706696e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.0009833825960486719</v>
+        <v>0.000117359603608211</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.8922334451409351</v>
+        <v>0.8743373375807767</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.09633625968490886</v>
+        <v>0.1004902823398137</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.03236982149938399</v>
+        <v>0.05314690316428546</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.044715025903845</v>
+        <v>0.02134345175462988</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.05618108128084284</v>
+        <v>0.01634827116935231</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.004710829065458833</v>
+        <v>-0.02425735102897022</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.005218210677502418</v>
+        <v>-0.007987471306531315</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.002109137448916809</v>
+        <v>-0.01181879916994225</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.006563425515926475</v>
+        <v>0.001672677842431664</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0009556204717813606</v>
+        <v>0.0009169564496877295</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.002296934294240436</v>
+        <v>-0.0009068819585768461</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.001043051226587403</v>
+        <v>-0.0005269885286154405</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.001224956842644644</v>
+        <v>0.001148850272322297</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0005050830734513004</v>
+        <v>0.0002845361062095789</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.0004768130176841172</v>
+        <v>-0.0001808837144347812</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.0003140129104701389</v>
+        <v>-0.0001083587261933002</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.4516008664877376</v>
+        <v>0.4848594377643012</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.2073299344116487</v>
+        <v>-0.1897650770072133</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.02171350014494808</v>
+        <v>-0.04849570618069846</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.2372596726480428</v>
+        <v>0.3081141400578764</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.02808155552688296</v>
+        <v>0.01001634260602401</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.09549613638976781</v>
+        <v>-0.1124413408941128</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0.004398392354998021</v>
+        <v>0.009942726888336764</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.04196857203020599</v>
+        <v>0.03192433959334842</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.008930995453790501</v>
+        <v>-0.006343820491227059</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.01874105417630908</v>
+        <v>-0.01398559346050582</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.005862572361001992</v>
+        <v>-0.0007165494121626514</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.008042134182744956</v>
+        <v>0.005669311903621329</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.003821575002473922</v>
+        <v>0.001113145442727677</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.003501629345999118</v>
+        <v>-0.002573217252478127</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.002148332800213255</v>
+        <v>-0.0004268443988388711</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.00142507943224256</v>
+        <v>0.001226065279008298</v>
       </c>
     </row>
     <row r="10">
@@ -2336,196 +2336,196 @@
         <v>146</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1147479197085659</v>
+        <v>0.3437141075643244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8428095657658797</v>
+        <v>0.5900893034336748</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03382312264249432</v>
+        <v>0.008153217641278495</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1745694588018139</v>
+        <v>0.07327297814416381</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02145908799478332</v>
+        <v>0.01332673443621831</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08564891698484356</v>
+        <v>-0.06446490114553684</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00596234371813893</v>
+        <v>-0.01612548896887139</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.009086250499487403</v>
+        <v>-0.00537379034160433</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.008941101169136103</v>
+        <v>-0.006286115516812238</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.003360004657330328</v>
+        <v>-0.002260928057088335</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002178269132692663</v>
+        <v>0.004549030338017001</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001556282545992248</v>
+        <v>0.0008788225224092775</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0009686838231486069</v>
+        <v>0.001207483384350589</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0005577541097158468</v>
+        <v>7.32458846917149e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0002716941193948121</v>
+        <v>-1.78458084364757e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0001859451131399346</v>
+        <v>-7.895427978331634e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.9934048675266053</v>
+        <v>-0.9390220639253688</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8221920441520276</v>
+        <v>0.8573705277769824</v>
       </c>
       <c r="T10" t="n">
-        <v>0.03050633875812486</v>
+        <v>0.001095273768126841</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1931570903017206</v>
+        <v>0.1438721920982622</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.004178602206428269</v>
+        <v>-0.03316087073098868</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.05830525261862191</v>
+        <v>-0.01801625896915452</v>
       </c>
       <c r="X10" t="n">
-        <v>0.02391302750398643</v>
+        <v>-0.004264569022395403</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.003739954576446034</v>
+        <v>0.011888441043099</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.01826343748452768</v>
+        <v>-0.02045042639294411</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.004366674861581342</v>
+        <v>-0.008441928832425248</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.003368726604575864</v>
+        <v>0.00730475364119257</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.001912675646252778</v>
+        <v>0.002185213981829079</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0005484112890688246</v>
+        <v>-0.0008704596470598653</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.0007408636451564982</v>
+        <v>-0.000804359862229377</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0005981042657137052</v>
+        <v>0.0009280983188286712</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.000420147823583146</v>
+        <v>0.0003864367542436092</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.9934117854344938</v>
+        <v>0.9386886488077468</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.07164468372638258</v>
+        <v>0.03402939705093902</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.1535801955396827</v>
+        <v>0.07750797164856472</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.1302285217834702</v>
+        <v>0.04728511492949208</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.0119498977905942</v>
+        <v>-0.008596048717352138</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.07174932889638821</v>
+        <v>-0.06466383825724456</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.0001552935578482313</v>
+        <v>-0.005553240282106495</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.00708667374161331</v>
+        <v>-0.008388524635711502</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0007501729010426298</v>
+        <v>-0.0001404338418767723</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0.005218662399315852</v>
+        <v>0.001307746095803176</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001104042336340337</v>
+        <v>0.001075027099080862</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.002194148818512084</v>
+        <v>0.001273272059735783</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.001083250800429951</v>
+        <v>0.00140708928611613</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0.0007770800062538029</v>
+        <v>-3.223850713965277e-05</v>
       </c>
       <c r="AV10" t="n">
-        <v>4.788314029455211e-05</v>
+        <v>-0.0004561172209429984</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0001743963345340284</v>
+        <v>1.634001297106328e-05</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1147118958530488</v>
+        <v>0.3438358070648884</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.02618597576768454</v>
+        <v>-0.1276252452901682</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.1434328598124581</v>
+        <v>0.1264523555519899</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.2328014059644556</v>
+        <v>0.1882464771841837</v>
       </c>
       <c r="BB10" t="n">
-        <v>-0.04697859891804577</v>
+        <v>0.02664536303761512</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.06639568853439319</v>
+        <v>-0.1210396969175188</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.01607108418989189</v>
+        <v>0.01412841075714683</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.008966915045066614</v>
+        <v>0.01340537741090173</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.008639743397296652</v>
+        <v>-0.001954494606730162</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.008439269669710588</v>
+        <v>-0.01386681657502684</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.00171931810785043</v>
+        <v>0.001285728841085383</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.003831809758514762</v>
+        <v>0.004394270119682278</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.0001007475821282744</v>
+        <v>0.002389084127026886</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.001338661919006884</v>
+        <v>-0.001935651240924193</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0002860323472702385</v>
+        <v>-0.0007079365528776989</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0005623140318358024</v>
+        <v>0.0008511275498065395</v>
       </c>
     </row>
     <row r="11">
@@ -2533,196 +2533,196 @@
         <v>156</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8402039333523552</v>
+        <v>0.8284852597997134</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02968717099587914</v>
+        <v>-0.009116715772186453</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1698672824312441</v>
+        <v>0.150303849620483</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04633549918019234</v>
+        <v>-0.04426769259882473</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07574266097468059</v>
+        <v>0.09281807099203634</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03932219191915054</v>
+        <v>-0.0353203962972975</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0444812478325242</v>
+        <v>0.04216302668689395</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.01001108220102871</v>
+        <v>-0.0106161172779478</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006350701948886409</v>
+        <v>0.007674133377561007</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.007459040673783199</v>
+        <v>-0.005442222015603214</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006584257596630427</v>
+        <v>0.006592532158557391</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.00102773232154473</v>
+        <v>-0.001554415298110499</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0009200330638131596</v>
+        <v>0.0007517097585696618</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001586625721940675</v>
+        <v>-0.0009968542667108664</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0009355461702387474</v>
+        <v>0.0009709477189821926</v>
       </c>
       <c r="Q11" t="n">
-        <v>-7.998060658278482e-05</v>
+        <v>-0.0001754801705781819</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.542271449827527</v>
+        <v>-0.5599760246537306</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8939340126156645</v>
+        <v>0.8923933840955237</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.4696785876467912</v>
+        <v>-0.454604643309619</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08819234066741148</v>
+        <v>0.09240425434516274</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01702091847887656</v>
+        <v>0.01454011551770434</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03628686391898214</v>
+        <v>0.0429771663702798</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.03020556865651121</v>
+        <v>-0.0428115138422676</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.003200043098723708</v>
+        <v>0.01243184508762391</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.001601704464128827</v>
+        <v>0.0002527291449409659</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01028059649672415</v>
+        <v>0.006634845974915412</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.006078172074771335</v>
+        <v>-0.006012961666570258</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.000809031800743694</v>
+        <v>0.001594232991013591</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.001110870376903469</v>
+        <v>-0.0004337852136434821</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001857725131504075</v>
+        <v>0.001286265263228315</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.0006091553833263453</v>
+        <v>-0.0007690809322453985</v>
       </c>
       <c r="AG11" t="n">
-        <v>-2.602377870032312e-05</v>
+        <v>9.317082763322074e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.542270987941198</v>
+        <v>0.5599650012399181</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2439209939072953</v>
+        <v>0.2342012399756802</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.03647171436712409</v>
+        <v>0.003712710983681952</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.08131078705140758</v>
+        <v>-0.0495070394963768</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.419391099913945e-05</v>
+        <v>0.008738831001312402</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.06073425961367925</v>
+        <v>0.0638456460988182</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.02094223931202479</v>
+        <v>0.01073759529305901</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.02096388423282563</v>
+        <v>-0.01785890856714126</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.008142685403123288</v>
+        <v>-0.004947635469914822</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.008109234270679342</v>
+        <v>0.01043510247835687</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.006518181819113001</v>
+        <v>0.003980669233858464</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.002628092332272238</v>
+        <v>-0.003040870226423558</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.002744666416337038</v>
+        <v>-0.00195618062749357</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.000632557660552829</v>
+        <v>0.001367472804176277</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.001457249852859</v>
+        <v>0.001033393525549659</v>
       </c>
       <c r="AW11" t="n">
-        <v>-6.499383213774191e-05</v>
+        <v>-0.0003283954534797944</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.8402032736147497</v>
+        <v>0.8285032143342612</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.5218215775977826</v>
+        <v>-0.5331153557111166</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0.1269387434796938</v>
+        <v>-0.0860052024977183</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.2012445635342126</v>
+        <v>0.1849961453937069</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.04370434019618027</v>
+        <v>0.05746875146538536</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0.04036077973471072</v>
+        <v>-0.06565280435248823</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.04193473873980103</v>
+        <v>-0.02646240558961481</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.02036546807771113</v>
+        <v>0.02517380061270025</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.01892013536282919</v>
+        <v>0.0147685492610186</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.005073509009532004</v>
+        <v>-0.008427257738745465</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.008556347964299375</v>
+        <v>-0.006446254648282342</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0007361239691417492</v>
+        <v>0.002269651760380592</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.003767033159185333</v>
+        <v>0.003377973918023149</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0004926836307121739</v>
+        <v>-0.0005517695777513052</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.001665062068898456</v>
+        <v>-0.001420800792491653</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.0004027844433233377</v>
+        <v>-1.416514851667334e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2730,196 +2730,196 @@
         <v>158</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08036123970069338</v>
+        <v>0.1442016092135556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.008490198248163</v>
+        <v>0.8951889322203236</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04066950213771273</v>
+        <v>0.04194794197312631</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.03025348000585701</v>
+        <v>-0.007516739967817797</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03963271865139142</v>
+        <v>-0.01585731964574812</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1368031059819554</v>
+        <v>0.09397891616953453</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05126128114801806</v>
+        <v>0.03233191291160081</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01939233614938273</v>
+        <v>-0.01293855257898646</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0195286684804971</v>
+        <v>-0.01611952005752853</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02565247190042389</v>
+        <v>0.01757006012512154</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01187371800955559</v>
+        <v>0.008391692032000382</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.004507113728494049</v>
+        <v>-0.004496788855669187</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.005057934478180181</v>
+        <v>-0.004426942739104748</v>
       </c>
       <c r="O12" t="n">
-        <v>0.004161388861673255</v>
+        <v>0.003311790844214753</v>
       </c>
       <c r="P12" t="n">
-        <v>0.002783964930514171</v>
+        <v>0.002061248343179774</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0008171647835117352</v>
+        <v>-0.001027775403964749</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.9967649930525868</v>
+        <v>-0.9895660705197578</v>
       </c>
       <c r="S12" t="n">
-        <v>1.082849187377178</v>
+        <v>1.055669310824068</v>
       </c>
       <c r="T12" t="n">
-        <v>0.06111729616258579</v>
+        <v>0.08677390328426419</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.1245025658756497</v>
+        <v>-0.1305725827537632</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.2254529380911179</v>
+        <v>-0.213684920559442</v>
       </c>
       <c r="W12" t="n">
-        <v>0.201950538060492</v>
+        <v>0.1989814569863819</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04610276951275405</v>
+        <v>0.04012172272437605</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.03725463767965701</v>
+        <v>-0.03881201921455611</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.04693461813839758</v>
+        <v>-0.04808392787225381</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03440843991390336</v>
+        <v>0.03681500396966119</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01385201918603839</v>
+        <v>0.01397955882407044</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.007026869381002969</v>
+        <v>-0.009285427275916589</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.01034352112746337</v>
+        <v>-0.01132157528984714</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.005458415338327841</v>
+        <v>0.006891149398298617</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.003700622382166904</v>
+        <v>0.004110482376421741</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.00115914458757344</v>
+        <v>-0.002016064902005138</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.996765094257651</v>
+        <v>0.9893382317205169</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2257346165144679</v>
+        <v>0.1705903652192717</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.01496654672036179</v>
+        <v>-0.009039975260762573</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.0566243685520465</v>
+        <v>0.07456377286453381</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.04559658011500949</v>
+        <v>0.04974244125843856</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.07535011059440987</v>
+        <v>0.03049116942303839</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.009861423940318028</v>
+        <v>0.004699704715565638</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.01096953837918516</v>
+        <v>-0.002422626600713987</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.007658366853865246</v>
+        <v>0.005277803009000379</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0151532565390324</v>
+        <v>0.007276782687205719</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.00140912041902334</v>
+        <v>-0.0005697258862015675</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.003136482398562907</v>
+        <v>-0.001877301363913921</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0007107490379541628</v>
+        <v>0.0008847740475192633</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.002841968427798837</v>
+        <v>0.001438500326525292</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0004173692855013682</v>
+        <v>-0.0001997029585434382</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.000756519186668623</v>
+        <v>-0.0005173923119408593</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.08036154430611347</v>
+        <v>0.1442354943564537</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.3541505576320109</v>
+        <v>0.3127981196798756</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.03514880517125007</v>
+        <v>-0.0817136408509555</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.109606328414562</v>
+        <v>-0.06067045240098066</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.007346200025033325</v>
+        <v>0.03971152564438658</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.09967802258510575</v>
+        <v>0.05885039620727905</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0.01142221317579573</v>
+        <v>-0.01972953641964838</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.02937482959135313</v>
+        <v>-0.01756166176104001</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.001439151731916125</v>
+        <v>0.006808458423148049</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01890128881655739</v>
+        <v>0.01245009987736101</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0.0005217047327331802</v>
+        <v>-0.003472457749765375</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0.00639520261171898</v>
+        <v>-0.004766981283728229</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.0005725856959265112</v>
+        <v>0.001070618680391199</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.003701632600091564</v>
+        <v>0.002836030880718326</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0003406496526844778</v>
+        <v>-0.0005489553245084337</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.001354091653405913</v>
+        <v>-0.001206733561796948</v>
       </c>
     </row>
     <row r="13">
@@ -2927,196 +2927,196 @@
         <v>174</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8028058773173249</v>
+        <v>0.809508075345228</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07795028380217139</v>
+        <v>-0.01056478629678543</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1430847809132831</v>
+        <v>0.1645776457223118</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02795821455120696</v>
+        <v>0.008303417232148306</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.05306761754597815</v>
+        <v>-0.04856851028928028</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.06112117533666644</v>
+        <v>-0.04692199768567408</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0234105538317017</v>
+        <v>-0.007788562289907189</v>
       </c>
       <c r="I13" t="n">
-        <v>0.006915912191366783</v>
+        <v>0.0003350785157778808</v>
       </c>
       <c r="J13" t="n">
-        <v>0.002816370842589344</v>
+        <v>0.005932353626879969</v>
       </c>
       <c r="K13" t="n">
-        <v>0.009913534861467288</v>
+        <v>0.001288358838460986</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003307657484489727</v>
+        <v>0.0004407933367639456</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001180665115771198</v>
+        <v>0.00197295603774168</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0001678967470207539</v>
+        <v>-0.0005779308814572886</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.001819637369164521</v>
+        <v>-0.0003329022601990274</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0004581849004699348</v>
+        <v>-0.0002949500683944917</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.000348800472224688</v>
+        <v>-0.0001040774670415902</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.5962401735440114</v>
+        <v>-0.5868021045857259</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8390258996319809</v>
+        <v>0.9088817320284358</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.3183942863284413</v>
+        <v>-0.3597234943534849</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1051512093695922</v>
+        <v>0.04607729756223902</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04035539024623124</v>
+        <v>0.02586796433468057</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.1082518199871843</v>
+        <v>-0.07752144267604036</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0734870788917148</v>
+        <v>0.07901877212271004</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.05027166290523204</v>
+        <v>-0.04638226272542069</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.008674126889512367</v>
+        <v>0.004428822778957501</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01089290806742127</v>
+        <v>0.01165429264970074</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.009320670047152714</v>
+        <v>-0.008714707739278368</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.008658497663474624</v>
+        <v>0.006496929326749301</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.003568305011264226</v>
+        <v>-0.003583862593094547</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0004729257591479244</v>
+        <v>6.345703284394714e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.0006574618272178206</v>
+        <v>0.001481300980140412</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.001328580523008422</v>
+        <v>-0.001242694143441268</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.5962380834139582</v>
+        <v>0.5867028934020855</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.350090804712629</v>
+        <v>0.1963901671267639</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.1064507638912625</v>
+        <v>0.0626283753210357</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.07754852475023571</v>
+        <v>-0.09283754862832837</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.06078238565824572</v>
+        <v>-0.05088769349160915</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.01345443416629607</v>
+        <v>0.003450351332046083</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.01223405240330665</v>
+        <v>-0.007819515713148335</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.004565210515649027</v>
+        <v>-0.001602571590417334</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.01598132355130252</v>
+        <v>0.001652006059828056</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.006546583406294144</v>
+        <v>0.003759681522310566</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.001693737691740252</v>
+        <v>0.002805662420411404</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.0006709780451716019</v>
+        <v>-0.001085783415542016</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.001430056768146801</v>
+        <v>-0.0006813453613866351</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.0004445927135448756</v>
+        <v>-9.813905280227855e-06</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.0007902840487339404</v>
+        <v>-4.81198593842731e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.0001291223483005836</v>
+        <v>3.688910358625631e-06</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.802806930877744</v>
+        <v>0.8096464670237847</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.680497650643943</v>
+        <v>-0.4902801329098794</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.3162234338070395</v>
+        <v>0.01199798834607587</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.06352027751671691</v>
+        <v>0.1300834402832006</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.113663559232906</v>
+        <v>-0.06638468615352859</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.04262342049248222</v>
+        <v>0.02881315157505122</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.05306590917794395</v>
+        <v>-0.03789162738069407</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.02690830717550877</v>
+        <v>0.006016180103938345</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0004032301678159362</v>
+        <v>0.01795012150237008</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.009330116787478068</v>
+        <v>-0.01130052924347444</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.01012021493227903</v>
+        <v>0.002837692771593783</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.003053569348060406</v>
+        <v>-0.0006609048461321118</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001135818435505543</v>
+        <v>6.831620504999943e-05</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0.0004261558897676967</v>
+        <v>0.001226206545308327</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.0009781916943183697</v>
+        <v>-0.001418396948164477</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0007563795852066717</v>
+        <v>0.0003843720789679523</v>
       </c>
     </row>
     <row r="14">
@@ -3124,196 +3124,196 @@
         <v>182</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5091608590964317</v>
+        <v>0.3846734841712973</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4250118592493658</v>
+        <v>0.5533552853975761</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01384095039328032</v>
+        <v>0.02837980559070093</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09612624810161655</v>
+        <v>0.06400121557457429</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08352307064668889</v>
+        <v>0.03711337205856453</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01994185288141271</v>
+        <v>-0.03989769703189392</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03519397185544634</v>
+        <v>0.02919902776620835</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004913987128481069</v>
+        <v>0.0004861717863299129</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01939974297282104</v>
+        <v>0.000142691629075782</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002535090833104466</v>
+        <v>-0.0002433571400196037</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.004594526561140297</v>
+        <v>-0.000879448647901952</v>
       </c>
       <c r="M14" t="n">
-        <v>0.004827283617823419</v>
+        <v>0.001269004656358396</v>
       </c>
       <c r="N14" t="n">
-        <v>0.001776615710278509</v>
+        <v>0.0002351233493748066</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001118065796520187</v>
+        <v>-0.0005938056451573927</v>
       </c>
       <c r="P14" t="n">
-        <v>-9.810304948557074e-05</v>
+        <v>0.0001891647654257688</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0004163711726977306</v>
+        <v>1.210732557646723e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.8606729176665923</v>
+        <v>-0.9229913851123794</v>
       </c>
       <c r="S14" t="n">
-        <v>0.8630098216727276</v>
+        <v>1.004653878255918</v>
       </c>
       <c r="T14" t="n">
-        <v>0.01201038372773489</v>
+        <v>-0.03315722109797609</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06456872809461936</v>
+        <v>-0.02661609865562946</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.1272453469391552</v>
+        <v>-0.06248398444813828</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.04610087656883656</v>
+        <v>0.01394258781548106</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1064334169701349</v>
+        <v>0.0402446720656101</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.002398387452641338</v>
+        <v>-0.003215786660325168</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.01499628587278993</v>
+        <v>-0.01952031402321915</v>
       </c>
       <c r="AA14" t="n">
-        <v>-0.006409458667945628</v>
+        <v>0.007699720754718429</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.0009974337007847762</v>
+        <v>0.001766122268877525</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.01250108349216307</v>
+        <v>0.001067965947139036</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.00339639108660644</v>
+        <v>-0.00213499648328097</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.001785247137156413</v>
+        <v>-0.0001159768309287662</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0004408506525065443</v>
+        <v>0.0007533735912999005</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0002412855773298934</v>
+        <v>0.0001074426128363505</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.8606694241045834</v>
+        <v>0.9227209801796249</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.04213996787938469</v>
+        <v>0.05319225819033574</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0594712303600194</v>
+        <v>0.05219333042462639</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.04872633099244664</v>
+        <v>0.04747049064326074</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.02113338768816892</v>
+        <v>-0.009981287089492882</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.05337599002190613</v>
+        <v>0.01546376579102183</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.001542242008858426</v>
+        <v>0.004281535608892298</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.008133815290175992</v>
+        <v>-0.003789824997045487</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01054010466427805</v>
+        <v>0.004624767893031541</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0.001686510522309327</v>
+        <v>-0.001682393589169355</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.004979674113346204</v>
+        <v>0.0006266824449140652</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.0001704120817838292</v>
+        <v>7.990087483081751e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.001279586504120207</v>
+        <v>-0.0001243549251746039</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0008915372354628205</v>
+        <v>0.0001228402922704847</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.0003652327463290419</v>
+        <v>-1.491565312610175e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0005381456564612328</v>
+        <v>-3.476369478836812e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.5091618007068904</v>
+        <v>0.3847859853157902</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.09907493036516149</v>
+        <v>0.07633684052803813</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.0005143719427780807</v>
+        <v>-0.09534822640348328</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.0748821716968877</v>
+        <v>0.1145965153416827</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.08543276727815963</v>
+        <v>-0.05319467534826953</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.07537686515845428</v>
+        <v>0.02264156659166565</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.01152915333812629</v>
+        <v>-0.003938476966963022</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.004977029182890306</v>
+        <v>0.0003900984512624085</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.002125807710059047</v>
+        <v>0.001825538129270198</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.007961390827562687</v>
+        <v>-0.0004539220903998564</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.008500968936141818</v>
+        <v>-0.0008577940424600928</v>
       </c>
       <c r="BI14" t="n">
-        <v>-0.000685619255462654</v>
+        <v>0.001090037794607897</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.0006906928028549138</v>
+        <v>-0.0005723238007546859</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0006056268404909654</v>
+        <v>0.0002786122111958328</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.0007907334242773037</v>
+        <v>-0.0001474338409325443</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.001019422943220123</v>
+        <v>4.353254744151997e-05</v>
       </c>
     </row>
     <row r="15">
@@ -3321,196 +3321,196 @@
         <v>184</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5567825868225077</v>
+        <v>0.6427459898756014</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3613198266735693</v>
+        <v>0.2370963190352404</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.02612618685230575</v>
+        <v>0.03142519429541763</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09100994529522642</v>
+        <v>0.08965548711694925</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08809361761234927</v>
+        <v>0.06614962416115625</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01755714395089418</v>
+        <v>-0.03783477636773153</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04954357400737247</v>
+        <v>0.02961884040122657</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008880413397767963</v>
+        <v>0.01055627625867245</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02500063732349667</v>
+        <v>0.007800524849710585</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.002041084681501409</v>
+        <v>0.0009413391637546991</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.003481422866732324</v>
+        <v>-0.004277595562232369</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01142405841590816</v>
+        <v>0.004525749377003001</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.001162118775990635</v>
+        <v>-0.000366649442273987</v>
       </c>
       <c r="O15" t="n">
-        <v>0.004435956280743831</v>
+        <v>0.0008538381834264391</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.001382787900385214</v>
+        <v>8.749076951378805e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0001812641198410651</v>
+        <v>-0.0005278953177471045</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.8306589691522387</v>
+        <v>-0.7658919144410172</v>
       </c>
       <c r="S15" t="n">
-        <v>0.8784223116070996</v>
+        <v>0.9959072949512909</v>
       </c>
       <c r="T15" t="n">
-        <v>0.06278120904725723</v>
+        <v>-0.06306991335921927</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0457083613816596</v>
+        <v>-0.1071632406003648</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.2577141673084558</v>
+        <v>-0.1526788187039476</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.03295926287092381</v>
+        <v>0.02774713491981637</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1742081568732163</v>
+        <v>0.1122874199297234</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.03553666291978215</v>
+        <v>-0.04097568174514376</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.02655049872841975</v>
+        <v>0.0007847593498127836</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.04602919303169312</v>
+        <v>-0.01455825729976684</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.00128323929886667</v>
+        <v>0.002114133648317088</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01929876377005408</v>
+        <v>0.01082434054372936</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.006967490520520754</v>
+        <v>-0.005150101197129151</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01153617240654204</v>
+        <v>0.002029897860405561</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.01160123388329223</v>
+        <v>-0.002645379446766362</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.001678266573797174</v>
+        <v>0.0004383255902363702</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.830658167851848</v>
+        <v>0.7657059646625852</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.03252313447501762</v>
+        <v>0.06872215306107769</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.03815425445424858</v>
+        <v>0.05384899493994874</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.06894542184707117</v>
+        <v>0.07789521458369335</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.03199848445135717</v>
+        <v>-0.01671309572404598</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.06689937586266634</v>
+        <v>0.03536747258305263</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.01137209564676626</v>
+        <v>0.003618179984887009</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.03522950198798849</v>
+        <v>0.01414551639966096</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.002196540020874861</v>
+        <v>0.00338015273577948</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.002492309510983005</v>
+        <v>-0.005756050384434767</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.01129753508042833</v>
+        <v>0.005253853380230308</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.001856886564465265</v>
+        <v>-0.000642599887215351</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.007057052170325917</v>
+        <v>0.001534929371224791</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.002407748034488112</v>
+        <v>1.386675641675795e-05</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.0006077410554618783</v>
+        <v>-0.0006259504868217511</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.001628331954878097</v>
+        <v>0.0006484327368267208</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.5567823122063026</v>
+        <v>0.6429005393644101</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.1984281361413718</v>
+        <v>-0.1294559636760609</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.2807346027281005</v>
+        <v>0.0650979958469159</v>
       </c>
       <c r="BA15" t="n">
-        <v>-0.2488167607244316</v>
+        <v>-0.1990584080070809</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.07829794849561958</v>
+        <v>-0.02036727423043508</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.1693824261914678</v>
+        <v>0.13538083870652</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0.03328640126997694</v>
+        <v>-0.03640977133525225</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.05252764013775301</v>
+        <v>0.008933610517284155</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.06848046063957278</v>
+        <v>-0.02536483975265011</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.00855920778540337</v>
+        <v>0.002808487049200087</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.02023285868230843</v>
+        <v>0.01308795112370432</v>
       </c>
       <c r="BI15" t="n">
-        <v>-0.009548175172431514</v>
+        <v>-0.006177347398007837</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.01486907774941982</v>
+        <v>0.003434585184494037</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.01485769591356651</v>
+        <v>-0.003807642853702397</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.004363644817567568</v>
+        <v>0.0006548433405227271</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0003280149624436668</v>
+        <v>0.001258191665975345</v>
       </c>
     </row>
     <row r="16">
@@ -3518,196 +3518,196 @@
         <v>186</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7495761221451739</v>
+        <v>0.5280913056245661</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2570852686825065</v>
+        <v>0.357696157969612</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6348879559101148</v>
+        <v>0.02184037696716176</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3052091093691079</v>
+        <v>0.03713805422277443</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2793206013245071</v>
+        <v>-0.006880704814949301</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5205539085671956</v>
+        <v>-0.02838350508134638</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4984517203010643</v>
+        <v>0.02323163784327888</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4483879490522982</v>
+        <v>-0.0001987388720394502</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4272613150265931</v>
+        <v>0.0004971985530103391</v>
       </c>
       <c r="K16" t="n">
-        <v>0.4496682843731247</v>
+        <v>-0.003204728446778768</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5194201112595367</v>
+        <v>0.001012917894720938</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5176745485319829</v>
+        <v>0.0008484201422198984</v>
       </c>
       <c r="N16" t="n">
-        <v>0.4946679586925604</v>
+        <v>-0.0002155178617125677</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5074246661090417</v>
+        <v>-0.000455059938432632</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5354798936767853</v>
+        <v>0.0002623507604992004</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5578895083767269</v>
+        <v>1.958745064858682e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.6619185025733183</v>
+        <v>-0.8491051436528313</v>
       </c>
       <c r="S16" t="n">
-        <v>1.143743081438643</v>
+        <v>1.123879768302807</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.4853918067218779</v>
+        <v>-0.1857082746206149</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.3976503141524583</v>
+        <v>-0.05966851101971733</v>
       </c>
       <c r="V16" t="n">
-        <v>0.4089501716195706</v>
+        <v>-0.1294446072614298</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.03866615855450239</v>
+        <v>0.1172702875706341</v>
       </c>
       <c r="X16" t="n">
-        <v>0.02333933831031967</v>
+        <v>0.002084943225738992</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.03786941750960594</v>
+        <v>-0.01567452719737533</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.08430092964965036</v>
+        <v>-0.01835410286973619</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.09679190116224039</v>
+        <v>0.018913234081985</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.03295671579086895</v>
+        <v>-0.002433352542710594</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.03164296115094805</v>
+        <v>-0.001168124260996874</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.01145180570500577</v>
+        <v>-0.002679562565837585</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.003131547445602578</v>
+        <v>0.002640911717406581</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.02846546694107525</v>
+        <v>-0.0002806789771781224</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.01151367330908413</v>
+        <v>-0.0002722599301356625</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.66191825610855</v>
+        <v>0.8489785603195525</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.6964384490800213</v>
+        <v>-0.01309536829881272</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.3267113902402973</v>
+        <v>0.0299439070406708</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.1959957950383817</v>
+        <v>0.003842248687547694</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.4251445521498119</v>
+        <v>-0.02478436239804587</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.5567696250957129</v>
+        <v>0.02036119255086767</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.5085061098114659</v>
+        <v>0.0005017791864795885</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.3925777414354615</v>
+        <v>-0.002159933509199687</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.4058809406985465</v>
+        <v>0.001461348010988341</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.5068146383100821</v>
+        <v>-0.001440672622972291</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.538584030860207</v>
+        <v>0.001157847653910323</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.501828261332706</v>
+        <v>-0.0003456522494092312</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.4836818760649992</v>
+        <v>-8.002441542685416e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.5160366010262922</v>
+        <v>8.534258176973822e-05</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.5565687517029593</v>
+        <v>4.15887653161523e-06</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.56418417497294</v>
+        <v>-1.301579597916724e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.7495768248992482</v>
+        <v>0.5281700981690852</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.2432687481512723</v>
+        <v>-0.005532322936534021</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.3887221791283288</v>
+        <v>-0.1572300161190473</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.03576736464144497</v>
+        <v>0.06302854534914039</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.1918084751111405</v>
+        <v>-0.02825678612288677</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.1367426971883576</v>
+        <v>0.03990771643237223</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0.1270762760620912</v>
+        <v>-0.02271785531927071</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0.1219883353451677</v>
+        <v>0.001973246137897718</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.07051130061035797</v>
+        <v>0.002109607909970288</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.08798390363874499</v>
+        <v>0.001487585824743973</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0.0003593270597342947</v>
+        <v>-0.002050287396882441</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0.05170546792389286</v>
+        <v>0.0005328217463685789</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.01516502974983416</v>
+        <v>-0.0001451445292469405</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.04045834327560621</v>
+        <v>0.000524010745326318</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.0280830692120531</v>
+        <v>-0.0004547446756574947</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0.01039634800698223</v>
+        <v>0.0001156529799532954</v>
       </c>
     </row>
     <row r="17">
@@ -3715,196 +3715,196 @@
         <v>199</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2198499222301996</v>
+        <v>0.2217576122815317</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9302530416258459</v>
+        <v>-1.05072544306281</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2285854580351888</v>
+        <v>-0.2545858639042972</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5638329801530855</v>
+        <v>-0.4411024621803142</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008275404543514256</v>
+        <v>0.00902210812738821</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3282295988886539</v>
+        <v>0.2150351047667777</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2170811135275698</v>
+        <v>0.1041294264409618</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06927643752723447</v>
+        <v>0.04059323476394162</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1047369858649651</v>
+        <v>0.1103730096636359</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01077365446997776</v>
+        <v>0.01798613467609546</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.07994678741196501</v>
+        <v>-0.04110471443859259</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.06459511696893243</v>
+        <v>-0.02601246523705573</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.05497153373499814</v>
+        <v>-0.02295808493565116</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01866125488480085</v>
+        <v>-0.01640940261886587</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01919179723607176</v>
+        <v>-0.001308278663711523</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.02527208586793639</v>
+        <v>0.00301780648581306</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9755341457222888</v>
+        <v>0.9750621349092147</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.4972765910765595</v>
+        <v>-0.5833773710344132</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.1954858325758289</v>
+        <v>-0.2051983657941776</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.46003212045449</v>
+        <v>-0.2885407772777557</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.04939530040122877</v>
+        <v>-0.006564867075451015</v>
       </c>
       <c r="W17" t="n">
-        <v>0.04188055386575432</v>
+        <v>0.006301184089833921</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1227423850580134</v>
+        <v>0.03652868592100355</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.02091260501723267</v>
+        <v>-0.000242658784554728</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.1015777583271014</v>
+        <v>0.07685071459929141</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.04566502046042749</v>
+        <v>0.03286661743765446</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.01107171633120542</v>
+        <v>-0.008757140609411107</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.03776102463796798</v>
+        <v>-0.0109741241872157</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.03395709181831434</v>
+        <v>-0.005420086463117211</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.02524190150046809</v>
+        <v>-0.01074502332332437</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.004255249005161751</v>
+        <v>-0.006096991155142204</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.006164359350405149</v>
+        <v>-0.001691931252384312</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.975533807752232</v>
+        <v>-0.9752449101398547</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.1783845579934535</v>
+        <v>-0.231750026373368</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.2104463027853733</v>
+        <v>-0.2322838808345888</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.4623221043460168</v>
+        <v>-0.416663297699157</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.07650377413112233</v>
+        <v>0.07688316060182576</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.4362695331402665</v>
+        <v>0.3141358895261965</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.100777903807942</v>
+        <v>0.02428428836922451</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.09792860679670204</v>
+        <v>0.06348336400104169</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.03635534566483298</v>
+        <v>0.06653758442965378</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.05991700240989948</v>
+        <v>-0.01178874261578682</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.07373558163842706</v>
+        <v>-0.03558915140940946</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.04405586662168217</v>
+        <v>-0.02061657364738504</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0.05046774028270615</v>
+        <v>-0.02805664353337372</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.001532429767108183</v>
+        <v>-0.005854221628414592</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.02864441169640579</v>
+        <v>0.004629195532760954</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.02257247813898025</v>
+        <v>0.002571055205069211</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.2198508594829429</v>
+        <v>0.2217168115088115</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.2130024036730917</v>
+        <v>-0.2459456041820696</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.1845415531999575</v>
+        <v>-0.1597789915920232</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0.3868540491689766</v>
+        <v>-0.2991021403580973</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.09264095128673044</v>
+        <v>-0.0309188234521633</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.1914313391347134</v>
+        <v>0.1255714277122136</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.07650047998807688</v>
+        <v>0.006137260413150241</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.05321914678688655</v>
+        <v>0.01247500365281665</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.05973052641430728</v>
+        <v>0.05745379541085054</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0228205551492742</v>
+        <v>0.02273609642604603</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0.02968854266380214</v>
+        <v>-0.0144910755769606</v>
       </c>
       <c r="BI17" t="n">
-        <v>-0.02711144449225598</v>
+        <v>-0.008226165905836986</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.03862387926066841</v>
+        <v>-0.01205333952953328</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0.01515548255262152</v>
+        <v>-0.006765729974520552</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.003887657993572755</v>
+        <v>-0.002133523684183655</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.009896674565393417</v>
+        <v>-0.0008877738232036736</v>
       </c>
     </row>
     <row r="18">
@@ -3912,196 +3912,196 @@
         <v>228</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2673594036930739</v>
+        <v>0.9289237327094592</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7895518338151388</v>
+        <v>1.259174053884291</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05356923579260989</v>
+        <v>1.179118299072892</v>
       </c>
       <c r="E18" t="n">
-        <v>0.156422887571669</v>
+        <v>0.3321966164389888</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01722318142318781</v>
+        <v>0.7447498144214114</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02893057733998193</v>
+        <v>0.5775653577793404</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1190142786183693</v>
+        <v>0.5140814933010103</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02910743084005289</v>
+        <v>0.4360851111312833</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01736684091623817</v>
+        <v>0.4188911139018608</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02666088335979014</v>
+        <v>0.3524492736907016</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0004378731763911833</v>
+        <v>0.3234077254492633</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01984965453655762</v>
+        <v>0.2844307366119548</v>
       </c>
       <c r="N18" t="n">
-        <v>0.006666889464426243</v>
+        <v>0.2552855269583267</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003262902360443085</v>
+        <v>0.2257928182125937</v>
       </c>
       <c r="P18" t="n">
-        <v>0.006325979280418109</v>
+        <v>0.2022889820860778</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0006143534824688412</v>
+        <v>0.1794990897397643</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.9635972486270121</v>
+        <v>0.3702699657047579</v>
       </c>
       <c r="S18" t="n">
-        <v>1.129795094459547</v>
+        <v>-0.1313288694332457</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.1540331067091084</v>
+        <v>-0.05873803811804684</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1068125747902922</v>
+        <v>-0.0447556897237277</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.2661929576432639</v>
+        <v>0.009334654043956808</v>
       </c>
       <c r="W18" t="n">
-        <v>0.07479996852851284</v>
+        <v>-0.03519955546260597</v>
       </c>
       <c r="X18" t="n">
-        <v>0.08838483238249535</v>
+        <v>-0.01302155242782566</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.01101164676091411</v>
+        <v>-0.01850230805978392</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.02458441807526564</v>
+        <v>-0.01256857362369332</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.02594291820067785</v>
+        <v>-0.01405769591478985</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.02007440747093254</v>
+        <v>-0.0104548684948467</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01691303081189236</v>
+        <v>-0.01059108198114854</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.004847144428895618</v>
+        <v>-0.008766291636281634</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.001920299980194358</v>
+        <v>-0.008148421444233098</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.00219972248022612</v>
+        <v>-0.00705377936397425</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.002427511918476621</v>
+        <v>-0.006417894064417992</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.9635972031259037</v>
+        <v>-0.3702697512842271</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.2047748878303052</v>
+        <v>2.459390171821639</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.03450035930831357</v>
+        <v>1.918306172800098</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.184498948008663</v>
+        <v>-0.1316449286415476</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.07331359638332753</v>
+        <v>1.007362486731906</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.1412452103616936</v>
+        <v>0.7658410429340322</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.06279554571993702</v>
+        <v>0.6029995023336387</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.0002728766153525148</v>
+        <v>0.519753151888689</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.04361423199610868</v>
+        <v>0.5280931263877024</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-0.002869355715145488</v>
+        <v>0.4229682491309981</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.01454765695582914</v>
+        <v>0.3961914383684004</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.01757897807535546</v>
+        <v>0.3476197923644707</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0.002218740610217054</v>
+        <v>0.3121272118727177</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.009290448008865913</v>
+        <v>0.2751564959408083</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.001619387327273183</v>
+        <v>0.2475009651325079</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.001060833726193873</v>
+        <v>0.2190666150577761</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.2673593128273071</v>
+        <v>0.9289249388257219</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.1568628535287077</v>
+        <v>-0.2039099308863898</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.02521478812884447</v>
+        <v>-0.1683415493871087</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.08944319830585597</v>
+        <v>-0.05682709195378735</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0.2777373473883769</v>
+        <v>0.04654800430383399</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.1989728902161934</v>
+        <v>-0.05859084664779191</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.01034262883139319</v>
+        <v>-0.01346755378042605</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0.03053455304378713</v>
+        <v>-0.02265175281451967</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.01765235854549825</v>
+        <v>-0.0147958330933565</v>
       </c>
       <c r="BG18" t="n">
-        <v>-0.0152575219814919</v>
+        <v>-0.01811647951899867</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.008617581314235533</v>
+        <v>-0.01200404322837892</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.009886046396774427</v>
+        <v>-0.01330189004830933</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-0.01133207768848899</v>
+        <v>-0.01058634186465743</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.009465852509433515</v>
+        <v>-0.01000913886621839</v>
       </c>
       <c r="BL18" t="n">
-        <v>-0.003514947592149288</v>
+        <v>-0.008563423457325026</v>
       </c>
       <c r="BM18" t="n">
-        <v>-0.0003993808017637699</v>
+        <v>-0.007880001603635875</v>
       </c>
     </row>
     <row r="19">
@@ -4109,196 +4109,196 @@
         <v>273</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3979678744647292</v>
+        <v>0.7617997078404759</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.567581514744011</v>
+        <v>0.2094986051703613</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5917831026325108</v>
+        <v>0.04674143412124224</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.50132745122031</v>
+        <v>-0.0620188303261985</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.474275623190541</v>
+        <v>0.1470249338263204</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3105401158138416</v>
+        <v>0.1884673499100804</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.2686910345696731</v>
+        <v>0.09218460525209055</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2022901037581462</v>
+        <v>0.02387231624962837</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.1590639192241565</v>
+        <v>0.01808005658437635</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1247705116790202</v>
+        <v>0.04161965752981784</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.09703662437779073</v>
+        <v>0.05513409069582683</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.07603222222995092</v>
+        <v>0.03131969842555019</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.05933997485435024</v>
+        <v>0.01884204245759944</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.04637636364552722</v>
+        <v>0.0134275591614957</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.03623883650329993</v>
+        <v>0.01485949394518528</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.02831168166864194</v>
+        <v>0.01645924237646491</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9173846661605718</v>
+        <v>-0.6477373402400267</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.5115110883423938</v>
+        <v>0.461606175454343</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.07993162029988989</v>
+        <v>0.1709812288105248</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.02908566354545039</v>
+        <v>0.1146693315997324</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.09982539107357973</v>
+        <v>-0.0984694366172168</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.03284590452272326</v>
+        <v>-0.1622061142248456</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.04301855991128174</v>
+        <v>0.08230135411257991</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.02927242123231062</v>
+        <v>0.06457910181298782</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.02306593677057438</v>
+        <v>0.02361161283378513</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.01853460353635345</v>
+        <v>-0.002711729570644477</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.01413203520204993</v>
+        <v>-0.03799568974568442</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.01118685296077152</v>
+        <v>0.01535845593281521</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.008701051796392021</v>
+        <v>0.0129033289634748</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.006802314244783234</v>
+        <v>0.005722099374957729</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.005318415579913415</v>
+        <v>0.004025217899538404</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.004152807142635249</v>
+        <v>-0.006637596396369907</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.9174121586414706</v>
+        <v>0.6477381327261731</v>
       </c>
       <c r="AI19" t="n">
-        <v>-1.509694278214205</v>
+        <v>0.1807072548338979</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.1243975996200501</v>
+        <v>-0.1149776812550939</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.7165034840903178</v>
+        <v>0.05504616769148107</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.3128149527081716</v>
+        <v>0.3292017858648153</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.311074588345858</v>
+        <v>0.1589613989573076</v>
       </c>
       <c r="AN19" t="n">
-        <v>-0.2369779459645791</v>
+        <v>0.06012803533128888</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.1792849441848363</v>
+        <v>-0.02990352264084937</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0.1446554538297917</v>
+        <v>0.04136009137575968</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-0.1110159772572729</v>
+        <v>0.09069140544947109</v>
       </c>
       <c r="AR19" t="n">
-        <v>-0.08733525684613169</v>
+        <v>0.05434114091343564</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.06816071346882926</v>
+        <v>0.02799914671247112</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.05321955102756466</v>
+        <v>0.00893512594551703</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.04161803205062169</v>
+        <v>0.01542231120046643</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0.03250156397209252</v>
+        <v>0.02586285771692337</v>
       </c>
       <c r="AW19" t="n">
-        <v>-0.02540025227778158</v>
+        <v>0.01731841308611118</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.3979562963409503</v>
+        <v>0.761798186301751</v>
       </c>
       <c r="AY19" t="n">
-        <v>-0.7792895417153367</v>
+        <v>-0.03112617292994182</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.2924779162184324</v>
+        <v>0.273949005398577</v>
       </c>
       <c r="BA19" t="n">
-        <v>-0.2252328130640481</v>
+        <v>-0.08442048858844915</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.01479782802379919</v>
+        <v>-0.4266930685817029</v>
       </c>
       <c r="BC19" t="n">
-        <v>-0.04778272929966094</v>
+        <v>0.1921560896549435</v>
       </c>
       <c r="BD19" t="n">
-        <v>-0.03793979553854106</v>
+        <v>0.05833817699658633</v>
       </c>
       <c r="BE19" t="n">
-        <v>-0.02400184764149537</v>
+        <v>0.1098128269442661</v>
       </c>
       <c r="BF19" t="n">
-        <v>-0.02220320713735355</v>
+        <v>0.001043702973468803</v>
       </c>
       <c r="BG19" t="n">
-        <v>-0.01600842039549051</v>
+        <v>-0.1087499523121153</v>
       </c>
       <c r="BH19" t="n">
-        <v>-0.01284480452141236</v>
+        <v>0.03156411778805555</v>
       </c>
       <c r="BI19" t="n">
-        <v>-0.01002093114444132</v>
+        <v>0.01474043306124163</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-0.007790148636458456</v>
+        <v>0.02144047204889689</v>
       </c>
       <c r="BK19" t="n">
-        <v>-0.006113977207252883</v>
+        <v>0.0118557991192338</v>
       </c>
       <c r="BL19" t="n">
-        <v>-0.004765874499787883</v>
+        <v>-0.0225322442067229</v>
       </c>
       <c r="BM19" t="n">
-        <v>-0.003726898773943543</v>
+        <v>0.006249034025846152</v>
       </c>
     </row>
     <row r="20">
@@ -4306,196 +4306,196 @@
         <v>534</v>
       </c>
       <c r="B20" t="n">
-        <v>0.725390099242899</v>
+        <v>0.8574334633292298</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04210091029407919</v>
+        <v>-0.04840366927123634</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03421872879806743</v>
+        <v>0.03497501584462112</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06836042466983408</v>
+        <v>0.1059244390720268</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01073038598096217</v>
+        <v>0.02275601392131587</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01262014735101341</v>
+        <v>0.03011904412772738</v>
       </c>
       <c r="H20" t="n">
-        <v>0.00543134577573423</v>
+        <v>-0.02168360763522853</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003278691349741291</v>
+        <v>0.005038982820117567</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003080229677433135</v>
+        <v>0.009262873097758414</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.00108686394345381</v>
+        <v>0.002413728602965651</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001537494609537424</v>
+        <v>0.004768454152804732</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0001842118822507829</v>
+        <v>-0.00699880745273429</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0003424605179232957</v>
+        <v>0.0006562225390392672</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0002255984911987744</v>
+        <v>0.001464368984765562</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.0002837837427839378</v>
+        <v>0.0008326670381387773</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0002160526671470203</v>
+        <v>0.0007969279766776559</v>
       </c>
       <c r="R20" t="n">
-        <v>-0.6883374695006096</v>
+        <v>-0.5144518469521555</v>
       </c>
       <c r="S20" t="n">
-        <v>0.5824265520902445</v>
+        <v>0.6244934780614646</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2492775908195341</v>
+        <v>0.06942331017461471</v>
       </c>
       <c r="U20" t="n">
-        <v>-0.2028464775655908</v>
+        <v>-0.1646540162898858</v>
       </c>
       <c r="V20" t="n">
-        <v>0.188583900854688</v>
+        <v>-0.02966687366631387</v>
       </c>
       <c r="W20" t="n">
-        <v>-0.2676556426797606</v>
+        <v>-0.0918311801698177</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1452263883926305</v>
+        <v>0.1453771574263978</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.01844840069922232</v>
+        <v>0.007131314990796014</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.01590366367005002</v>
+        <v>-0.03050640602227759</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.01774681482618764</v>
+        <v>-0.01704582180989292</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.05051394627493341</v>
+        <v>-0.01901175653815044</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.03240699467867121</v>
+        <v>0.03567133316636178</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.00175033835719274</v>
+        <v>0.0008616524085720181</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.001978947998705988</v>
+        <v>-0.00586955813327482</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.000399403488263158</v>
+        <v>-0.006282115280592141</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.008688648823453325</v>
+        <v>-0.003638671365839183</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.6883371325963207</v>
+        <v>0.5144203363161236</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.05828004628468788</v>
+        <v>0.1954127796258094</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.01848112602981019</v>
+        <v>-0.001113441402026797</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.06648762435063889</v>
+        <v>0.1054981447815248</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.0184054702554722</v>
+        <v>0.01675500590776136</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.006793828761708846</v>
+        <v>-0.03305101757291068</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.008674205351273881</v>
+        <v>0.03455782336304185</v>
       </c>
       <c r="AO20" t="n">
-        <v>-5.727427383345542e-05</v>
+        <v>-0.003983012773059362</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.003848020296958118</v>
+        <v>0.01471917494512584</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-9.82402081147332e-05</v>
+        <v>-0.003585573242680267</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.0007666033170208897</v>
+        <v>-0.007757890997078391</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.0004046073042215587</v>
+        <v>0.005812335005712025</v>
       </c>
       <c r="AT20" t="n">
-        <v>-0.0003914187758081469</v>
+        <v>-0.001379379622229409</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.0005184364600857339</v>
+        <v>0.003578763401639741</v>
       </c>
       <c r="AV20" t="n">
-        <v>-0.0001895364316850337</v>
+        <v>-0.001621820177973242</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.0001413095880812122</v>
+        <v>-0.001614429187581928</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.7253901179234338</v>
+        <v>0.8574829532073635</v>
       </c>
       <c r="AY20" t="n">
-        <v>-0.5111944627875369</v>
+        <v>-0.455141803875994</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.3770535555962559</v>
+        <v>0.1307859401425587</v>
       </c>
       <c r="BA20" t="n">
-        <v>-0.3654257617481811</v>
+        <v>-0.2496322329934781</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.3228668787660346</v>
+        <v>0.06088251543852805</v>
       </c>
       <c r="BC20" t="n">
-        <v>-0.0444178097986575</v>
+        <v>0.1954670355859972</v>
       </c>
       <c r="BD20" t="n">
-        <v>-0.05847279966951886</v>
+        <v>-0.1021510991666052</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.04743954898764133</v>
+        <v>0.02390998540444393</v>
       </c>
       <c r="BF20" t="n">
-        <v>-0.06707454863530467</v>
+        <v>-0.06881591812910043</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.06735823128103423</v>
+        <v>0.02549056080749848</v>
       </c>
       <c r="BH20" t="n">
-        <v>-0.0192364566386981</v>
+        <v>0.03968854155358285</v>
       </c>
       <c r="BI20" t="n">
-        <v>-0.002462499222666211</v>
+        <v>-0.01967973599065828</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.001853310130274034</v>
+        <v>0.003552246736697115</v>
       </c>
       <c r="BK20" t="n">
-        <v>-0.01004583717271007</v>
+        <v>-0.01807086349240905</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.01316081241499661</v>
+        <v>0.008316116676267707</v>
       </c>
       <c r="BM20" t="n">
-        <v>-0.004947108715138727</v>
+        <v>0.008097783693461952</v>
       </c>
     </row>
     <row r="21">
@@ -4503,196 +4503,196 @@
         <v>542</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4356238721833217</v>
+        <v>0.5299771945245424</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4926942865384886</v>
+        <v>0.3312381706933257</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08088606299178114</v>
+        <v>0.04100169155697256</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05979411720135797</v>
+        <v>0.03239013603071945</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09818032897284427</v>
+        <v>0.04325853076192607</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04807479871936192</v>
+        <v>0.02100397291576622</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01803616704772349</v>
+        <v>0.002990322162260611</v>
       </c>
       <c r="I21" t="n">
-        <v>0.02093098909071244</v>
+        <v>0.004706863392938391</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01287694149292588</v>
+        <v>0.003835584193269541</v>
       </c>
       <c r="K21" t="n">
-        <v>0.006595939297486203</v>
+        <v>0.000824074617917149</v>
       </c>
       <c r="L21" t="n">
-        <v>0.005157187960126151</v>
+        <v>0.0005508361447611747</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003223736159775678</v>
+        <v>0.0005659482247692806</v>
       </c>
       <c r="N21" t="n">
-        <v>0.001956519439395975</v>
+        <v>0.0001625547264103742</v>
       </c>
       <c r="O21" t="n">
-        <v>0.001393773679738335</v>
+        <v>9.003476096678629e-05</v>
       </c>
       <c r="P21" t="n">
-        <v>0.0008362254791371954</v>
+        <v>8.022331119200349e-05</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0005401508084822937</v>
+        <v>2.539965495178621e-05</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.9000060981803729</v>
+        <v>-0.8480119945450871</v>
       </c>
       <c r="S21" t="n">
-        <v>1.098523409372069</v>
+        <v>1.096063950850017</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.1360389934921857</v>
+        <v>-0.1496977609086478</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.2873462002151539</v>
+        <v>-0.2913145170671398</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2409567718500891</v>
+        <v>0.2235449958725653</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.002316782462759309</v>
+        <v>-0.00184166239557962</v>
       </c>
       <c r="X21" t="n">
-        <v>-0.05698957439928531</v>
+        <v>-0.06040153690974193</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.04318151023047768</v>
+        <v>0.03515145531659917</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.0002988065424069904</v>
+        <v>0.001337189876177667</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.007552747104895217</v>
+        <v>-0.009501335021258519</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.007819574457352501</v>
+        <v>0.005374122021945577</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.0005403140829963122</v>
+        <v>7.661876809227733e-05</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.000740568114137875</v>
+        <v>-0.00141420710361814</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.001562689408610207</v>
+        <v>0.0008922410179428045</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.0001931813998031253</v>
+        <v>-4.107639451596175e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>-2.068933020965868e-05</v>
+        <v>-0.0002164833777829186</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.8958245739039437</v>
+        <v>0.848010524860986</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.1448175732299115</v>
+        <v>0.07044953886786184</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.0658625301402488</v>
+        <v>0.03413302434078684</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.09332753204425813</v>
+        <v>0.04876898514278863</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.08783595062234693</v>
+        <v>0.04191026834333668</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.02651513677243945</v>
+        <v>0.007739195910137567</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0205589591542209</v>
+        <v>0.004475461016497562</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.0191825340726992</v>
+        <v>0.005296079928231391</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.01012206164022927</v>
+        <v>0.00250458138424333</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.005748856815975656</v>
+        <v>0.0005416447856630003</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.004564371315115667</v>
+        <v>0.0006706159559271493</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.002750778507339271</v>
+        <v>0.000417368041560285</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.001721402012999167</v>
+        <v>0.0001198171161397839</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.001173874615002959</v>
+        <v>9.091188525431996e-05</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.0007265894939643293</v>
+        <v>6.125830467921712e-05</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.0004789358515515399</v>
+        <v>2.12873831785779e-05</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.4376615678684224</v>
+        <v>0.5299781070807768</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.2535426444790592</v>
+        <v>0.2327375469087258</v>
       </c>
       <c r="AZ21" t="n">
-        <v>-0.2148683012049046</v>
+        <v>-0.234181855548173</v>
       </c>
       <c r="BA21" t="n">
-        <v>-0.01083144514419365</v>
+        <v>-0.007028151532099339</v>
       </c>
       <c r="BB21" t="n">
-        <v>0.1513472711403907</v>
+        <v>0.1326745910355242</v>
       </c>
       <c r="BC21" t="n">
-        <v>-0.05053030112259987</v>
+        <v>-0.05034146781091644</v>
       </c>
       <c r="BD21" t="n">
-        <v>-0.009113308668120313</v>
+        <v>-0.0118435926146572</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.02939196326069762</v>
+        <v>0.0236198300749548</v>
       </c>
       <c r="BF21" t="n">
-        <v>-0.006064444992382571</v>
+        <v>-0.006076395214104996</v>
       </c>
       <c r="BG21" t="n">
-        <v>-0.001195151245035802</v>
+        <v>-0.002730032462272815</v>
       </c>
       <c r="BH21" t="n">
-        <v>0.005017268139695444</v>
+        <v>0.003606329030606671</v>
       </c>
       <c r="BI21" t="n">
-        <v>-0.0009063087559315093</v>
+        <v>-0.0008907341743138533</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.0002479913602862518</v>
+        <v>-0.0003630380358278033</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.0008783943461698112</v>
+        <v>0.0005397858078807145</v>
       </c>
       <c r="BL21" t="n">
-        <v>-0.0001592810956983425</v>
+        <v>-0.000160949160252262</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.0001427532603007698</v>
+        <v>-4.190595854308788e-05</v>
       </c>
     </row>
   </sheetData>

--- a/ind-IRs-to-idiosyncratic-shocks.xlsx
+++ b/ind-IRs-to-idiosyncratic-shocks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM21"/>
+  <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,3944 +756,3653 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>112</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2552122878688801</v>
+        <v>0.06941559545735795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6674928113111511</v>
+        <v>0.02103136388109618</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08576853889679394</v>
+        <v>0.006336550662267106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02499352984662511</v>
+        <v>0.001901255290726076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01361332454576585</v>
+        <v>0.0005687003791824324</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04177927794850083</v>
+        <v>0.0001697129141724314</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01250079577865914</v>
+        <v>5.055700160472456e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.001902460281474879</v>
+        <v>1.504067273271425e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.006430039384902443</v>
+        <v>4.470041346690812e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0005391606829040896</v>
+        <v>1.327452696646921e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.001706707287808531</v>
+        <v>3.939756560938354e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0009561265669662425</v>
+        <v>1.168753919145858e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.000393590654217989</v>
+        <v>3.465981837090962e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001224481287738452</v>
+        <v>1.027576662203717e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>-7.159997595508025e-05</v>
+        <v>3.045887568070383e-09</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.514079274496447e-05</v>
+        <v>9.027049108542688e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.9668680009374578</v>
+        <v>0.009118088357231829</v>
       </c>
       <c r="S2" t="n">
-        <v>0.816918968442081</v>
+        <v>-0.004343868025203992</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2163565378912671</v>
+        <v>-0.002888587872276724</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.003794436518998333</v>
+        <v>-0.001219882570424673</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.07066736967551006</v>
+        <v>-0.00044416994585206</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.01811881159866175</v>
+        <v>-0.0001504023879687863</v>
       </c>
       <c r="X2" t="n">
-        <v>0.04276613494491863</v>
+        <v>-4.883370760294157e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.02061788993318172</v>
+        <v>-1.543900729930669e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.0001246251963046951</v>
+        <v>-4.794680338694848e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.005111109856170993</v>
+        <v>-1.470603705277451e-06</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0007305162562500045</v>
+        <v>-4.470634880809124e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.001397915230747804</v>
+        <v>-1.350302663124607e-07</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.001214855722207483</v>
+        <v>-4.058998951252407e-08</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.001255067642400291</v>
+        <v>-1.215798634854558e-08</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.524913753351592e-05</v>
+        <v>-3.631992405308288e-09</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.0003191810819614456</v>
+        <v>-1.082812908675069e-09</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.9665807343254129</v>
+        <v>0.001199562399703086</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1019578625362739</v>
+        <v>0.000326550239102906</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.1231223147587383</v>
+        <v>9.018549808154728e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.05456303913388912</v>
+        <v>2.522642061138037e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.002819590017497602</v>
+        <v>7.134132763884849e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.004578161804589426</v>
+        <v>2.036312742227021e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.007991289438263363</v>
+        <v>5.856956243257054e-07</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.009483165760099702</v>
+        <v>1.69514888451833e-07</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.0004069044624766303</v>
+        <v>4.930861065714851e-08</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-2.762007829581328e-05</v>
+        <v>1.440035457564066e-08</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.0007407520509059567</v>
+        <v>4.218856146080512e-09</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.0001184511487659061</v>
+        <v>1.23906067353821e-09</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0004715968612570388</v>
+        <v>3.64612128333872e-10</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0002471072334352607</v>
+        <v>1.074542761342565e-10</v>
       </c>
       <c r="AV2" t="n">
-        <v>4.312841828746513e-05</v>
+        <v>3.170469640987747e-11</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.341548451103371e-05</v>
+        <v>9.363021965500022e-12</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.2552877012543323</v>
+        <v>-0.007231434833124972</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.02223787461924158</v>
+        <v>-0.00171008343794167</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.3523297739001693</v>
+        <v>-0.0004083286110432558</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.09591663641367966</v>
+        <v>-9.861871032878075e-05</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.07047305924133586</v>
+        <v>-2.413390590101456e-05</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0186897251491301</v>
+        <v>-5.994079183712606e-06</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.01385532289624907</v>
+        <v>-1.51296769478261e-06</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.002349233202219908</v>
+        <v>-3.884604087135841e-07</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.009989985348301969</v>
+        <v>-1.014923593144736e-07</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.004889905302827025</v>
+        <v>-2.697675648401517e-08</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.001691924518637966</v>
+        <v>-7.289039515201825e-09</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.00200138283056303</v>
+        <v>-1.999528878684744e-09</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-0.0002378405648688601</v>
+        <v>-5.560019810136195e-10</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0004587458663050173</v>
+        <v>-1.564448868063807e-10</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0002855993820406972</v>
+        <v>-4.446517099411009e-11</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.000304571915110279</v>
+        <v>-1.274465753842122e-11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>124</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4049324120669303</v>
+        <v>0.1456463166488213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.511903582206786</v>
+        <v>0.03033443213212286</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03404611486131635</v>
+        <v>-0.03081293694257089</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06414224936335237</v>
+        <v>-0.01158490433985697</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04374792043114531</v>
+        <v>-0.01420222391787166</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06520950432856415</v>
+        <v>-0.003064765391101889</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007383409908191582</v>
+        <v>0.007847792589574906</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.004611028045966348</v>
+        <v>0.005692987824345676</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.00473026708146124</v>
+        <v>0.000944007198004119</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.003941180675350557</v>
+        <v>-0.001071567385953789</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003505947054850289</v>
+        <v>-0.001984031684201541</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.001188429743761342</v>
+        <v>0.0003867169760279532</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0009693334464004468</v>
+        <v>0.0001795506999276185</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.107340553840281e-05</v>
+        <v>-0.000167124475045607</v>
       </c>
       <c r="P3" t="n">
-        <v>-6.155159576976885e-05</v>
+        <v>-0.0002670607236212474</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.19921572774487e-05</v>
+        <v>0.001113353347598695</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.9142673606695469</v>
+        <v>0.01117428600355926</v>
       </c>
       <c r="S3" t="n">
-        <v>1.028702707816989</v>
+        <v>-0.00123515724024404</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.04673099008110398</v>
+        <v>-0.003794701871568576</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.08098436853354588</v>
+        <v>-0.005435379325641103</v>
       </c>
       <c r="V3" t="n">
-        <v>-0.008831990863605674</v>
+        <v>0.001561270884116699</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03941074262999345</v>
+        <v>0.0004700409495904489</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.01200926522228379</v>
+        <v>0.0008482949669755941</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.00395311618268585</v>
+        <v>-0.003243169677336711</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.01125733189947453</v>
+        <v>0.002525336722836882</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.003101760935568597</v>
+        <v>0.0002407115592538752</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.006841867629922525</v>
+        <v>0.0001257914024096203</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.0008106193238143727</v>
+        <v>-0.003344005526404082</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.001602747047061544</v>
+        <v>0.002546950009363533</v>
       </c>
       <c r="AE3" t="n">
-        <v>7.151064827041626e-05</v>
+        <v>0.0004561495813939044</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0007582172268071469</v>
+        <v>0.0003121157542944146</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.0001417275586665168</v>
+        <v>-0.00320853419259029</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.9139583018127679</v>
+        <v>0.01467034849747031</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.03580111200379318</v>
+        <v>0.01020713733759337</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.08965819317588943</v>
+        <v>0.0008662884506006477</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02023303662744999</v>
+        <v>-0.003535629620325544</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.00292507621155022</v>
+        <v>0.006363233301778001</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.03040465734854306</v>
+        <v>0.002317644038055856</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.006626941595444677</v>
+        <v>-0.002453677691843322</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.01240929583738831</v>
+        <v>-0.004220762278389488</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.002031004772376385</v>
+        <v>0.006172060268482197</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.002351377051305531</v>
+        <v>0.00235987572629235</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1.147612120802994e-05</v>
+        <v>-0.002741386188418029</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.0002472195383541623</v>
+        <v>-0.004747970907771245</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0004783780474058997</v>
+        <v>0.005489967171982291</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0001457343494058395</v>
+        <v>0.002139379614905879</v>
       </c>
       <c r="AV3" t="n">
-        <v>-7.015854416063601e-05</v>
+        <v>-0.002670410429763808</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.75711566821972e-05</v>
+        <v>-0.004664202013316787</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.4050691600273136</v>
+        <v>-0.02537945908230997</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1155843021289588</v>
+        <v>0.008873642043828322</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.1430613061168035</v>
+        <v>0.005559747927521847</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.06008114619802635</v>
+        <v>0.003480159974646017</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.073963954829947</v>
+        <v>-0.02273293111875062</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.05075399125740746</v>
+        <v>0.009643296408814219</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.004584535814587338</v>
+        <v>0.006571223421777957</v>
       </c>
       <c r="BE3" t="n">
-        <v>-7.785488432929036e-05</v>
+        <v>0.004458176352763958</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.002682882015254465</v>
+        <v>-0.02141690346055182</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.0007314302524601763</v>
+        <v>0.009506957767041569</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0001402491372667396</v>
+        <v>0.00666809521076553</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.001789184131406893</v>
+        <v>0.004659759947385143</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.001293318466346988</v>
+        <v>-0.02066050922896417</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0003896887645827255</v>
+        <v>0.009060327017530638</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.0003483844560439543</v>
+        <v>0.006583882436871645</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.0001307605535994748</v>
+        <v>0.004748619368892353</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>128</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>0.163695251566629</v>
+        <v>0.1114845094073023</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7545285284317568</v>
+        <v>0.01958925953740482</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0551557475433512</v>
+        <v>-0.02681719599433372</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1069660967987631</v>
+        <v>-0.020182909614859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02457020825579732</v>
+        <v>-0.01570222990240195</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.07750657910459721</v>
+        <v>0.002726544431973788</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01473772452581547</v>
+        <v>0.0107069722095169</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0175325568693666</v>
+        <v>0.006017648086324877</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.01697751004026119</v>
+        <v>0.001361716433569723</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.00209029368081569</v>
+        <v>-0.002496924300237372</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006450225358521812</v>
+        <v>-0.003752707880180233</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0002321733613755847</v>
+        <v>-0.001208795803159771</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002765946739376185</v>
+        <v>0.001600539268279604</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001007526011295536</v>
+        <v>0.00169413091519531</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0002589476136069644</v>
+        <v>-5.722797938831266e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3.914248493265804e-05</v>
+        <v>-0.0006156530886119266</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.9865202948452706</v>
+        <v>0.007175961879663647</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8912258320778947</v>
+        <v>0.0001189664679609281</v>
       </c>
       <c r="T4" t="n">
-        <v>0.06266476463320216</v>
+        <v>-0.001189134195509762</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06644511458541373</v>
+        <v>-0.005327009895703685</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.02105090266080067</v>
+        <v>-0.001105464213559017</v>
       </c>
       <c r="W4" t="n">
-        <v>0.02309028520628226</v>
+        <v>0.00204051763444926</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.0144482474506818</v>
+        <v>0.001722869647881231</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.002426936872168152</v>
+        <v>-0.002515271792235963</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.02263366195020255</v>
+        <v>-0.0005583158209069411</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.00287392502602232</v>
+        <v>0.001612926346175666</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.005649298290063883</v>
+        <v>0.0005847884270152767</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.0009514961922758655</v>
+        <v>-0.002602725298751369</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.0001778205420606314</v>
+        <v>-0.0005199130377618377</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.001262314611728251</v>
+        <v>0.002237904575783984</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0008560570033471221</v>
+        <v>0.0008244477761652735</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.0001103808684482371</v>
+        <v>-0.002500548500666981</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9861891882369858</v>
+        <v>0.005361071359106392</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.04063970193316139</v>
+        <v>0.008248659745643188</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.1481676543060915</v>
+        <v>0.003318473387698011</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.077178532825945</v>
+        <v>-0.003504680853363326</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.03273762611975257</v>
+        <v>-0.001017979754482965</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.07093467669390299</v>
+        <v>0.004447776925008663</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.003732758632401211</v>
+        <v>0.002416971515470436</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.02319263455219818</v>
+        <v>-0.002835798883715077</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.004294008852647893</v>
+        <v>-0.000554348595604295</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.002707897153984885</v>
+        <v>0.004230942785216834</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.00176255609300128</v>
+        <v>0.001606589432616638</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.002555952648366635</v>
+        <v>-0.003726559879107418</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.002342212213818154</v>
+        <v>-0.001188451337797159</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.0001170128781418615</v>
+        <v>0.00414070058188521</v>
       </c>
       <c r="AV4" t="n">
-        <v>-4.275060893095135e-05</v>
+        <v>0.001710700684317073</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.597171390284152e-05</v>
+        <v>-0.003795430861495453</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.1637500623141958</v>
+        <v>-0.01979969148272501</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.1263575297271964</v>
+        <v>0.0007272646890999498</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0819561960142086</v>
+        <v>0.006782807860797935</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.1284043958646366</v>
+        <v>1.239495988906084e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.009214551746899939</v>
+        <v>-0.01608110750321561</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0.06734861162762841</v>
+        <v>0.00025064950784472</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.01230614546749499</v>
+        <v>0.009967181758112764</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.007733354269324559</v>
+        <v>0.0003634164004483043</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.009431385906340512</v>
+        <v>-0.01422395599035468</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.004102431327598997</v>
+        <v>-0.0001288277112023088</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.002732557602027393</v>
+        <v>0.01146695600124454</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0007503713830928301</v>
+        <v>0.0005523677548277513</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.001694735332525463</v>
+        <v>-0.01351795066518778</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.0001278773108407212</v>
+        <v>-0.0004833332183095495</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0002106939618249756</v>
+        <v>0.01230140024133032</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0002770787364084647</v>
+        <v>0.0008154603967292467</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>132</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3013843271002442</v>
+        <v>0.1282084437467351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6168304517393979</v>
+        <v>0.01937494459056332</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.009049628830179846</v>
+        <v>-0.03385226466816175</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09794754918387823</v>
+        <v>-0.0120382405930602</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07412545298117734</v>
+        <v>-0.01004431258020971</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02513521047869864</v>
+        <v>-0.001266591817901462</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03106791139361743</v>
+        <v>0.003918348904803943</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007929127817816774</v>
+        <v>0.004330906084809051</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001482137230146846</v>
+        <v>0.002933299761564399</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002998344292736654</v>
+        <v>-0.001298756598214901</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001604466247370528</v>
+        <v>-0.004522547574274883</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0008563801807537777</v>
+        <v>0.000397200900664976</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0005907426363651927</v>
+        <v>0.00271188465799478</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0003796595038750083</v>
+        <v>-0.0001786403781707786</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0001976461264416685</v>
+        <v>-0.002688320124674647</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0001187211629744661</v>
+        <v>0.0008921731948996098</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.9534694100342127</v>
+        <v>0.01243469385968152</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9268005172727235</v>
+        <v>-0.01627372268505405</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.03529062636770527</v>
+        <v>0.005665401674048906</v>
       </c>
       <c r="U5" t="n">
-        <v>0.03385589670382772</v>
+        <v>-0.000878538275700872</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01421964134259469</v>
+        <v>0.002527427767085593</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.02658167756514648</v>
+        <v>-0.01104101867442577</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03518212963341569</v>
+        <v>0.006566928478773137</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0128235628030858</v>
+        <v>0.001124114679454792</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.01255594198741848</v>
+        <v>0.002180897079665001</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001253119475627423</v>
+        <v>-0.009465704023638454</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.002872653024724117</v>
+        <v>0.005074336042742421</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.001614172010139317</v>
+        <v>0.001959987697842664</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.0009585118339988836</v>
+        <v>0.001232728794272126</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.0004838106850469457</v>
+        <v>-0.007972428331925215</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.0003747647075642577</v>
+        <v>0.004361039489495987</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0003435214998076684</v>
+        <v>0.00250385642768086</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.953156678352159</v>
+        <v>-0.0008426811616689912</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.0108981919611379</v>
+        <v>0.01694432926726265</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.06992029752509062</v>
+        <v>0.00336455499105554</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.09380282201114497</v>
+        <v>-0.01057735954514251</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.04678271110328534</v>
+        <v>0.0005878197413679856</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.007304096467296507</v>
+        <v>0.01326459483068297</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.01625077268031933</v>
+        <v>-0.0001138466394161219</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001325742426317133</v>
+        <v>-0.01023080535863551</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.007788244538265643</v>
+        <v>0.0003786144497762551</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.001208058331755787</v>
+        <v>0.01177304725306701</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.000676069478276747</v>
+        <v>-0.0005676858193013263</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0002812212729255488</v>
+        <v>-0.010175160133763</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0009299947360152719</v>
+        <v>0.0003790750846450185</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.0002290695255135375</v>
+        <v>0.01082418408297739</v>
       </c>
       <c r="AV5" t="n">
-        <v>6.55659439954495e-05</v>
+        <v>-0.0008855416736669651</v>
       </c>
       <c r="AW5" t="n">
-        <v>-2.315197272424431e-05</v>
+        <v>-0.009763343793266467</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.3014835808100236</v>
+        <v>0.041691580259388</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.04784744182553627</v>
+        <v>-0.005250403517809813</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.06152664908969213</v>
+        <v>-0.01051709033152043</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.1922381746260488</v>
+        <v>-0.003253868085004895</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.02368663031856641</v>
+        <v>0.03319889488589191</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0.02041558617658337</v>
+        <v>-0.007250261059954324</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.007773861858610695</v>
+        <v>-0.01427105087139104</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.01579706985750647</v>
+        <v>-0.002726273663077674</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.0004207745182417022</v>
+        <v>0.02821403617615059</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.002351062616303986</v>
+        <v>-0.007135133632384444</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.001260587566879724</v>
+        <v>-0.01559710750411477</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.002668268512452052</v>
+        <v>-0.001481723136620931</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0001678393257563651</v>
+        <v>0.02490481674850203</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.0004768923473409071</v>
+        <v>-0.00660268367374716</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.000247763822574972</v>
+        <v>-0.01593056761381162</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.0003252757673617646</v>
+        <v>-0.0001975881159021155</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>134</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3217630342498956</v>
+        <v>0.07821463439539741</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6007035078511481</v>
+        <v>0.0324029261325355</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009797120904515563</v>
+        <v>-0.02189848154247925</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07380161047306175</v>
+        <v>-0.01053590009239624</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003267888548911195</v>
+        <v>-0.01619900997502233</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.08580285980394563</v>
+        <v>0.005402263549615025</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001771846468942395</v>
+        <v>0.008201530035912586</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01396123738090298</v>
+        <v>0.0112063934022368</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.002543447515886533</v>
+        <v>-0.005771671490140376</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0005596987362812111</v>
+        <v>-0.00150693846699927</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004676028498137088</v>
+        <v>-0.006123038299867572</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0008217447161477157</v>
+        <v>0.005431006293075293</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001766056593701835</v>
+        <v>-0.002518996203981649</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0005202805572950929</v>
+        <v>0.003770706361748829</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.0001143627340898707</v>
+        <v>-0.003093745343183535</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.0001338241938525501</v>
+        <v>0.00421848537489471</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.9467803916730537</v>
+        <v>0.0299810241026415</v>
       </c>
       <c r="S6" t="n">
-        <v>0.953565611317279</v>
+        <v>-0.006892721261614504</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0443059225855417</v>
+        <v>-0.01403108870200275</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1118692234406152</v>
+        <v>-0.01437581854804195</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.0505741898431569</v>
+        <v>0.003878810439679205</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.01361021290753534</v>
+        <v>0.005418842446831297</v>
       </c>
       <c r="X6" t="n">
-        <v>0.00206689052511883</v>
+        <v>0.006411728920580484</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001468490209560691</v>
+        <v>-0.007441921492445332</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.02092191708893877</v>
+        <v>0.002209773722632226</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0001094364685621833</v>
+        <v>-0.001298418628380686</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.006023306480328205</v>
+        <v>0.001688112214645529</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.001001934680845266</v>
+        <v>-0.005932925248257477</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.0003126027332427204</v>
+        <v>0.005338611563469212</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.0003661971219297537</v>
+        <v>0.0005092607843697933</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0005737756519815474</v>
+        <v>0.001420783760981754</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0001927651787082448</v>
+        <v>-0.006884054075089128</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.9464550884509869</v>
+        <v>0.02144058037354417</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.02337735880547119</v>
+        <v>-0.01341577799360593</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.08594523306563903</v>
+        <v>0.01133043039189364</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0235988954842282</v>
+        <v>-0.007225004788451489</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.03712298833239054</v>
+        <v>0.01997070697797164</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.04792836974437771</v>
+        <v>-0.01745561115159072</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.008254028039205531</v>
+        <v>0.004309801234658806</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.01181949149505071</v>
+        <v>-0.007639512989179371</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.004618829611625228</v>
+        <v>0.02025639014652501</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.003125987177083541</v>
+        <v>-0.01601982863782794</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.0012103287751731</v>
+        <v>0.004912036430377088</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.001478315476970968</v>
+        <v>-0.007927372324028091</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0008209140964886748</v>
+        <v>0.01839310424480534</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.0002627826164626681</v>
+        <v>-0.01587176289514531</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.0002993139092459096</v>
+        <v>0.005233693075381141</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.0001819261762670907</v>
+        <v>-0.007204826900135724</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.3218737890258643</v>
+        <v>-0.03652315773760919</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.008560695273325182</v>
+        <v>0.02019347324446199</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.04855304484633537</v>
+        <v>0.0117198863819486</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.1509635743441415</v>
+        <v>0.0003622065788794666</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.02000761029137981</v>
+        <v>-0.03268725039234715</v>
       </c>
       <c r="BC6" t="n">
-        <v>-0.06450438305788091</v>
+        <v>0.01912988959698931</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.001008678919189491</v>
+        <v>0.009847109834452359</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.0008614379757292451</v>
+        <v>0.001323758348851361</v>
       </c>
       <c r="BF6" t="n">
-        <v>-6.709600224276195e-05</v>
+        <v>-0.02963407924393776</v>
       </c>
       <c r="BG6" t="n">
-        <v>-0.003729702338451124</v>
+        <v>0.01942085895507964</v>
       </c>
       <c r="BH6" t="n">
-        <v>3.048589129055183e-05</v>
+        <v>0.008720996570853906</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.002655079756893541</v>
+        <v>0.0004054828402047269</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.001552988519226026</v>
+        <v>-0.0281029185475924</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0.0009009591380185251</v>
+        <v>0.01933098924675948</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.0003474038390361188</v>
+        <v>0.007921194718008907</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.000191345514729654</v>
+        <v>7.683701087346604e-05</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>136</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3132581346345499</v>
+        <v>0.1227352506967094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6551552126680519</v>
+        <v>0.02674420102416479</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06378312079237164</v>
+        <v>-0.01384228162496561</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07649921250006234</v>
+        <v>-0.0233690703920327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00138602560144552</v>
+        <v>0.00317659257556556</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01604259029103522</v>
+        <v>-0.001944679293794064</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02727981669615465</v>
+        <v>-0.004058864675315086</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.008465604993039397</v>
+        <v>0.000170870466944027</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0007623010020586264</v>
+        <v>0.001665754923089802</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002656265321281413</v>
+        <v>-0.00502932652874265</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0004312066608324134</v>
+        <v>-0.00397498513595839</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0006938139327683348</v>
+        <v>0.004461416220698057</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.0009145827053016672</v>
+        <v>0.004032226311268657</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001908758862343162</v>
+        <v>-0.003713912115356235</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0004024058863880085</v>
+        <v>-0.004227238084691161</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0002452960798015537</v>
+        <v>0.003496898373491372</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.9496332273759961</v>
+        <v>0.02262343647565215</v>
       </c>
       <c r="S7" t="n">
-        <v>0.928732692110817</v>
+        <v>0.009372558999618428</v>
       </c>
       <c r="T7" t="n">
-        <v>0.007254485668743303</v>
+        <v>-0.005321039696976212</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08578550638235977</v>
+        <v>-0.02017752966402052</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.1292822520485117</v>
+        <v>-0.02005822881733441</v>
       </c>
       <c r="W7" t="n">
-        <v>0.03046510544991765</v>
+        <v>0.008737877251977968</v>
       </c>
       <c r="X7" t="n">
-        <v>0.05231632923123962</v>
+        <v>0.009553516178208531</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.01865449986788981</v>
+        <v>-0.003334824359903195</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.02064613051843107</v>
+        <v>-0.01671589408442307</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01341501297252594</v>
+        <v>0.006288348288975487</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.003263113558640906</v>
+        <v>0.008640054209739005</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.001283277289854322</v>
+        <v>0.0009438947860951728</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.004270345776723323</v>
+        <v>-0.01325924836817688</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.002128512410359826</v>
+        <v>0.00487108885142703</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.00133509871339081</v>
+        <v>0.006123034876461445</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.0009261236205820267</v>
+        <v>0.001712955072675108</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.9493474902986705</v>
+        <v>-0.0003181530391825551</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0483713765527126</v>
+        <v>0.005360652941170729</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1377228619952265</v>
+        <v>0.005158167970343213</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.07570558512266716</v>
+        <v>-0.001015162392478319</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.05526878311639852</v>
+        <v>-0.002352012057581508</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.02660118126362011</v>
+        <v>0.001763993957885992</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.001425618462954516</v>
+        <v>0.003305571712522713</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.001423832196668287</v>
+        <v>-0.001468435655586128</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.002643544355638886</v>
+        <v>-0.002441534234237693</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.004170806357152709</v>
+        <v>0.0008017476184995324</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.002839445924516818</v>
+        <v>0.002586630296252667</v>
       </c>
       <c r="AS7" t="n">
-        <v>-6.67362952640197e-06</v>
+        <v>-0.001160090463520138</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.0007772690582165803</v>
+        <v>-0.001954241445557543</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0002767301913152908</v>
+        <v>0.0005256710218609793</v>
       </c>
       <c r="AV7" t="n">
-        <v>-1.313831070133626e-05</v>
+        <v>0.002185332723974579</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0001204489755994887</v>
+        <v>-0.0008798534523024197</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.3133518945630256</v>
+        <v>0.01565810602561375</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.144248085283697</v>
+        <v>-0.00243999107090813</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.2048882466814682</v>
+        <v>-0.0009668079417321428</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.1655694482777771</v>
+        <v>-0.004383729128500413</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0.1728868932471268</v>
+        <v>0.01085697494544757</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.03155278365806725</v>
+        <v>-0.004327845323472154</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.01892570317836284</v>
+        <v>-0.0007592150699732508</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.01076525178984746</v>
+        <v>-0.005007410344216884</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0.0128820077171277</v>
+        <v>0.009343037592079603</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.006252689859106388</v>
+        <v>-0.004221522025222367</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.00902188123714957</v>
+        <v>0.0001520356588383818</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0010558576751058</v>
+        <v>-0.004972344397155163</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-0.004051513025444258</v>
+        <v>0.00839174198893488</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.000407131684924775</v>
+        <v>-0.003975621504079183</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.001052076071368093</v>
+        <v>0.0009043534174822009</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0002426621899528767</v>
+        <v>-0.004928642289839676</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>138</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3688899649899095</v>
+        <v>0.1005829359025959</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5344152015917616</v>
+        <v>0.01555503232065465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01426104947543983</v>
+        <v>-0.02245377163928906</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07366839204922612</v>
+        <v>-0.01579360548718215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003895050079259903</v>
+        <v>-0.01071379084797534</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07331456901303121</v>
+        <v>0.004085983993642055</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.00748784853753752</v>
+        <v>0.009119498299359857</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.01344242971145223</v>
+        <v>0.002910917174574124</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.412874195591531e-05</v>
+        <v>-0.002098143852451621</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001754374784710618</v>
+        <v>-0.001865570136085937</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004492445372093674</v>
+        <v>-0.0001128592289035738</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0004754356470763209</v>
+        <v>3.159574136200987e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002114529375955458</v>
+        <v>-0.0005276283580704514</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.0005383089484935896</v>
+        <v>0.0006391244158082076</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.395550697999406e-05</v>
+        <v>0.001100334758174075</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0002419735119098048</v>
+        <v>-0.0002745706744247044</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.929412021490392</v>
+        <v>0.01711655836651353</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9062800030236192</v>
+        <v>-0.007010035067536466</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.01545729711488515</v>
+        <v>-0.009813616618015841</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1337776580960278</v>
+        <v>-0.0006720727472194186</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.08787435805285107</v>
+        <v>0.006159689229431268</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002399054724757938</v>
+        <v>-0.003408184343117422</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0002426036503744892</v>
+        <v>-0.0029915420828933</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.009129947682878781</v>
+        <v>0.001146878357434299</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.0244272968762271</v>
+        <v>0.00606707061585283</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.002684696037542906</v>
+        <v>-0.004264053426154693</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.006238064518351728</v>
+        <v>-0.003470075501529849</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.003137588143014033</v>
+        <v>0.001011841021465518</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.001049337834354999</v>
+        <v>0.006149081650651118</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.001129567991560172</v>
+        <v>-0.00373174578454892</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0007581656032062685</v>
+        <v>-0.002990958575079942</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.000556697256177516</v>
+        <v>0.0007011649047438073</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.9290948262622436</v>
+        <v>0.003257656937886168</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0111336302415843</v>
+        <v>0.001888708649143311</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1036851666252085</v>
+        <v>-0.0006279228610385739</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.0003066420032372142</v>
+        <v>-7.392415853523864e-05</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.02414838062908193</v>
+        <v>0.001666993389159078</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.04457466028241162</v>
+        <v>4.214061797761384e-06</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.008503241050745626</v>
+        <v>-0.001241838469564938</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.01271065918920925</v>
+        <v>-0.0001659970563821797</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.003967292230134563</v>
+        <v>0.001661329260260672</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.002968389229511697</v>
+        <v>5.530772527404516e-05</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.001447122312117701</v>
+        <v>-0.0012301042003635</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0009643503758731635</v>
+        <v>-0.0003089698878424954</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0008045246324926435</v>
+        <v>0.001457948734218948</v>
       </c>
       <c r="AU8" t="n">
-        <v>3.378085910623457e-05</v>
+        <v>2.077891016143641e-05</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.0002739519392135538</v>
+        <v>-0.001105121100147935</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.0002065619170062578</v>
+        <v>-0.0002870361811867574</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.3690162302944735</v>
+        <v>-0.01275471350111195</v>
       </c>
       <c r="AY8" t="n">
-        <v>-0.04282707727133393</v>
+        <v>0.005016914771259346</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.06953833994609127</v>
+        <v>0.002196509703386075</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.135304834513213</v>
+        <v>0.002064065167081126</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.003327144658816172</v>
+        <v>-0.01116502872085612</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.07277727976738117</v>
+        <v>0.005555110970274411</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.003754648683044088</v>
+        <v>0.002120812991641754</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.002658428651493833</v>
+        <v>0.002638819070571156</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.004511369262482868</v>
+        <v>-0.01042838381628871</v>
       </c>
       <c r="BG8" t="n">
-        <v>-0.006394597885001486</v>
+        <v>0.005628337222494595</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0.001046281394453707</v>
+        <v>0.001650282933506792</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.002454056431202957</v>
+        <v>0.002864023100651612</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.002645314779784769</v>
+        <v>-0.009954954042735421</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0.0009089489541975428</v>
+        <v>0.005586664359828655</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.0007532064316749552</v>
+        <v>0.001158293888980956</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0001080873795036526</v>
+        <v>0.003043442298726664</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>144</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4847340923416952</v>
+        <v>0.06562937905197809</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4364355141709705</v>
+        <v>0.01578221429974067</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07428493077355107</v>
+        <v>-0.009239372769236047</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03966312002826064</v>
+        <v>-0.005621606285553919</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04279300010221616</v>
+        <v>0.001785549896240657</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03670444659655169</v>
+        <v>0.0008648813577844532</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.007350325656040226</v>
+        <v>-0.0007955799671717736</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.006815182423639946</v>
+        <v>-0.0005664992081853239</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.004028767721261316</v>
+        <v>0.001400191670705045</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.00201193894251394</v>
+        <v>-6.644317687217703e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001026904035104274</v>
+        <v>-0.0009274792257692861</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0003089805321241624</v>
+        <v>-0.0004275884275891513</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0006209199375527152</v>
+        <v>0.001263611171887364</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0002075898041541241</v>
+        <v>6.026241416304539e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>4.481837930735419e-05</v>
+        <v>-0.0008361554534361479</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.950583456131966e-07</v>
+        <v>-0.0004022889070833935</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.8745641693769233</v>
+        <v>0.003791943647967813</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8626085425627801</v>
+        <v>0.001776968010899717</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0756294115622022</v>
+        <v>-0.002379330514947763</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03562792290834182</v>
+        <v>-0.004631350422865253</v>
       </c>
       <c r="V9" t="n">
-        <v>0.08771299406652452</v>
+        <v>0.003834618620126951</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.02261228712069115</v>
+        <v>0.002867156513228594</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.01440368550954137</v>
+        <v>-0.001876383200626422</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.01305985436686293</v>
+        <v>-0.004245639590673127</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.008908184984963112</v>
+        <v>0.003075454072155908</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.005154522594271838</v>
+        <v>0.002702831106626871</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.002302989074062544</v>
+        <v>-0.001564655213588389</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.134158092496189e-05</v>
+        <v>-0.003750253182193941</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.0004366517086176131</v>
+        <v>0.002505307966530479</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.00017497981261668</v>
+        <v>0.002513892076585082</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.29288814706696e-05</v>
+        <v>-0.001304842091936911</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.000117359603608211</v>
+        <v>-0.003315717797287857</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.8743373375807767</v>
+        <v>0.004718014161866457</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1004902823398137</v>
+        <v>0.008197960628700625</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.05314690316428546</v>
+        <v>-0.0001073223783369741</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.02134345175462988</v>
+        <v>-0.001312505303388039</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.01634827116935231</v>
+        <v>-0.002743276860242333</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.02425735102897022</v>
+        <v>0.003999782851116544</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.007987471306531315</v>
+        <v>4.684526510841776e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.01181879916994225</v>
+        <v>-0.001025570833770663</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.001672677842431664</v>
+        <v>-0.002428422404150391</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0009169564496877295</v>
+        <v>0.003208516762059962</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.0009068819585768461</v>
+        <v>0.0001927376573176733</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.0005269885286154405</v>
+        <v>-0.0009724461825649117</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.001148850272322297</v>
+        <v>-0.002106544029121945</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0002845361062095789</v>
+        <v>0.002666566455859699</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.0001808837144347812</v>
+        <v>0.0003365891538883973</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.0001083587261933002</v>
+        <v>-0.0008971549210354051</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.4848594377643012</v>
+        <v>-0.01678147192074372</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.1897650770072133</v>
+        <v>0.007857703156635218</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0.04849570618069846</v>
+        <v>0.004644343437735727</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.3081141400578764</v>
+        <v>0.001325984094283702</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.01001634260602401</v>
+        <v>-0.01343550117707788</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.1124413408941128</v>
+        <v>0.00661323424038327</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.009942726888336764</v>
+        <v>0.004873589416698514</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.03192433959334842</v>
+        <v>0.001205979491770768</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.006343820491227059</v>
+        <v>-0.01146843802739254</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.01398559346050582</v>
+        <v>0.005131076481625027</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.0007165494121626514</v>
+        <v>0.004721013204699949</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.005669311903621329</v>
+        <v>0.001059465093152431</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.001113145442727677</v>
+        <v>-0.009838301854704074</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.002573217252478127</v>
+        <v>0.003922202227153015</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.0004268443988388711</v>
+        <v>0.004478799350054931</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.001226065279008298</v>
+        <v>0.0009579793867106327</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>146</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CostaRica</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3437141075643244</v>
+        <v>0.1248442358971953</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5900893034336748</v>
+        <v>-0.05340630531101232</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008153217641278495</v>
+        <v>0.004302342834145296</v>
       </c>
       <c r="E10" t="n">
-        <v>0.07327297814416381</v>
+        <v>-0.002951974684767507</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01332673443621831</v>
+        <v>0.008182598259173328</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06446490114553684</v>
+        <v>-0.006462604375590662</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.01612548896887139</v>
+        <v>0.00413026027797365</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.00537379034160433</v>
+        <v>-0.002393104733588149</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.006286115516812238</v>
+        <v>0.001055904890954199</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.002260928057088335</v>
+        <v>-0.001370270013624227</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004549030338017001</v>
+        <v>0.002211267235732406</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0008788225224092775</v>
+        <v>-0.001539792013849544</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001207483384350589</v>
+        <v>0.0002894708219129475</v>
       </c>
       <c r="O10" t="n">
-        <v>7.32458846917149e-05</v>
+        <v>-0.0004064808622282752</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.78458084364757e-05</v>
+        <v>0.001212335239762826</v>
       </c>
       <c r="Q10" t="n">
-        <v>-7.895427978331634e-05</v>
+        <v>-0.0009672288113701462</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.9390220639253688</v>
+        <v>0.002314478999525158</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8573705277769824</v>
+        <v>0.009773303591912561</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001095273768126841</v>
+        <v>-0.004877060844487468</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1438721920982622</v>
+        <v>-0.01834772993501008</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.03316087073098868</v>
+        <v>0.01887121863079749</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.01801625896915452</v>
+        <v>0.003443334040481516</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.004264569022395403</v>
+        <v>-0.006845175877429639</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.011888441043099</v>
+        <v>-0.01066025886012087</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.02045042639294411</v>
+        <v>0.01404821262382947</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.008441928832425248</v>
+        <v>0.001396137848789854</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.00730475364119257</v>
+        <v>-0.006329595531677059</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002185213981829079</v>
+        <v>-0.005293767730016266</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0008704596470598653</v>
+        <v>0.009643046243273425</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.000804359862229377</v>
+        <v>0.0002551324665136858</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0009280983188286712</v>
+        <v>-0.005133170147841207</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0003864367542436092</v>
+        <v>-0.002258105518544426</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.9386886488077468</v>
+        <v>0.001787083940086885</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.03402939705093902</v>
+        <v>-0.001357666789236257</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.07750797164856472</v>
+        <v>0.002151331017486757</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.04728511492949208</v>
+        <v>-0.002306405533813061</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.008596048717352138</v>
+        <v>0.001023852105787308</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.06466383825724456</v>
+        <v>-0.0003628273986325139</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.005553240282106495</v>
+        <v>0.001201385908239753</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.008388524635711502</v>
+        <v>-0.001540650696480166</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.0001404338418767723</v>
+        <v>0.0006128326607787824</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.001307746095803176</v>
+        <v>-2.632881979497078e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001075027099080862</v>
+        <v>0.0005736168742194995</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.001273272059735783</v>
+        <v>-0.0009421188735487885</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.00140708928611613</v>
+        <v>0.0003816985094353108</v>
       </c>
       <c r="AU10" t="n">
-        <v>-3.223850713965277e-05</v>
+        <v>8.622515142265719e-05</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.0004561172209429984</v>
+        <v>0.0002435331278619704</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.634001297106328e-05</v>
+        <v>-0.0005722673771567904</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.3438358070648884</v>
+        <v>0.0224307203997493</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.1276252452901682</v>
+        <v>-0.005596904007165447</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.1264523555519899</v>
+        <v>-0.00594058208452471</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.1882464771841837</v>
+        <v>0.0006788834975270644</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.02664536303761512</v>
+        <v>0.01249185427805109</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.1210396969175188</v>
+        <v>-0.005520780422626642</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.01412841075714683</v>
+        <v>-0.004987662642736486</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.01340537741090173</v>
+        <v>0.001781960890351272</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.001954494606730162</v>
+        <v>0.00735387506848069</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.01386681657502684</v>
+        <v>-0.004490518653455037</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.001285728841085383</v>
+        <v>-0.003405978387868856</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.004394270119682278</v>
+        <v>0.002170324965207918</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.002389084127026886</v>
+        <v>0.0043099573420854</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.001935651240924193</v>
+        <v>-0.003473989817821291</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.0007079365528776989</v>
+        <v>-0.002118104868023506</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0008511275498065395</v>
+        <v>0.002067762435924815</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>156</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8284852597997134</v>
+        <v>0.1201374944014003</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.009116715772186453</v>
+        <v>0.01624618604089774</v>
       </c>
       <c r="D11" t="n">
-        <v>0.150303849620483</v>
+        <v>-0.02851320849512745</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04426769259882473</v>
+        <v>-0.01440841423213951</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09281807099203634</v>
+        <v>-0.005977824720501138</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0353203962972975</v>
+        <v>0.002501354195276647</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04216302668689395</v>
+        <v>0.004257906058907636</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0106161172779478</v>
+        <v>0.001073797310186673</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007674133377561007</v>
+        <v>0.001079925207997208</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.005442222015603214</v>
+        <v>-0.0003345230584816239</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006592532158557391</v>
+        <v>-0.001989739787553721</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.001554415298110499</v>
+        <v>-0.0007921907379329464</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0007517097585696618</v>
+        <v>0.001643445383001929</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0009968542667108664</v>
+        <v>0.0008153042523850248</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0009709477189821926</v>
+        <v>-0.001263396867393541</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0001754801705781819</v>
+        <v>-0.0007183970545172103</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.5599760246537306</v>
+        <v>0.003445934511903753</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8923933840955237</v>
+        <v>-0.0006840434124073621</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.454604643309619</v>
+        <v>0.004473656102066033</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09240425434516274</v>
+        <v>-0.008874856865760188</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01454011551770434</v>
+        <v>0.0008459582518648423</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0429771663702798</v>
+        <v>0.004494565983659266</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.0428115138422676</v>
+        <v>0.002603758373585953</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01243184508762391</v>
+        <v>-0.006720007783778828</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0002527291449409659</v>
+        <v>-0.000263703716699682</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.006634845974915412</v>
+        <v>0.004720963891778226</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.006012961666570258</v>
+        <v>0.001588616283726303</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.001594232991013591</v>
+        <v>-0.005795064044102124</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.0004337852136434821</v>
+        <v>-0.0005425102606134274</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.001286265263228315</v>
+        <v>0.004926986096208777</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.0007690809322453985</v>
+        <v>0.001094086627531794</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.317082763322074e-05</v>
+        <v>-0.005314340038960817</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.5599650012399181</v>
+        <v>-0.000428933393744838</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2342012399756802</v>
+        <v>0.01289928940717105</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.003712710983681952</v>
+        <v>0.005435314784045745</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.0495070394963768</v>
+        <v>-0.003742487789563279</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.008738831001312402</v>
+        <v>-0.0007522338058577843</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.0638456460988182</v>
+        <v>0.006824024275918611</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01073759529305901</v>
+        <v>0.001550566297910067</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.01785890856714126</v>
+        <v>-0.004938414111805011</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.004947635469914822</v>
+        <v>-0.0008508778597000293</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.01043510247835687</v>
+        <v>0.00608973732646415</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.003980669233858464</v>
+        <v>0.001160717297648144</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.003040870226423558</v>
+        <v>-0.005300970744525632</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.00195618062749357</v>
+        <v>-0.0009738913643536088</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.001367472804176277</v>
+        <v>0.00552882585828664</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.001033393525549659</v>
+        <v>0.0009269769236143479</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.0003283954534797944</v>
+        <v>-0.005186950044610627</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.8285032143342612</v>
+        <v>-0.03656083327865135</v>
       </c>
       <c r="AY11" t="n">
-        <v>-0.5331153557111166</v>
+        <v>0.003620718176743087</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-0.0860052024977183</v>
+        <v>0.01362247027998238</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.1849961453937069</v>
+        <v>0.000312091818777486</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.05746875146538536</v>
+        <v>-0.02674274427936797</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0.06565280435248823</v>
+        <v>0.003306119832932498</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.02646240558961481</v>
+        <v>0.01789940228896743</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.02517380061270025</v>
+        <v>-0.0007909703896688162</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0147685492610186</v>
+        <v>-0.02246649961692324</v>
       </c>
       <c r="BG11" t="n">
-        <v>-0.008427257738745465</v>
+        <v>0.002975832219089229</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0.006446254648282342</v>
+        <v>0.01877745529433595</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.002269651760380592</v>
+        <v>-0.00170134662889149</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.003377973918023149</v>
+        <v>-0.02025606406676134</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0.0005517695777513052</v>
+        <v>0.002862521049786874</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.001420800792491653</v>
+        <v>0.01850883041745632</v>
       </c>
       <c r="BM11" t="n">
-        <v>-1.416514851667334e-05</v>
+        <v>-0.002311380046451804</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>158</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>NewZealand</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1442016092135556</v>
+        <v>0.05256952307929543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8951889322203236</v>
+        <v>0.01496841874539185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04194794197312631</v>
+        <v>-0.009715080428997668</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.007516739967817797</v>
+        <v>-0.0066418443949484</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.01585731964574812</v>
+        <v>0.0004913403774513323</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09397891616953453</v>
+        <v>0.001818736662241105</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03233191291160081</v>
+        <v>0.000436615840412976</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.01293855257898646</v>
+        <v>-0.0003233022277292982</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01611952005752853</v>
+        <v>-0.0002121775290447587</v>
       </c>
       <c r="K12" t="n">
-        <v>0.01757006012512154</v>
+        <v>1.546284924021184e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.008391692032000382</v>
+        <v>5.895905685665595e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.004496788855669187</v>
+        <v>1.461107786306224e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.004426942739104748</v>
+        <v>-1.04616255255644e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003311790844214753</v>
+        <v>-7.018811391197836e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>0.002061248343179774</v>
+        <v>4.677818813050467e-07</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001027775403964749</v>
+        <v>1.939036024625006e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.9895660705197578</v>
+        <v>0.01121702738571454</v>
       </c>
       <c r="S12" t="n">
-        <v>1.055669310824068</v>
+        <v>-0.006113627701764361</v>
       </c>
       <c r="T12" t="n">
-        <v>0.08677390328426419</v>
+        <v>-0.007695465416519777</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.1305725827537632</v>
+        <v>0.0003802060196091363</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.213684920559442</v>
+        <v>0.002330905201710854</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1989814569863819</v>
+        <v>0.0004837135169711796</v>
       </c>
       <c r="X12" t="n">
-        <v>0.04012172272437605</v>
+        <v>-0.0004614196045211812</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.03881201921455611</v>
+        <v>-0.0002505829067965772</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.04808392787225381</v>
+        <v>4.009535899534814e-05</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03681500396966119</v>
+        <v>7.45390181096485e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01397955882407044</v>
+        <v>1.317182970189058e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.009285427275916589</v>
+        <v>-1.467250853232712e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.01132157528984714</v>
+        <v>-7.981349729419007e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.006891149398298617</v>
+        <v>1.217085615958018e-06</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.004110482376421741</v>
+        <v>2.422200231353074e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.002016064902005138</v>
+        <v>4.518712111450189e-07</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.9893382317205169</v>
+        <v>0.001614913712371265</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.1705903652192717</v>
+        <v>0.002194431755837702</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.009039975260762573</v>
+        <v>-0.0002734016369966147</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.07456377286453381</v>
+        <v>-0.000799027735579298</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.04974244125843856</v>
+        <v>-0.0001112818544559942</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.03049116942303839</v>
+        <v>0.0001817379221016016</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.004699704715565638</v>
+        <v>7.700575731044351e-05</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.002422626600713987</v>
+        <v>-2.311965848710514e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.005277803009000379</v>
+        <v>-2.592902945120179e-05</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.007276782687205719</v>
+        <v>-2.195538328928814e-06</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.0005697258862015675</v>
+        <v>5.818813870563539e-06</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.001877301363913921</v>
+        <v>2.388641036425902e-06</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0008847740475192633</v>
+        <v>-7.235968605543228e-07</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.001438500326525292</v>
+        <v>-8.377381798553856e-07</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.0001997029585434382</v>
+        <v>-7.947246569903488e-08</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.0005173923119408593</v>
+        <v>1.89073829369893e-07</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1442354943564537</v>
+        <v>-0.01198669881762288</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.3127981196798756</v>
+        <v>0.0005586280757618001</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-0.0817136408509555</v>
+        <v>0.0005539110711255289</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.06067045240098066</v>
+        <v>-0.0002847916442406274</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.03971152564438658</v>
+        <v>8.335579699091228e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.05885039620727905</v>
+        <v>0.0001149365417884598</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0.01972953641964838</v>
+        <v>-2.076154584603074e-05</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.01756166176104001</v>
+        <v>-3.550536394406773e-05</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.006808458423148049</v>
+        <v>-1.947810207449096e-06</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01245009987736101</v>
+        <v>8.181038425129247e-06</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0.003472457749765375</v>
+        <v>2.651687324462736e-06</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0.004766981283728229</v>
+        <v>-1.201659352556539e-06</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.001070618680391199</v>
+        <v>-1.011720132832226e-06</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.002836030880718326</v>
+        <v>-1.928422895005216e-08</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.0005489553245084337</v>
+        <v>2.480460832456869e-07</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.001206733561796948</v>
+        <v>8.394872671366621e-08</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>174</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>0.809508075345228</v>
+        <v>0.0800849089710602</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01056478629678543</v>
+        <v>0.02049750097137827</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1645776457223118</v>
+        <v>0.001392818018163966</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008303417232148306</v>
+        <v>-0.01104359493790517</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04856851028928028</v>
+        <v>6.577057204368273e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.04692199768567408</v>
+        <v>0.004334443218148765</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.007788562289907189</v>
+        <v>0.003321949537820934</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0003350785157778808</v>
+        <v>0.0007721055332187038</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005932353626879969</v>
+        <v>-0.0002710481901137943</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001288358838460986</v>
+        <v>0.001285570352539432</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004407933367639456</v>
+        <v>0.0004125706790729548</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00197295603774168</v>
+        <v>0.0004722271746882209</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0005779308814572886</v>
+        <v>-0.0003245481786572173</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0003329022601990274</v>
+        <v>0.0009839031545346368</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0002949500683944917</v>
+        <v>7.318130400827274e-05</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0001040774670415902</v>
+        <v>0.000299004733880447</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.5868021045857259</v>
+        <v>0.03229289491878043</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9088817320284358</v>
+        <v>-0.003984354279537212</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.3597234943534849</v>
+        <v>-0.005623448102711605</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04607729756223902</v>
+        <v>-0.009031817094128194</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02586796433468057</v>
+        <v>-0.002255908968536659</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.07752144267604036</v>
+        <v>-0.004544963111764132</v>
       </c>
       <c r="X13" t="n">
-        <v>0.07901877212271004</v>
+        <v>-0.0001831772385121752</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.04638226272542069</v>
+        <v>-0.0009118766221699844</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.004428822778957501</v>
+        <v>4.74064924806694e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01165429264970074</v>
+        <v>-0.003382124547357783</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.008714707739278368</v>
+        <v>-0.0004127823349160815</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.006496929326749301</v>
+        <v>-0.0004418321659074246</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.003583862593094547</v>
+        <v>0.001086780673311214</v>
       </c>
       <c r="AE13" t="n">
-        <v>6.345703284394714e-05</v>
+        <v>-0.002036073167016101</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.001481300980140412</v>
+        <v>-8.999211361345868e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.001242694143441268</v>
+        <v>-0.0005287323384353288</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.5867028934020855</v>
+        <v>0.0124283093921153</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1963901671267639</v>
+        <v>-0.001418158724264713</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0626283753210357</v>
+        <v>0.0005394420252026817</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.09283754862832837</v>
+        <v>-0.003070465034918139</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.05088769349160915</v>
+        <v>0.01230907816049441</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.003450351332046083</v>
+        <v>-0.001214137968316361</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.007819515713148335</v>
+        <v>0.0006954154149000798</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.001602571590417334</v>
+        <v>-0.005818009565030829</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.001652006059828056</v>
+        <v>0.008654414569338268</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.003759681522310566</v>
+        <v>-0.001231972637271111</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.002805662420411404</v>
+        <v>0.001856406486728623</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.001085783415542016</v>
+        <v>-0.006125087744276793</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.0006813453613866351</v>
+        <v>0.006261740032125075</v>
       </c>
       <c r="AU13" t="n">
-        <v>-9.813905280227855e-06</v>
+        <v>-0.001477484656942826</v>
       </c>
       <c r="AV13" t="n">
-        <v>-4.81198593842731e-05</v>
+        <v>0.002687287380106354</v>
       </c>
       <c r="AW13" t="n">
-        <v>3.688910358625631e-06</v>
+        <v>-0.005735944383754998</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.8096464670237847</v>
+        <v>-0.03996281084950496</v>
       </c>
       <c r="AY13" t="n">
-        <v>-0.4902801329098794</v>
+        <v>0.003574519183770023</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.01199798834607587</v>
+        <v>0.002255009542441989</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.1300834402832006</v>
+        <v>0.01067779366606057</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.06638468615352859</v>
+        <v>-0.02585354081152401</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.02881315157505122</v>
+        <v>0.003137549310304293</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.03789162738069407</v>
+        <v>-0.0007482171399481542</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.006016180103938345</v>
+        <v>0.0133242709770231</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.01795012150237008</v>
+        <v>-0.0184811998849945</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.01130052924347444</v>
+        <v>0.002960851601958382</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.002837692771593783</v>
+        <v>-0.003461092038109556</v>
       </c>
       <c r="BI13" t="n">
-        <v>-0.0006609048461321118</v>
+        <v>0.01360742985435924</v>
       </c>
       <c r="BJ13" t="n">
-        <v>6.831620504999943e-05</v>
+        <v>-0.0135591744647527</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.001226206545308327</v>
+        <v>0.003190458355351566</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.001418396948164477</v>
+        <v>-0.005533049742910166</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0003843720789679523</v>
+        <v>0.01264045896295694</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>182</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SouthAfrica</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3846734841712973</v>
+        <v>0.07899288534864324</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5533552853975761</v>
+        <v>0.02075591533907071</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02837980559070093</v>
+        <v>0.005507411846110722</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06400121557457429</v>
+        <v>0.001488552793917891</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03711337205856453</v>
+        <v>0.0004159894992588411</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.03989769703189392</v>
+        <v>0.000122986084646586</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02919902776620835</v>
+        <v>3.957099540922509e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004861717863299129</v>
+        <v>1.417886794181181e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.000142691629075782</v>
+        <v>5.679613382833615e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0002433571400196037</v>
+        <v>2.497849524268242e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.000879448647901952</v>
+        <v>1.17263176808191e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001269004656358396</v>
+        <v>5.729472081690092e-07</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0002351233493748066</v>
+        <v>2.86312411912069e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.0005938056451573927</v>
+        <v>1.448128648752119e-07</v>
       </c>
       <c r="P14" t="n">
-        <v>0.0001891647654257688</v>
+        <v>7.370751964945271e-08</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.210732557646723e-05</v>
+        <v>3.763800193911678e-08</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.9229913851123794</v>
+        <v>0.0003824588139998825</v>
       </c>
       <c r="S14" t="n">
-        <v>1.004653878255918</v>
+        <v>-8.705821986987309e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.03315722109797609</v>
+        <v>-0.000118200750341688</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.02661609865562946</v>
+        <v>-7.969966870488667e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>-0.06248398444813828</v>
+        <v>-4.581200830279244e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01394258781548106</v>
+        <v>-2.476668464582382e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>0.0402446720656101</v>
+        <v>-1.302617510210955e-05</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.003215786660325168</v>
+        <v>-6.761708293020454e-06</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.01952031402321915</v>
+        <v>-3.487242647254887e-06</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.007699720754718429</v>
+        <v>-1.792671507668206e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.001766122268877525</v>
+        <v>-9.200477556964446e-07</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.001067965947139036</v>
+        <v>-4.718039754875269e-07</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.00213499648328097</v>
+        <v>-2.418417399102166e-07</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.0001159768309287662</v>
+        <v>-1.239392500425237e-07</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.0007533735912999005</v>
+        <v>-6.35096575946915e-08</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.0001074426128363505</v>
+        <v>-3.254220560376549e-08</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.9227209801796249</v>
+        <v>0.0015015586306815</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.05319225819033574</v>
+        <v>0.002273861694378136</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.05219333042462639</v>
+        <v>0.001556282220765062</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.04747049064326074</v>
+        <v>0.0008991234013316408</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.009981287089492882</v>
+        <v>0.0004871370401349494</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.01546376579102183</v>
+        <v>0.0002564729080564629</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.004281535608892298</v>
+        <v>0.0001331975428530107</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.003789824997045487</v>
+        <v>6.871143358854761e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.004624767893031541</v>
+        <v>3.532656011282593e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0.001682393589169355</v>
+        <v>1.813168506579894e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.0006266824449140652</v>
+        <v>9.298291191024399e-06</v>
       </c>
       <c r="AS14" t="n">
-        <v>7.990087483081751e-05</v>
+        <v>4.766282444779304e-06</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.0001243549251746039</v>
+        <v>2.442648154090622e-06</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0001228402922704847</v>
+        <v>1.251680871159788e-06</v>
       </c>
       <c r="AV14" t="n">
-        <v>-1.491565312610175e-05</v>
+        <v>6.413598049262689e-07</v>
       </c>
       <c r="AW14" t="n">
-        <v>-3.476369478836812e-05</v>
+        <v>3.286225717448114e-07</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.3847859853157902</v>
+        <v>-0.006561960916639166</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.07633684052803813</v>
+        <v>-0.003340549879133267</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.09534822640348328</v>
+        <v>-0.001705978521162479</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.1145965153416827</v>
+        <v>-0.0008726301872818239</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.05319467534826953</v>
+        <v>-0.0004467288978090203</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.02264156659166565</v>
+        <v>-0.0002287912760983999</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.003938476966963022</v>
+        <v>-0.0001171998695303381</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0003900984512624085</v>
+        <v>-6.004289711337722e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.001825538129270198</v>
+        <v>-3.076237979105877e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.0004539220903998564</v>
+        <v>-1.576123666395073e-05</v>
       </c>
       <c r="BH14" t="n">
-        <v>-0.0008577940424600928</v>
+        <v>-8.075450828389063e-06</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.001090037794607897</v>
+        <v>-4.137579705831596e-06</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0.0005723238007546859</v>
+        <v>-2.119959416508298e-06</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.0002786122111958328</v>
+        <v>-1.086199308503384e-06</v>
       </c>
       <c r="BL14" t="n">
-        <v>-0.0001474338409325443</v>
+        <v>-5.565342585390808e-07</v>
       </c>
       <c r="BM14" t="n">
-        <v>4.353254744151997e-05</v>
+        <v>-2.851507321178477e-07</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>184</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6427459898756014</v>
+        <v>0.0417294442412436</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2370963190352404</v>
+        <v>0.01601217604766784</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03142519429541763</v>
+        <v>-0.008407438953215671</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08965548711694925</v>
+        <v>-0.011024831166698</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06614962416115625</v>
+        <v>-0.01059707396081049</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03783477636773153</v>
+        <v>0.007310054422124445</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02961884040122657</v>
+        <v>0.0115906947291598</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01055627625867245</v>
+        <v>0.008119151620996246</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007800524849710585</v>
+        <v>-0.005808894108017438</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0009413391637546991</v>
+        <v>-0.004926790870278034</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.004277595562232369</v>
+        <v>-0.001689170988597885</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004525749377003001</v>
+        <v>0.004972550436056862</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.000366649442273987</v>
+        <v>0.0007964113868709984</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0008538381834264391</v>
+        <v>0.001715560396702133</v>
       </c>
       <c r="P15" t="n">
-        <v>8.749076951378805e-05</v>
+        <v>-0.0007826689769315416</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.0005278953177471045</v>
+        <v>0.0006395877533324196</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.7658919144410172</v>
+        <v>0.03319809980602154</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9959072949512909</v>
+        <v>-0.006503292842710446</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.06306991335921927</v>
+        <v>-0.01592272350721594</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.1071632406003648</v>
+        <v>-0.01251577348513899</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.1526788187039476</v>
+        <v>0.004657098838741231</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02774713491981637</v>
+        <v>0.002099629628778102</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1122874199297234</v>
+        <v>0.003891134685380071</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.04097568174514376</v>
+        <v>-0.001644353216194551</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0007847593498127836</v>
+        <v>0.001708682165038513</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.01455825729976684</v>
+        <v>-0.007042714135005325</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.002114133648317088</v>
+        <v>-0.001778729044693962</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.01082434054372936</v>
+        <v>0.000699938568437374</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.005150101197129151</v>
+        <v>0.006980285632725981</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.002029897860405561</v>
+        <v>-0.00287018826762397</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.002645379446766362</v>
+        <v>-0.002570073798312589</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.0004383255902363702</v>
+        <v>-0.002387021028234275</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.7657059646625852</v>
+        <v>0.01616660832200222</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.06872215306107769</v>
+        <v>0.005537759155382177</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.05384899493994874</v>
+        <v>0.001289149212697557</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.07789521458369335</v>
+        <v>-0.005924618960355003</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.01671309572404598</v>
+        <v>0.01069871467077213</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.03536747258305263</v>
+        <v>0.001869009201842722</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003618179984887009</v>
+        <v>0.0003380605117455362</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.01414551639966096</v>
+        <v>-0.00493598499440758</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.00338015273577948</v>
+        <v>0.008928242043822839</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.005756050384434767</v>
+        <v>0.0006264110517819956</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.005253853380230308</v>
+        <v>-0.0009603084797442283</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.000642599887215351</v>
+        <v>-0.005315984543440508</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.001534929371224791</v>
+        <v>0.007466683489096328</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.386675641675795e-05</v>
+        <v>0.0007168348179739998</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.0006259504868217511</v>
+        <v>-0.0008034485678239668</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0006484327368267208</v>
+        <v>-0.005081757511170377</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.6429005393644101</v>
+        <v>-0.02183477967291648</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.1294559636760609</v>
+        <v>0.009064088556015508</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.0650979958469159</v>
+        <v>0.003283560257875945</v>
       </c>
       <c r="BA15" t="n">
-        <v>-0.1990584080070809</v>
+        <v>-0.001009000771783095</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.02036727423043508</v>
+        <v>-0.01846591560429401</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.13538083870652</v>
+        <v>0.008236838205516099</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0.03640977133525225</v>
+        <v>0.004531493973005172</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.008933610517284155</v>
+        <v>0.001122093837900174</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.02536483975265011</v>
+        <v>-0.01543869794625716</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.002808487049200087</v>
+        <v>0.006933360787992341</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.01308795112370432</v>
+        <v>0.003896403114166584</v>
       </c>
       <c r="BI15" t="n">
-        <v>-0.006177347398007837</v>
+        <v>0.001517175708109497</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.003434585184494037</v>
+        <v>-0.01292986484440024</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.003807642853702397</v>
+        <v>0.006307194406259629</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.0006548433405227271</v>
+        <v>0.003622631600891606</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.001258191665975345</v>
+        <v>0.001557438763525951</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>186</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5280913056245661</v>
+        <v>0.1236636004360224</v>
       </c>
       <c r="C16" t="n">
-        <v>0.357696157969612</v>
+        <v>0.02982928242992423</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02184037696716176</v>
+        <v>-0.02465475142860681</v>
       </c>
       <c r="E16" t="n">
-        <v>0.03713805422277443</v>
+        <v>-0.02294273566548356</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.006880704814949301</v>
+        <v>-0.006344426461563753</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02838350508134638</v>
+        <v>0.002399751493736823</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02323163784327888</v>
+        <v>0.005451722552352443</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0001987388720394502</v>
+        <v>0.001392717993006637</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0004971985530103391</v>
+        <v>0.0005037009397317896</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.003204728446778768</v>
+        <v>-0.001641162987433149</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001012917894720938</v>
+        <v>-0.000350774772153487</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0008484201422198984</v>
+        <v>-0.00050282992976954</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0002155178617125677</v>
+        <v>0.001059010232575415</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.000455059938432632</v>
+        <v>-0.000294735943990955</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0002623507604992004</v>
+        <v>9.840762944988332e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.958745064858682e-05</v>
+        <v>-0.0004582504145586542</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.8491051436528313</v>
+        <v>0.001373732439476836</v>
       </c>
       <c r="S16" t="n">
-        <v>1.123879768302807</v>
+        <v>-0.001326774539222189</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.1857082746206149</v>
+        <v>0.003379011519672056</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.05966851101971733</v>
+        <v>-0.004385100559135535</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.1294446072614298</v>
+        <v>0.004544042399469995</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1172702875706341</v>
+        <v>-0.0008053673285191795</v>
       </c>
       <c r="X16" t="n">
-        <v>0.002084943225738992</v>
+        <v>0.0006876833340257496</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.01567452719737533</v>
+        <v>-0.004281751675336841</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.01835410286973619</v>
+        <v>0.00379417897021544</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.018913234081985</v>
+        <v>-0.0001949562373101626</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.002433352542710594</v>
+        <v>0.0003685529220700746</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.001168124260996874</v>
+        <v>-0.003473892506312165</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.002679562565837585</v>
+        <v>0.003189239873103322</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.002640911717406581</v>
+        <v>-7.894637896427786e-07</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.0002806789771781224</v>
+        <v>-3.168200031709594e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.0002722599301356625</v>
+        <v>-0.002836127148090738</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.8489785603195525</v>
+        <v>-0.004987919781083603</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.01309536829881272</v>
+        <v>0.01154136884810627</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0299439070406708</v>
+        <v>0.002439603459288351</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.003842248687547694</v>
+        <v>0.00012346412941872</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.02478436239804587</v>
+        <v>-0.004416792348821306</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.02036119255086767</v>
+        <v>0.004225393130112108</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0005017791864795885</v>
+        <v>-0.001150626340158909</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.002159933509199687</v>
+        <v>-0.0005100399683192979</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.001461348010988341</v>
+        <v>-0.002619119960727569</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0.001440672622972291</v>
+        <v>0.004296455775260447</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.001157847653910323</v>
+        <v>-0.000764317938112168</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0.0003456522494092312</v>
+        <v>-0.0009946378446227823</v>
       </c>
       <c r="AT16" t="n">
-        <v>-8.002441542685416e-05</v>
+        <v>-0.002181301373839534</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.534258176973822e-05</v>
+        <v>0.003684294129641769</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.15887653161523e-06</v>
+        <v>-0.0005477964615731413</v>
       </c>
       <c r="AW16" t="n">
-        <v>-1.301579597916724e-05</v>
+        <v>-0.001126080616922475</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.5281700981690852</v>
+        <v>-0.03167056792299831</v>
       </c>
       <c r="AY16" t="n">
-        <v>-0.005532322936534021</v>
+        <v>0.01711445625951758</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.1572300161190473</v>
+        <v>0.009139502683776193</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.06302854534914039</v>
+        <v>0.0007300750099431237</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.02825678612288677</v>
+        <v>-0.02593745835854869</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.03990771643237223</v>
+        <v>0.01576333274560039</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0.02271785531927071</v>
+        <v>0.009610675387705566</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.001973246137897718</v>
+        <v>-0.001432026925058586</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.002109607909970288</v>
+        <v>-0.02217955739687346</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.001487585824743973</v>
+        <v>0.01409849316586966</v>
       </c>
       <c r="BH16" t="n">
-        <v>-0.002050287396882441</v>
+        <v>0.009455370309747956</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.0005328217463685789</v>
+        <v>-0.003039852441440729</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.0001451445292469405</v>
+        <v>-0.01897860631724848</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.000524010745326318</v>
+        <v>0.01275917359819258</v>
       </c>
       <c r="BL16" t="n">
-        <v>-0.0004547446756574947</v>
+        <v>0.009061492279878692</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.0001156529799532954</v>
+        <v>-0.004214183390665806</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>199</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2217576122815317</v>
+        <v>0.08412779828663271</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.05072544306281</v>
+        <v>0.006203961940902033</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2545858639042972</v>
+        <v>0.0004082320221576782</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.4411024621803142</v>
+        <v>1.3838998913481e-07</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00902210812738821</v>
+        <v>-1.624270994966633e-05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2150351047667777</v>
+        <v>-9.88329697208676e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1041294264409618</v>
+        <v>-5.360767419672633e-06</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04059323476394162</v>
+        <v>-2.864797374932886e-06</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1103730096636359</v>
+        <v>-1.527784829919907e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01798613467609546</v>
+        <v>-8.145246197142551e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.04110471443859259</v>
+        <v>-4.342386489048225e-07</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02601246523705573</v>
+        <v>-2.31499594203486e-07</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.02295808493565116</v>
+        <v>-1.234160497854062e-07</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.01640940261886587</v>
+        <v>-6.579501644968804e-08</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.001308278663711523</v>
+        <v>-3.507634645344236e-08</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00301780648581306</v>
+        <v>-1.869974572749121e-08</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9750621349092147</v>
+        <v>0.0004840600491859029</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.5833773710344132</v>
+        <v>-0.0001897055678770525</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.2051983657941776</v>
+        <v>-0.0001347261592295196</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.2885407772777557</v>
+        <v>-7.434460529877321e-05</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.006564867075451015</v>
+        <v>-3.982331402500373e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>0.006301184089833921</v>
+        <v>-2.124461031242011e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>0.03652868592100355</v>
+        <v>-1.132689605943622e-05</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.000242658784554728</v>
+        <v>-6.038624236409203e-06</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.07685071459929141</v>
+        <v>-3.219290467021524e-06</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.03286661743765446</v>
+        <v>-1.71625425613932e-06</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.008757140609411107</v>
+        <v>-9.149618648657265e-07</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.0109741241872157</v>
+        <v>-4.877804000597267e-07</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.005420086463117211</v>
+        <v>-2.600433162946212e-07</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.01074502332332437</v>
+        <v>-1.386331355233735e-07</v>
       </c>
       <c r="AF17" t="n">
-        <v>-0.006096991155142204</v>
+        <v>-7.390748025060719e-08</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.001691931252384312</v>
+        <v>-3.940122695995116e-08</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.9752449101398547</v>
+        <v>0.001333239763650245</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.231750026373368</v>
+        <v>0.001446085690746368</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-0.2322838808345888</v>
+        <v>0.0008260937634566979</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.416663297699157</v>
+        <v>0.0004445417344290371</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.07688316060182576</v>
+        <v>0.0002373025648251523</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.3141358895261965</v>
+        <v>0.0001265329773901941</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.02428428836922451</v>
+        <v>6.745844500817657e-05</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.06348336400104169</v>
+        <v>3.596327706680299e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.06653758442965378</v>
+        <v>1.917259205525784e-05</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.01178874261578682</v>
+        <v>1.022120769016848e-05</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.03558915140940946</v>
+        <v>5.449084811561876e-06</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.02061657364738504</v>
+        <v>2.904991848764975e-06</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0.02805664353337372</v>
+        <v>1.548696326605488e-06</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0.005854221628414592</v>
+        <v>8.256340934817217e-07</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.004629195532760954</v>
+        <v>4.401583735895668e-07</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.002571055205069211</v>
+        <v>2.346552732861907e-07</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.2217168115088115</v>
+        <v>0.006172734363978373</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.2459456041820696</v>
+        <v>0.00329930030515125</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.1597789915920232</v>
+        <v>0.001759547434778917</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0.2991021403580973</v>
+        <v>0.0009380900458217676</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.0309188234521633</v>
+        <v>0.0005001139874676644</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.1255714277122136</v>
+        <v>0.0002666188131833584</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.006137260413150241</v>
+        <v>0.0001421386553913194</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.01247500365281665</v>
+        <v>7.577632891956831e-05</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.05745379541085054</v>
+        <v>4.039753935923945e-05</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.02273609642604603</v>
+        <v>2.153655641009807e-05</v>
       </c>
       <c r="BH17" t="n">
-        <v>-0.0144910755769606</v>
+        <v>1.148147310960122e-05</v>
       </c>
       <c r="BI17" t="n">
-        <v>-0.008226165905836986</v>
+        <v>6.120951848103264e-06</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.01205333952953328</v>
+        <v>3.263174609120089e-06</v>
       </c>
       <c r="BK17" t="n">
-        <v>-0.006765729974520552</v>
+        <v>1.739649125469853e-06</v>
       </c>
       <c r="BL17" t="n">
-        <v>-0.002133523684183655</v>
+        <v>9.274339997894505e-07</v>
       </c>
       <c r="BM17" t="n">
-        <v>-0.0008877738232036736</v>
+        <v>4.944294865972659e-07</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>228</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9289237327094592</v>
+        <v>0.1122565494054445</v>
       </c>
       <c r="C18" t="n">
-        <v>1.259174053884291</v>
+        <v>0.03726717523546181</v>
       </c>
       <c r="D18" t="n">
-        <v>1.179118299072892</v>
+        <v>-0.02144280942661515</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3321966164389888</v>
+        <v>-0.01482069947909384</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7447498144214114</v>
+        <v>0.003023883859392077</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5775653577793404</v>
+        <v>0.004758850421448618</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5140814933010103</v>
+        <v>0.0001274381361019887</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4360851111312833</v>
+        <v>-0.001306201948208115</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4188911139018608</v>
+        <v>-0.0003023426369186933</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3524492736907016</v>
+        <v>0.0003038015106274631</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3234077254492633</v>
+        <v>0.0001466650491808657</v>
       </c>
       <c r="M18" t="n">
-        <v>0.2844307366119548</v>
+        <v>-5.507280461132511e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2552855269583267</v>
+        <v>-5.229425330962445e-05</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2257928182125937</v>
+        <v>4.733277936060174e-06</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2022889820860778</v>
+        <v>1.560225023099636e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.1794990897397643</v>
+        <v>1.861694695720674e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3702699657047579</v>
+        <v>0.05216348908556507</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.1313288694332457</v>
+        <v>-0.0279138970677581</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.05873803811804684</v>
+        <v>-0.03458051767740427</v>
       </c>
       <c r="U18" t="n">
-        <v>-0.0447556897237277</v>
+        <v>0.001796324108741598</v>
       </c>
       <c r="V18" t="n">
-        <v>0.009334654043956808</v>
+        <v>0.009620842761655228</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.03519955546260597</v>
+        <v>0.001537672426382054</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.01302155242782566</v>
+        <v>-0.002396842212521266</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.01850230805978392</v>
+        <v>-0.000915969071864555</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.01256857362369332</v>
+        <v>0.0004828697581106959</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.01405769591478985</v>
+        <v>0.0003551569766701656</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.0104548684948467</v>
+        <v>-6.265002183249197e-05</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.01059108198114854</v>
+        <v>-0.0001121832643032286</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.008766291636281634</v>
+        <v>-5.379023019112358e-06</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.008148421444233098</v>
+        <v>3.029860696928431e-05</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.00705377936397425</v>
+        <v>7.693115175603916e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.006417894064417992</v>
+        <v>-6.90850058100615e-06</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.3702697512842271</v>
+        <v>0.004626734177634565</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.459390171821639</v>
+        <v>0.002370021669335848</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.918306172800098</v>
+        <v>-0.0002065694256031503</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.1316449286415476</v>
+        <v>-0.0007539607834892822</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.007362486731906</v>
+        <v>-7.768444470798398e-05</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.7658410429340322</v>
+        <v>0.000191793344417071</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.6029995023336387</v>
+        <v>6.171565103112884e-05</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.519753151888689</v>
+        <v>-4.124433624925233e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.5280931263877024</v>
+        <v>-2.565726920397613e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.4229682491309981</v>
+        <v>6.294759086891718e-06</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.3961914383684004</v>
+        <v>8.468102269731223e-06</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.3476197923644707</v>
+        <v>-3.270613406899263e-08</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.3121272118727177</v>
+        <v>-2.37655516897839e-06</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.2751564959408083</v>
+        <v>-4.762226261783627e-07</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.2475009651325079</v>
+        <v>5.678727641387455e-07</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.2190666150577761</v>
+        <v>2.492541870390451e-07</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.9289249388257219</v>
+        <v>-0.007999946890090273</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0.2039099308863898</v>
+        <v>0.00183409493092571</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.1683415493871087</v>
+        <v>-0.001937421376734165</v>
       </c>
       <c r="BA18" t="n">
-        <v>-0.05682709195378735</v>
+        <v>-0.0002555272449257606</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.04654800430383399</v>
+        <v>0.0003139068138674365</v>
       </c>
       <c r="BC18" t="n">
-        <v>-0.05859084664779191</v>
+        <v>0.0001714573098853367</v>
       </c>
       <c r="BD18" t="n">
-        <v>-0.01346755378042605</v>
+        <v>-6.100451800718773e-05</v>
       </c>
       <c r="BE18" t="n">
-        <v>-0.02265175281451967</v>
+        <v>-5.867037691459032e-05</v>
       </c>
       <c r="BF18" t="n">
-        <v>-0.0147958330933565</v>
+        <v>4.698105447637473e-06</v>
       </c>
       <c r="BG18" t="n">
-        <v>-0.01811647951899867</v>
+        <v>1.746593568200542e-05</v>
       </c>
       <c r="BH18" t="n">
-        <v>-0.01200404322837892</v>
+        <v>2.233103111415096e-06</v>
       </c>
       <c r="BI18" t="n">
-        <v>-0.01330189004830933</v>
+        <v>-4.427931835800668e-06</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-0.01058634186465743</v>
+        <v>-1.530204766027129e-06</v>
       </c>
       <c r="BK18" t="n">
-        <v>-0.01000913886621839</v>
+        <v>9.26938824683179e-07</v>
       </c>
       <c r="BL18" t="n">
-        <v>-0.008563423457325026</v>
+        <v>6.175189027233771e-07</v>
       </c>
       <c r="BM18" t="n">
-        <v>-0.007880001603635875</v>
+        <v>-1.332983088139809e-07</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>273</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7617997078404759</v>
+        <v>0.1441925163362647</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2094986051703613</v>
+        <v>0.02322995016426798</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04674143412124224</v>
+        <v>-0.04648786955938333</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0620188303261985</v>
+        <v>-0.01333724049636174</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1470249338263204</v>
+        <v>-0.0003703326619690489</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1884673499100804</v>
+        <v>-0.008826917814218361</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09218460525209055</v>
+        <v>0.002905272145089466</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02387231624962837</v>
+        <v>0.005719693535555975</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01808005658437635</v>
+        <v>0.007281555080723938</v>
       </c>
       <c r="K19" t="n">
-        <v>0.04161965752981784</v>
+        <v>-0.003539287716440728</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05513409069582683</v>
+        <v>-0.00381286097615667</v>
       </c>
       <c r="M19" t="n">
-        <v>0.03131969842555019</v>
+        <v>-0.001874225371966854</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01884204245759944</v>
+        <v>0.004299069524817241</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0134275591614957</v>
+        <v>-0.001154167430329812</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01485949394518528</v>
+        <v>-0.0004563782623658965</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01645924237646491</v>
+        <v>-0.001046833875624656</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.6477373402400267</v>
+        <v>0.005077326730562156</v>
       </c>
       <c r="S19" t="n">
-        <v>0.461606175454343</v>
+        <v>-0.01037152412781794</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1709812288105248</v>
+        <v>-0.001523450543296867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1146693315997324</v>
+        <v>-0.006117077008072608</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.0984694366172168</v>
+        <v>0.02237847514862682</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.1622061142248456</v>
+        <v>-0.001743595335076124</v>
       </c>
       <c r="X19" t="n">
-        <v>0.08230135411257991</v>
+        <v>-0.003091149507471459</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.06457910181298782</v>
+        <v>-0.009290965677227753</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.02361161283378513</v>
+        <v>0.01145305563258934</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.002711729570644477</v>
+        <v>-0.003278795637371457</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.03799568974568442</v>
+        <v>0.001509149307104718</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01535845593281521</v>
+        <v>-0.006452945183464369</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0129033289634748</v>
+        <v>0.007849489950726414</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.005722099374957729</v>
+        <v>-0.003313659958988205</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.004025217899538404</v>
+        <v>0.002343552756573528</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.006637596396369907</v>
+        <v>-0.005427886547398481</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.6477381327261731</v>
+        <v>0.0007080359566224539</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.1807072548338979</v>
+        <v>0.007922147948746249</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.1149776812550939</v>
+        <v>0.002114965593483649</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.05504616769148107</v>
+        <v>-0.00213208949757084</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.3292017858648153</v>
+        <v>-0.005702870338771252</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.1589613989573076</v>
+        <v>0.002652645041534228</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.06012803533128888</v>
+        <v>0.001551573186887318</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.02990352264084937</v>
+        <v>0.0006174573485359754</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.04136009137575968</v>
+        <v>-0.002798506052677924</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.09069140544947109</v>
+        <v>0.001767161753045131</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.05434114091343564</v>
+        <v>0.0001501254664685066</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.02799914671247112</v>
+        <v>0.0005628185368172532</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.00893512594551703</v>
+        <v>-0.001999868696641588</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.01542231120046643</v>
+        <v>0.001229872572606048</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.02586285771692337</v>
+        <v>-0.0001544786633285754</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.01731841308611118</v>
+        <v>0.000754334626293878</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.761798186301751</v>
+        <v>-0.01894598096702113</v>
       </c>
       <c r="AY19" t="n">
-        <v>-0.03112617292994182</v>
+        <v>0.002564647378749539</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.273949005398577</v>
+        <v>-0.0008165007061821364</v>
       </c>
       <c r="BA19" t="n">
-        <v>-0.08442048858844915</v>
+        <v>0.004444239268445193</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.4266930685817029</v>
+        <v>-0.009679728205616885</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.1921560896549435</v>
+        <v>0.003832924264335044</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.05833817699658633</v>
+        <v>-0.001681483336539825</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.1098128269442661</v>
+        <v>0.004432763344568579</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.001043702973468803</v>
+        <v>-0.006597356071904276</v>
       </c>
       <c r="BG19" t="n">
-        <v>-0.1087499523121153</v>
+        <v>0.003365249693006239</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.03156411778805555</v>
+        <v>-0.002188342183453861</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.01474043306124163</v>
+        <v>0.004011731550489647</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.02144047204889689</v>
+        <v>-0.004683729720975812</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.0118557991192338</v>
+        <v>0.002945469271487499</v>
       </c>
       <c r="BL19" t="n">
-        <v>-0.0225322442067229</v>
+        <v>-0.002387049129027134</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.006249034025846152</v>
+        <v>0.003368534012087099</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8574334633292298</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.04840366927123634</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.03497501584462112</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1059244390720268</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.02275601392131587</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.03011904412772738</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-0.02168360763522853</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.005038982820117567</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.009262873097758414</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.002413728602965651</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.004768454152804732</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-0.00699880745273429</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.0006562225390392672</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.001464368984765562</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0.0008326670381387773</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.0007969279766776559</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-0.5144518469521555</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.6244934780614646</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0.06942331017461471</v>
-      </c>
-      <c r="U20" t="n">
-        <v>-0.1646540162898858</v>
-      </c>
-      <c r="V20" t="n">
-        <v>-0.02966687366631387</v>
-      </c>
-      <c r="W20" t="n">
-        <v>-0.0918311801698177</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.1453771574263978</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.007131314990796014</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>-0.03050640602227759</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>-0.01704582180989292</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>-0.01901175653815044</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0.03567133316636178</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.0008616524085720181</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>-0.00586955813327482</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>-0.006282115280592141</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>-0.003638671365839183</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>0.5144203363161236</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0.1954127796258094</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>-0.001113441402026797</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0.1054981447815248</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0.01675500590776136</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>-0.03305101757291068</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0.03455782336304185</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>-0.003983012773059362</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0.01471917494512584</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>-0.003585573242680267</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>-0.007757890997078391</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0.005812335005712025</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>-0.001379379622229409</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0.003578763401639741</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>-0.001621820177973242</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>-0.001614429187581928</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0.8574829532073635</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>-0.455141803875994</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0.1307859401425587</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>-0.2496322329934781</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0.06088251543852805</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>0.1954670355859972</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>-0.1021510991666052</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0.02390998540444393</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>-0.06881591812910043</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0.02549056080749848</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0.03968854155358285</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>-0.01967973599065828</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0.003552246736697115</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>-0.01807086349240905</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0.008316116676267707</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0.008097783693461952</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5299771945245424</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3312381706933257</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.04100169155697256</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.03239013603071945</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.04325853076192607</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.02100397291576622</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.002990322162260611</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.004706863392938391</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.003835584193269541</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.000824074617917149</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0005508361447611747</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.0005659482247692806</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0.0001625547264103742</v>
-      </c>
-      <c r="O21" t="n">
-        <v>9.003476096678629e-05</v>
-      </c>
-      <c r="P21" t="n">
-        <v>8.022331119200349e-05</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.539965495178621e-05</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-0.8480119945450871</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.096063950850017</v>
-      </c>
-      <c r="T21" t="n">
-        <v>-0.1496977609086478</v>
-      </c>
-      <c r="U21" t="n">
-        <v>-0.2913145170671398</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.2235449958725653</v>
-      </c>
-      <c r="W21" t="n">
-        <v>-0.00184166239557962</v>
-      </c>
-      <c r="X21" t="n">
-        <v>-0.06040153690974193</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.03515145531659917</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>0.001337189876177667</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>-0.009501335021258519</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.005374122021945577</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.661876809227733e-05</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>-0.00141420710361814</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.0008922410179428045</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>-4.107639451596175e-05</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>-0.0002164833777829186</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0.848010524860986</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0.07044953886786184</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0.03413302434078684</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0.04876898514278863</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0.04191026834333668</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0.007739195910137567</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0.004475461016497562</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0.005296079928231391</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0.00250458138424333</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0.0005416447856630003</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0.0006706159559271493</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0.000417368041560285</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0.0001198171161397839</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>9.091188525431996e-05</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>6.125830467921712e-05</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>2.12873831785779e-05</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0.5299781070807768</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0.2327375469087258</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>-0.234181855548173</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>-0.007028151532099339</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0.1326745910355242</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>-0.05034146781091644</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>-0.0118435926146572</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0.0236198300749548</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>-0.006076395214104996</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>-0.002730032462272815</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0.003606329030606671</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>-0.0008907341743138533</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>-0.0003630380358278033</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0.0005397858078807145</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>-0.000160949160252262</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>-4.190595854308788e-05</v>
-      </c>
+      <c r="A20" s="1" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ind-IRs-to-idiosyncratic-shocks.xlsx
+++ b/ind-IRs-to-idiosyncratic-shocks.xlsx
@@ -957,797 +957,797 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1456463166488213</v>
+        <v>0.1282084437467351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03033443213212286</v>
+        <v>0.01937494459056332</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03081293694257089</v>
+        <v>-0.03385226466816175</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01158490433985697</v>
+        <v>-0.0120382405930602</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01420222391787166</v>
+        <v>-0.01004431258020971</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.003064765391101889</v>
+        <v>-0.001266591817901462</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007847792589574906</v>
+        <v>0.003918348904803943</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005692987824345676</v>
+        <v>0.004330906084809051</v>
       </c>
       <c r="J3" t="n">
-        <v>0.000944007198004119</v>
+        <v>0.002933299761564399</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.001071567385953789</v>
+        <v>-0.001298756598214901</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.001984031684201541</v>
+        <v>-0.004522547574274883</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003867169760279532</v>
+        <v>0.000397200900664976</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0001795506999276185</v>
+        <v>0.00271188465799478</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.000167124475045607</v>
+        <v>-0.0001786403781707786</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0002670607236212474</v>
+        <v>-0.002688320124674647</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001113353347598695</v>
+        <v>0.0008921731948996098</v>
       </c>
       <c r="R3" t="n">
-        <v>0.01117428600355926</v>
+        <v>0.01243469385968152</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.00123515724024404</v>
+        <v>-0.01627372268505405</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.003794701871568576</v>
+        <v>0.005665401674048906</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.005435379325641103</v>
+        <v>-0.000878538275700872</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001561270884116699</v>
+        <v>0.002527427767085593</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0004700409495904489</v>
+        <v>-0.01104101867442577</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0008482949669755941</v>
+        <v>0.006566928478773137</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.003243169677336711</v>
+        <v>0.001124114679454792</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002525336722836882</v>
+        <v>0.002180897079665001</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0002407115592538752</v>
+        <v>-0.009465704023638454</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.0001257914024096203</v>
+        <v>0.005074336042742421</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.003344005526404082</v>
+        <v>0.001959987697842664</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002546950009363533</v>
+        <v>0.001232728794272126</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0004561495813939044</v>
+        <v>-0.007972428331925215</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.0003121157542944146</v>
+        <v>0.004361039489495987</v>
       </c>
       <c r="AG3" t="n">
-        <v>-0.00320853419259029</v>
+        <v>0.00250385642768086</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.01467034849747031</v>
+        <v>-0.0008426811616689912</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01020713733759337</v>
+        <v>0.01694432926726265</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0008662884506006477</v>
+        <v>0.00336455499105554</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.003535629620325544</v>
+        <v>-0.01057735954514251</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.006363233301778001</v>
+        <v>0.0005878197413679856</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.002317644038055856</v>
+        <v>0.01326459483068297</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.002453677691843322</v>
+        <v>-0.0001138466394161219</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.004220762278389488</v>
+        <v>-0.01023080535863551</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.006172060268482197</v>
+        <v>0.0003786144497762551</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.00235987572629235</v>
+        <v>0.01177304725306701</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.002741386188418029</v>
+        <v>-0.0005676858193013263</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.004747970907771245</v>
+        <v>-0.010175160133763</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.005489967171982291</v>
+        <v>0.0003790750846450185</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.002139379614905879</v>
+        <v>0.01082418408297739</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.002670410429763808</v>
+        <v>-0.0008855416736669651</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.004664202013316787</v>
+        <v>-0.009763343793266467</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.02537945908230997</v>
+        <v>0.041691580259388</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.008873642043828322</v>
+        <v>-0.005250403517809813</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.005559747927521847</v>
+        <v>-0.01051709033152043</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.003480159974646017</v>
+        <v>-0.003253868085004895</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.02273293111875062</v>
+        <v>0.03319889488589191</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.009643296408814219</v>
+        <v>-0.007250261059954324</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.006571223421777957</v>
+        <v>-0.01427105087139104</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.004458176352763958</v>
+        <v>-0.002726273663077674</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.02141690346055182</v>
+        <v>0.02821403617615059</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.009506957767041569</v>
+        <v>-0.007135133632384444</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.00666809521076553</v>
+        <v>-0.01559710750411477</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.004659759947385143</v>
+        <v>-0.001481723136620931</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.02066050922896417</v>
+        <v>0.02490481674850203</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.009060327017530638</v>
+        <v>-0.00660268367374716</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.006583882436871645</v>
+        <v>-0.01593056761381162</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.004748619368892353</v>
+        <v>-0.0001975881159021155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1114845094073023</v>
+        <v>0.06562937905197809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01958925953740482</v>
+        <v>0.01578221429974067</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02681719599433372</v>
+        <v>-0.009239372769236047</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.020182909614859</v>
+        <v>-0.005621606285553919</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01570222990240195</v>
+        <v>0.001785549896240657</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002726544431973788</v>
+        <v>0.0008648813577844532</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0107069722095169</v>
+        <v>-0.0007955799671717736</v>
       </c>
       <c r="I4" t="n">
-        <v>0.006017648086324877</v>
+        <v>-0.0005664992081853239</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001361716433569723</v>
+        <v>0.001400191670705045</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.002496924300237372</v>
+        <v>-6.644317687217703e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.003752707880180233</v>
+        <v>-0.0009274792257692861</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.001208795803159771</v>
+        <v>-0.0004275884275891513</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001600539268279604</v>
+        <v>0.001263611171887364</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00169413091519531</v>
+        <v>6.026241416304539e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>-5.722797938831266e-05</v>
+        <v>-0.0008361554534361479</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0006156530886119266</v>
+        <v>-0.0004022889070833935</v>
       </c>
       <c r="R4" t="n">
-        <v>0.007175961879663647</v>
+        <v>0.003791943647967813</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001189664679609281</v>
+        <v>0.001776968010899717</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.001189134195509762</v>
+        <v>-0.002379330514947763</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.005327009895703685</v>
+        <v>-0.004631350422865253</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.001105464213559017</v>
+        <v>0.003834618620126951</v>
       </c>
       <c r="W4" t="n">
-        <v>0.00204051763444926</v>
+        <v>0.002867156513228594</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001722869647881231</v>
+        <v>-0.001876383200626422</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.002515271792235963</v>
+        <v>-0.004245639590673127</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.0005583158209069411</v>
+        <v>0.003075454072155908</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.001612926346175666</v>
+        <v>0.002702831106626871</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0005847884270152767</v>
+        <v>-0.001564655213588389</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.002602725298751369</v>
+        <v>-0.003750253182193941</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.0005199130377618377</v>
+        <v>0.002505307966530479</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.002237904575783984</v>
+        <v>0.002513892076585082</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0008244477761652735</v>
+        <v>-0.001304842091936911</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.002500548500666981</v>
+        <v>-0.003315717797287857</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.005361071359106392</v>
+        <v>0.004718014161866457</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.008248659745643188</v>
+        <v>0.008197960628700625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.003318473387698011</v>
+        <v>-0.0001073223783369741</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.003504680853363326</v>
+        <v>-0.001312505303388039</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.001017979754482965</v>
+        <v>-0.002743276860242333</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.004447776925008663</v>
+        <v>0.003999782851116544</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.002416971515470436</v>
+        <v>4.684526510841776e-05</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.002835798883715077</v>
+        <v>-0.001025570833770663</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.000554348595604295</v>
+        <v>-0.002428422404150391</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.004230942785216834</v>
+        <v>0.003208516762059962</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.001606589432616638</v>
+        <v>0.0001927376573176733</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.003726559879107418</v>
+        <v>-0.0009724461825649117</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.001188451337797159</v>
+        <v>-0.002106544029121945</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.00414070058188521</v>
+        <v>0.002666566455859699</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.001710700684317073</v>
+        <v>0.0003365891538883973</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.003795430861495453</v>
+        <v>-0.0008971549210354051</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.01979969148272501</v>
+        <v>-0.01678147192074372</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.0007272646890999498</v>
+        <v>0.007857703156635218</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.006782807860797935</v>
+        <v>0.004644343437735727</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.239495988906084e-05</v>
+        <v>0.001325984094283702</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.01608110750321561</v>
+        <v>-0.01343550117707788</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.00025064950784472</v>
+        <v>0.00661323424038327</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.009967181758112764</v>
+        <v>0.004873589416698514</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0003634164004483043</v>
+        <v>0.001205979491770768</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.01422395599035468</v>
+        <v>-0.01146843802739254</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.0001288277112023088</v>
+        <v>0.005131076481625027</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.01146695600124454</v>
+        <v>0.004721013204699949</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0005523677548277513</v>
+        <v>0.001059465093152431</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.01351795066518778</v>
+        <v>-0.009838301854704074</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.0004833332183095495</v>
+        <v>0.003922202227153015</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.01230140024133032</v>
+        <v>0.004478799350054931</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0008154603967292467</v>
+        <v>0.0009579793867106327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1282084437467351</v>
+        <v>0.1236636004360224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01937494459056332</v>
+        <v>0.02982928242992423</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.03385226466816175</v>
+        <v>-0.02465475142860681</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.0120382405930602</v>
+        <v>-0.02294273566548356</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01004431258020971</v>
+        <v>-0.006344426461563753</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.001266591817901462</v>
+        <v>0.002399751493736823</v>
       </c>
       <c r="H5" t="n">
-        <v>0.003918348904803943</v>
+        <v>0.005451722552352443</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004330906084809051</v>
+        <v>0.001392717993006637</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002933299761564399</v>
+        <v>0.0005037009397317896</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.001298756598214901</v>
+        <v>-0.001641162987433149</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.004522547574274883</v>
+        <v>-0.000350774772153487</v>
       </c>
       <c r="M5" t="n">
-        <v>0.000397200900664976</v>
+        <v>-0.00050282992976954</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00271188465799478</v>
+        <v>0.001059010232575415</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0001786403781707786</v>
+        <v>-0.000294735943990955</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.002688320124674647</v>
+        <v>9.840762944988332e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0008921731948996098</v>
+        <v>-0.0004582504145586542</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01243469385968152</v>
+        <v>0.001373732439476836</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.01627372268505405</v>
+        <v>-0.001326774539222189</v>
       </c>
       <c r="T5" t="n">
-        <v>0.005665401674048906</v>
+        <v>0.003379011519672056</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.000878538275700872</v>
+        <v>-0.004385100559135535</v>
       </c>
       <c r="V5" t="n">
-        <v>0.002527427767085593</v>
+        <v>0.004544042399469995</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.01104101867442577</v>
+        <v>-0.0008053673285191795</v>
       </c>
       <c r="X5" t="n">
-        <v>0.006566928478773137</v>
+        <v>0.0006876833340257496</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001124114679454792</v>
+        <v>-0.004281751675336841</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002180897079665001</v>
+        <v>0.00379417897021544</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.009465704023638454</v>
+        <v>-0.0001949562373101626</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.005074336042742421</v>
+        <v>0.0003685529220700746</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.001959987697842664</v>
+        <v>-0.003473892506312165</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001232728794272126</v>
+        <v>0.003189239873103322</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.007972428331925215</v>
+        <v>-7.894637896427786e-07</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.004361039489495987</v>
+        <v>-3.168200031709594e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.00250385642768086</v>
+        <v>-0.002836127148090738</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.0008426811616689912</v>
+        <v>-0.004987919781083603</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01694432926726265</v>
+        <v>0.01154136884810627</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.00336455499105554</v>
+        <v>0.002439603459288351</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.01057735954514251</v>
+        <v>0.00012346412941872</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0005878197413679856</v>
+        <v>-0.004416792348821306</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.01326459483068297</v>
+        <v>0.004225393130112108</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.0001138466394161219</v>
+        <v>-0.001150626340158909</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.01023080535863551</v>
+        <v>-0.0005100399683192979</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0003786144497762551</v>
+        <v>-0.002619119960727569</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01177304725306701</v>
+        <v>0.004296455775260447</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.0005676858193013263</v>
+        <v>-0.000764317938112168</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.010175160133763</v>
+        <v>-0.0009946378446227823</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0003790750846450185</v>
+        <v>-0.002181301373839534</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.01082418408297739</v>
+        <v>0.003684294129641769</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.0008855416736669651</v>
+        <v>-0.0005477964615731413</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.009763343793266467</v>
+        <v>-0.001126080616922475</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.041691580259388</v>
+        <v>-0.03167056792299831</v>
       </c>
       <c r="AY5" t="n">
-        <v>-0.005250403517809813</v>
+        <v>0.01711445625951758</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-0.01051709033152043</v>
+        <v>0.009139502683776193</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.003253868085004895</v>
+        <v>0.0007300750099431237</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.03319889488589191</v>
+        <v>-0.02593745835854869</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0.007250261059954324</v>
+        <v>0.01576333274560039</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0.01427105087139104</v>
+        <v>0.009610675387705566</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.002726273663077674</v>
+        <v>-0.001432026925058586</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.02821403617615059</v>
+        <v>-0.02217955739687346</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.007135133632384444</v>
+        <v>0.01409849316586966</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0.01559710750411477</v>
+        <v>0.009455370309747956</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.001481723136620931</v>
+        <v>-0.003039852441440729</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.02490481674850203</v>
+        <v>-0.01897860631724848</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.00660268367374716</v>
+        <v>0.01275917359819258</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.01593056761381162</v>
+        <v>0.009061492279878692</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.0001975881159021155</v>
+        <v>-0.004214183390665806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07821463439539741</v>
+        <v>0.08412779828663271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0324029261325355</v>
+        <v>0.006203961940902033</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02189848154247925</v>
+        <v>0.0004082320221576782</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.01053590009239624</v>
+        <v>1.3838998913481e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.01619900997502233</v>
+        <v>-1.624270994966633e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005402263549615025</v>
+        <v>-9.88329697208676e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.008201530035912586</v>
+        <v>-5.360767419672633e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0112063934022368</v>
+        <v>-2.864797374932886e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.005771671490140376</v>
+        <v>-1.527784829919907e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.00150693846699927</v>
+        <v>-8.145246197142551e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.006123038299867572</v>
+        <v>-4.342386489048225e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005431006293075293</v>
+        <v>-2.31499594203486e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.002518996203981649</v>
+        <v>-1.234160497854062e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003770706361748829</v>
+        <v>-6.579501644968804e-08</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.003093745343183535</v>
+        <v>-3.507634645344236e-08</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00421848537489471</v>
+        <v>-1.869974572749121e-08</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0299810241026415</v>
+        <v>0.0004840600491859029</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.006892721261614504</v>
+        <v>-0.0001897055678770525</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.01403108870200275</v>
+        <v>-0.0001347261592295196</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.01437581854804195</v>
+        <v>-7.434460529877321e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>0.003878810439679205</v>
+        <v>-3.982331402500373e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.005418842446831297</v>
+        <v>-2.124461031242011e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0.006411728920580484</v>
+        <v>-1.132689605943622e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.007441921492445332</v>
+        <v>-6.038624236409203e-06</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.002209773722632226</v>
+        <v>-3.219290467021524e-06</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.001298418628380686</v>
+        <v>-1.71625425613932e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.001688112214645529</v>
+        <v>-9.149618648657265e-07</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.005932925248257477</v>
+        <v>-4.877804000597267e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.005338611563469212</v>
+        <v>-2.600433162946212e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0005092607843697933</v>
+        <v>-1.386331355233735e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.001420783760981754</v>
+        <v>-7.390748025060719e-08</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.006884054075089128</v>
+        <v>-3.940122695995116e-08</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.02144058037354417</v>
+        <v>0.001333239763650245</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.01341577799360593</v>
+        <v>0.001446085690746368</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.01133043039189364</v>
+        <v>0.0008260937634566979</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.007225004788451489</v>
+        <v>0.0004445417344290371</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.01997070697797164</v>
+        <v>0.0002373025648251523</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.01745561115159072</v>
+        <v>0.0001265329773901941</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.004309801234658806</v>
+        <v>6.745844500817657e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.007639512989179371</v>
+        <v>3.596327706680299e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.02025639014652501</v>
+        <v>1.917259205525784e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-0.01601982863782794</v>
+        <v>1.022120769016848e-05</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.004912036430377088</v>
+        <v>5.449084811561876e-06</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.007927372324028091</v>
+        <v>2.904991848764975e-06</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.01839310424480534</v>
+        <v>1.548696326605488e-06</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.01587176289514531</v>
+        <v>8.256340934817217e-07</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.005233693075381141</v>
+        <v>4.401583735895668e-07</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.007204826900135724</v>
+        <v>2.346552732861907e-07</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.03652315773760919</v>
+        <v>0.006172734363978373</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.02019347324446199</v>
+        <v>0.00329930030515125</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0117198863819486</v>
+        <v>0.001759547434778917</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0003622065788794666</v>
+        <v>0.0009380900458217676</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.03268725039234715</v>
+        <v>0.0005001139874676644</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.01912988959698931</v>
+        <v>0.0002666188131833584</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.009847109834452359</v>
+        <v>0.0001421386553913194</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.001323758348851361</v>
+        <v>7.577632891956831e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.02963407924393776</v>
+        <v>4.039753935923945e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.01942085895507964</v>
+        <v>2.153655641009807e-05</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.008720996570853906</v>
+        <v>1.148147310960122e-05</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.0004054828402047269</v>
+        <v>6.120951848103264e-06</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.0281029185475924</v>
+        <v>3.263174609120089e-06</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.01933098924675948</v>
+        <v>1.739649125469853e-06</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.007921194718008907</v>
+        <v>9.274339997894505e-07</v>
       </c>
       <c r="BM6" t="n">
-        <v>7.683701087346604e-05</v>
+        <v>4.944294865972659e-07</v>
       </c>
     </row>
     <row r="7">
@@ -1952,2389 +1952,2389 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1005829359025959</v>
+        <v>0.1122565494054445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01555503232065465</v>
+        <v>0.03726717523546181</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02245377163928906</v>
+        <v>-0.02144280942661515</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01579360548718215</v>
+        <v>-0.01482069947909384</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.01071379084797534</v>
+        <v>0.003023883859392077</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004085983993642055</v>
+        <v>0.004758850421448618</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009119498299359857</v>
+        <v>0.0001274381361019887</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002910917174574124</v>
+        <v>-0.001306201948208115</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.002098143852451621</v>
+        <v>-0.0003023426369186933</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001865570136085937</v>
+        <v>0.0003038015106274631</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0001128592289035738</v>
+        <v>0.0001466650491808657</v>
       </c>
       <c r="M8" t="n">
-        <v>3.159574136200987e-05</v>
+        <v>-5.507280461132511e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0005276283580704514</v>
+        <v>-5.229425330962445e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0006391244158082076</v>
+        <v>4.733277936060174e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001100334758174075</v>
+        <v>1.560225023099636e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0002745706744247044</v>
+        <v>1.861694695720674e-06</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01711655836651353</v>
+        <v>0.05216348908556507</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.007010035067536466</v>
+        <v>-0.0279138970677581</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.009813616618015841</v>
+        <v>-0.03458051767740427</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0006720727472194186</v>
+        <v>0.001796324108741598</v>
       </c>
       <c r="V8" t="n">
-        <v>0.006159689229431268</v>
+        <v>0.009620842761655228</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.003408184343117422</v>
+        <v>0.001537672426382054</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0029915420828933</v>
+        <v>-0.002396842212521266</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001146878357434299</v>
+        <v>-0.000915969071864555</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.00606707061585283</v>
+        <v>0.0004828697581106959</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.004264053426154693</v>
+        <v>0.0003551569766701656</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.003470075501529849</v>
+        <v>-6.265002183249197e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.001011841021465518</v>
+        <v>-0.0001121832643032286</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.006149081650651118</v>
+        <v>-5.379023019112358e-06</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.00373174578454892</v>
+        <v>3.029860696928431e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.002990958575079942</v>
+        <v>7.693115175603916e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0007011649047438073</v>
+        <v>-6.90850058100615e-06</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.003257656937886168</v>
+        <v>0.004626734177634565</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001888708649143311</v>
+        <v>0.002370021669335848</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.0006279228610385739</v>
+        <v>-0.0002065694256031503</v>
       </c>
       <c r="AK8" t="n">
-        <v>-7.392415853523864e-05</v>
+        <v>-0.0007539607834892822</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.001666993389159078</v>
+        <v>-7.768444470798398e-05</v>
       </c>
       <c r="AM8" t="n">
-        <v>4.214061797761384e-06</v>
+        <v>0.000191793344417071</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.001241838469564938</v>
+        <v>6.171565103112884e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.0001659970563821797</v>
+        <v>-4.124433624925233e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.001661329260260672</v>
+        <v>-2.565726920397613e-05</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5.530772527404516e-05</v>
+        <v>6.294759086891718e-06</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.0012301042003635</v>
+        <v>8.468102269731223e-06</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.0003089698878424954</v>
+        <v>-3.270613406899263e-08</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001457948734218948</v>
+        <v>-2.37655516897839e-06</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.077891016143641e-05</v>
+        <v>-4.762226261783627e-07</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.001105121100147935</v>
+        <v>5.678727641387455e-07</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0.0002870361811867574</v>
+        <v>2.492541870390451e-07</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.01275471350111195</v>
+        <v>-0.007999946890090273</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.005016914771259346</v>
+        <v>0.00183409493092571</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.002196509703386075</v>
+        <v>-0.001937421376734165</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.002064065167081126</v>
+        <v>-0.0002555272449257606</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.01116502872085612</v>
+        <v>0.0003139068138674365</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.005555110970274411</v>
+        <v>0.0001714573098853367</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.002120812991641754</v>
+        <v>-6.100451800718773e-05</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.002638819070571156</v>
+        <v>-5.867037691459032e-05</v>
       </c>
       <c r="BF8" t="n">
-        <v>-0.01042838381628871</v>
+        <v>4.698105447637473e-06</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.005628337222494595</v>
+        <v>1.746593568200542e-05</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.001650282933506792</v>
+        <v>2.233103111415096e-06</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.002864023100651612</v>
+        <v>-4.427931835800668e-06</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-0.009954954042735421</v>
+        <v>-1.530204766027129e-06</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.005586664359828655</v>
+        <v>9.26938824683179e-07</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.001158293888980956</v>
+        <v>6.175189027233771e-07</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.003043442298726664</v>
+        <v>-1.332983088139809e-07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>CostaRica</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06562937905197809</v>
+        <v>0.1248442358971953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01578221429974067</v>
+        <v>-0.05340630531101232</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.009239372769236047</v>
+        <v>0.004302342834145296</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.005621606285553919</v>
+        <v>-0.002951974684767507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001785549896240657</v>
+        <v>0.008182598259173328</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0008648813577844532</v>
+        <v>-0.006462604375590662</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0007955799671717736</v>
+        <v>0.00413026027797365</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.0005664992081853239</v>
+        <v>-0.002393104733588149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001400191670705045</v>
+        <v>0.001055904890954199</v>
       </c>
       <c r="K9" t="n">
-        <v>-6.644317687217703e-06</v>
+        <v>-0.001370270013624227</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0009274792257692861</v>
+        <v>0.002211267235732406</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0004275884275891513</v>
+        <v>-0.001539792013849544</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001263611171887364</v>
+        <v>0.0002894708219129475</v>
       </c>
       <c r="O9" t="n">
-        <v>6.026241416304539e-05</v>
+        <v>-0.0004064808622282752</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0008361554534361479</v>
+        <v>0.001212335239762826</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0004022889070833935</v>
+        <v>-0.0009672288113701462</v>
       </c>
       <c r="R9" t="n">
-        <v>0.003791943647967813</v>
+        <v>0.002314478999525158</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001776968010899717</v>
+        <v>0.009773303591912561</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.002379330514947763</v>
+        <v>-0.004877060844487468</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.004631350422865253</v>
+        <v>-0.01834772993501008</v>
       </c>
       <c r="V9" t="n">
-        <v>0.003834618620126951</v>
+        <v>0.01887121863079749</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002867156513228594</v>
+        <v>0.003443334040481516</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.001876383200626422</v>
+        <v>-0.006845175877429639</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.004245639590673127</v>
+        <v>-0.01066025886012087</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.003075454072155908</v>
+        <v>0.01404821262382947</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.002702831106626871</v>
+        <v>0.001396137848789854</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.001564655213588389</v>
+        <v>-0.006329595531677059</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.003750253182193941</v>
+        <v>-0.005293767730016266</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.002505307966530479</v>
+        <v>0.009643046243273425</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.002513892076585082</v>
+        <v>0.0002551324665136858</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.001304842091936911</v>
+        <v>-0.005133170147841207</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.003315717797287857</v>
+        <v>-0.002258105518544426</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.004718014161866457</v>
+        <v>0.001787083940086885</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.008197960628700625</v>
+        <v>-0.001357666789236257</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.0001073223783369741</v>
+        <v>0.002151331017486757</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.001312505303388039</v>
+        <v>-0.002306405533813061</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.002743276860242333</v>
+        <v>0.001023852105787308</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.003999782851116544</v>
+        <v>-0.0003628273986325139</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.684526510841776e-05</v>
+        <v>0.001201385908239753</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.001025570833770663</v>
+        <v>-0.001540650696480166</v>
       </c>
       <c r="AP9" t="n">
-        <v>-0.002428422404150391</v>
+        <v>0.0006128326607787824</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.003208516762059962</v>
+        <v>-2.632881979497078e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0001927376573176733</v>
+        <v>0.0005736168742194995</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.0009724461825649117</v>
+        <v>-0.0009421188735487885</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.002106544029121945</v>
+        <v>0.0003816985094353108</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.002666566455859699</v>
+        <v>8.622515142265719e-05</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0003365891538883973</v>
+        <v>0.0002435331278619704</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.0008971549210354051</v>
+        <v>-0.0005722673771567904</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.01678147192074372</v>
+        <v>0.0224307203997493</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.007857703156635218</v>
+        <v>-0.005596904007165447</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.004644343437735727</v>
+        <v>-0.00594058208452471</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.001325984094283702</v>
+        <v>0.0006788834975270644</v>
       </c>
       <c r="BB9" t="n">
-        <v>-0.01343550117707788</v>
+        <v>0.01249185427805109</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.00661323424038327</v>
+        <v>-0.005520780422626642</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.004873589416698514</v>
+        <v>-0.004987662642736486</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.001205979491770768</v>
+        <v>0.001781960890351272</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.01146843802739254</v>
+        <v>0.00735387506848069</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.005131076481625027</v>
+        <v>-0.004490518653455037</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.004721013204699949</v>
+        <v>-0.003405978387868856</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.001059465093152431</v>
+        <v>0.002170324965207918</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-0.009838301854704074</v>
+        <v>0.0043099573420854</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.003922202227153015</v>
+        <v>-0.003473989817821291</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.004478799350054931</v>
+        <v>-0.002118104868023506</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.0009579793867106327</v>
+        <v>0.002067762435924815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>CostaRica</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1248442358971953</v>
+        <v>0.1114845094073023</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.05340630531101232</v>
+        <v>0.01958925953740482</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004302342834145296</v>
+        <v>-0.02681719599433372</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.002951974684767507</v>
+        <v>-0.020182909614859</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008182598259173328</v>
+        <v>-0.01570222990240195</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.006462604375590662</v>
+        <v>0.002726544431973788</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00413026027797365</v>
+        <v>0.0107069722095169</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.002393104733588149</v>
+        <v>0.006017648086324877</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001055904890954199</v>
+        <v>0.001361716433569723</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.001370270013624227</v>
+        <v>-0.002496924300237372</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002211267235732406</v>
+        <v>-0.003752707880180233</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.001539792013849544</v>
+        <v>-0.001208795803159771</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0002894708219129475</v>
+        <v>0.001600539268279604</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0004064808622282752</v>
+        <v>0.00169413091519531</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001212335239762826</v>
+        <v>-5.722797938831266e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0009672288113701462</v>
+        <v>-0.0006156530886119266</v>
       </c>
       <c r="R10" t="n">
-        <v>0.002314478999525158</v>
+        <v>0.007175961879663647</v>
       </c>
       <c r="S10" t="n">
-        <v>0.009773303591912561</v>
+        <v>0.0001189664679609281</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.004877060844487468</v>
+        <v>-0.001189134195509762</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.01834772993501008</v>
+        <v>-0.005327009895703685</v>
       </c>
       <c r="V10" t="n">
-        <v>0.01887121863079749</v>
+        <v>-0.001105464213559017</v>
       </c>
       <c r="W10" t="n">
-        <v>0.003443334040481516</v>
+        <v>0.00204051763444926</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.006845175877429639</v>
+        <v>0.001722869647881231</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.01066025886012087</v>
+        <v>-0.002515271792235963</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01404821262382947</v>
+        <v>-0.0005583158209069411</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001396137848789854</v>
+        <v>0.001612926346175666</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.006329595531677059</v>
+        <v>0.0005847884270152767</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.005293767730016266</v>
+        <v>-0.002602725298751369</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.009643046243273425</v>
+        <v>-0.0005199130377618377</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0002551324665136858</v>
+        <v>0.002237904575783984</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.005133170147841207</v>
+        <v>0.0008244477761652735</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.002258105518544426</v>
+        <v>-0.002500548500666981</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.001787083940086885</v>
+        <v>0.005361071359106392</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.001357666789236257</v>
+        <v>0.008248659745643188</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.002151331017486757</v>
+        <v>0.003318473387698011</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.002306405533813061</v>
+        <v>-0.003504680853363326</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001023852105787308</v>
+        <v>-0.001017979754482965</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.0003628273986325139</v>
+        <v>0.004447776925008663</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.001201385908239753</v>
+        <v>0.002416971515470436</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.001540650696480166</v>
+        <v>-0.002835798883715077</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0006128326607787824</v>
+        <v>-0.000554348595604295</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-2.632881979497078e-05</v>
+        <v>0.004230942785216834</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0005736168742194995</v>
+        <v>0.001606589432616638</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.0009421188735487885</v>
+        <v>-0.003726559879107418</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0003816985094353108</v>
+        <v>-0.001188451337797159</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.622515142265719e-05</v>
+        <v>0.00414070058188521</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0002435331278619704</v>
+        <v>0.001710700684317073</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.0005722673771567904</v>
+        <v>-0.003795430861495453</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.0224307203997493</v>
+        <v>-0.01979969148272501</v>
       </c>
       <c r="AY10" t="n">
-        <v>-0.005596904007165447</v>
+        <v>0.0007272646890999498</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0.00594058208452471</v>
+        <v>0.006782807860797935</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.0006788834975270644</v>
+        <v>1.239495988906084e-05</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.01249185427805109</v>
+        <v>-0.01608110750321561</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.005520780422626642</v>
+        <v>0.00025064950784472</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0.004987662642736486</v>
+        <v>0.009967181758112764</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.001781960890351272</v>
+        <v>0.0003634164004483043</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.00735387506848069</v>
+        <v>-0.01422395599035468</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.004490518653455037</v>
+        <v>-0.0001288277112023088</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0.003405978387868856</v>
+        <v>0.01146695600124454</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.002170324965207918</v>
+        <v>0.0005523677548277513</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0043099573420854</v>
+        <v>-0.01351795066518778</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.003473989817821291</v>
+        <v>-0.0004833332183095495</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.002118104868023506</v>
+        <v>0.01230140024133032</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.002067762435924815</v>
+        <v>0.0008154603967292467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1201374944014003</v>
+        <v>0.07821463439539741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01624618604089774</v>
+        <v>0.0324029261325355</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02851320849512745</v>
+        <v>-0.02189848154247925</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01440841423213951</v>
+        <v>-0.01053590009239624</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.005977824720501138</v>
+        <v>-0.01619900997502233</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002501354195276647</v>
+        <v>0.005402263549615025</v>
       </c>
       <c r="H11" t="n">
-        <v>0.004257906058907636</v>
+        <v>0.008201530035912586</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001073797310186673</v>
+        <v>0.0112063934022368</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001079925207997208</v>
+        <v>-0.005771671490140376</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0003345230584816239</v>
+        <v>-0.00150693846699927</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.001989739787553721</v>
+        <v>-0.006123038299867572</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0007921907379329464</v>
+        <v>0.005431006293075293</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001643445383001929</v>
+        <v>-0.002518996203981649</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0008153042523850248</v>
+        <v>0.003770706361748829</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.001263396867393541</v>
+        <v>-0.003093745343183535</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0007183970545172103</v>
+        <v>0.00421848537489471</v>
       </c>
       <c r="R11" t="n">
-        <v>0.003445934511903753</v>
+        <v>0.0299810241026415</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0006840434124073621</v>
+        <v>-0.006892721261614504</v>
       </c>
       <c r="T11" t="n">
-        <v>0.004473656102066033</v>
+        <v>-0.01403108870200275</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.008874856865760188</v>
+        <v>-0.01437581854804195</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0008459582518648423</v>
+        <v>0.003878810439679205</v>
       </c>
       <c r="W11" t="n">
-        <v>0.004494565983659266</v>
+        <v>0.005418842446831297</v>
       </c>
       <c r="X11" t="n">
-        <v>0.002603758373585953</v>
+        <v>0.006411728920580484</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.006720007783778828</v>
+        <v>-0.007441921492445332</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.000263703716699682</v>
+        <v>0.002209773722632226</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.004720963891778226</v>
+        <v>-0.001298418628380686</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.001588616283726303</v>
+        <v>0.001688112214645529</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.005795064044102124</v>
+        <v>-0.005932925248257477</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.0005425102606134274</v>
+        <v>0.005338611563469212</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.004926986096208777</v>
+        <v>0.0005092607843697933</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.001094086627531794</v>
+        <v>0.001420783760981754</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.005314340038960817</v>
+        <v>-0.006884054075089128</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.000428933393744838</v>
+        <v>0.02144058037354417</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.01289928940717105</v>
+        <v>-0.01341577799360593</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.005435314784045745</v>
+        <v>0.01133043039189364</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.003742487789563279</v>
+        <v>-0.007225004788451489</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.0007522338058577843</v>
+        <v>0.01997070697797164</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.006824024275918611</v>
+        <v>-0.01745561115159072</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.001550566297910067</v>
+        <v>0.004309801234658806</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.004938414111805011</v>
+        <v>-0.007639512989179371</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.0008508778597000293</v>
+        <v>0.02025639014652501</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.00608973732646415</v>
+        <v>-0.01601982863782794</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.001160717297648144</v>
+        <v>0.004912036430377088</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.005300970744525632</v>
+        <v>-0.007927372324028091</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.0009738913643536088</v>
+        <v>0.01839310424480534</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.00552882585828664</v>
+        <v>-0.01587176289514531</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.0009269769236143479</v>
+        <v>0.005233693075381141</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.005186950044610627</v>
+        <v>-0.007204826900135724</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.03656083327865135</v>
+        <v>-0.03652315773760919</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.003620718176743087</v>
+        <v>0.02019347324446199</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.01362247027998238</v>
+        <v>0.0117198863819486</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.000312091818777486</v>
+        <v>0.0003622065788794666</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.02674274427936797</v>
+        <v>-0.03268725039234715</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.003306119832932498</v>
+        <v>0.01912988959698931</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.01789940228896743</v>
+        <v>0.009847109834452359</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.0007909703896688162</v>
+        <v>0.001323758348851361</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0.02246649961692324</v>
+        <v>-0.02963407924393776</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.002975832219089229</v>
+        <v>0.01942085895507964</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.01877745529433595</v>
+        <v>0.008720996570853906</v>
       </c>
       <c r="BI11" t="n">
-        <v>-0.00170134662889149</v>
+        <v>0.0004054828402047269</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.02025606406676134</v>
+        <v>-0.0281029185475924</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.002862521049786874</v>
+        <v>0.01933098924675948</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.01850883041745632</v>
+        <v>0.007921194718008907</v>
       </c>
       <c r="BM11" t="n">
-        <v>-0.002311380046451804</v>
+        <v>7.683701087346604e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NewZealand</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05256952307929543</v>
+        <v>0.1201374944014003</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01496841874539185</v>
+        <v>0.01624618604089774</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.009715080428997668</v>
+        <v>-0.02851320849512745</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.0066418443949484</v>
+        <v>-0.01440841423213951</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0004913403774513323</v>
+        <v>-0.005977824720501138</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001818736662241105</v>
+        <v>0.002501354195276647</v>
       </c>
       <c r="H12" t="n">
-        <v>0.000436615840412976</v>
+        <v>0.004257906058907636</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0003233022277292982</v>
+        <v>0.001073797310186673</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0002121775290447587</v>
+        <v>0.001079925207997208</v>
       </c>
       <c r="K12" t="n">
-        <v>1.546284924021184e-05</v>
+        <v>-0.0003345230584816239</v>
       </c>
       <c r="L12" t="n">
-        <v>5.895905685665595e-05</v>
+        <v>-0.001989739787553721</v>
       </c>
       <c r="M12" t="n">
-        <v>1.461107786306224e-05</v>
+        <v>-0.0007921907379329464</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.04616255255644e-05</v>
+        <v>0.001643445383001929</v>
       </c>
       <c r="O12" t="n">
-        <v>-7.018811391197836e-06</v>
+        <v>0.0008153042523850248</v>
       </c>
       <c r="P12" t="n">
-        <v>4.677818813050467e-07</v>
+        <v>-0.001263396867393541</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.939036024625006e-06</v>
+        <v>-0.0007183970545172103</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01121702738571454</v>
+        <v>0.003445934511903753</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.006113627701764361</v>
+        <v>-0.0006840434124073621</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.007695465416519777</v>
+        <v>0.004473656102066033</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0003802060196091363</v>
+        <v>-0.008874856865760188</v>
       </c>
       <c r="V12" t="n">
-        <v>0.002330905201710854</v>
+        <v>0.0008459582518648423</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0004837135169711796</v>
+        <v>0.004494565983659266</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.0004614196045211812</v>
+        <v>0.002603758373585953</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.0002505829067965772</v>
+        <v>-0.006720007783778828</v>
       </c>
       <c r="Z12" t="n">
-        <v>4.009535899534814e-05</v>
+        <v>-0.000263703716699682</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.45390181096485e-05</v>
+        <v>0.004720963891778226</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.317182970189058e-05</v>
+        <v>0.001588616283726303</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.467250853232712e-05</v>
+        <v>-0.005795064044102124</v>
       </c>
       <c r="AD12" t="n">
-        <v>-7.981349729419007e-06</v>
+        <v>-0.0005425102606134274</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.217085615958018e-06</v>
+        <v>0.004926986096208777</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.422200231353074e-06</v>
+        <v>0.001094086627531794</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.518712111450189e-07</v>
+        <v>-0.005314340038960817</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.001614913712371265</v>
+        <v>-0.000428933393744838</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.002194431755837702</v>
+        <v>0.01289928940717105</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.0002734016369966147</v>
+        <v>0.005435314784045745</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.000799027735579298</v>
+        <v>-0.003742487789563279</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.0001112818544559942</v>
+        <v>-0.0007522338058577843</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.0001817379221016016</v>
+        <v>0.006824024275918611</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.700575731044351e-05</v>
+        <v>0.001550566297910067</v>
       </c>
       <c r="AO12" t="n">
-        <v>-2.311965848710514e-05</v>
+        <v>-0.004938414111805011</v>
       </c>
       <c r="AP12" t="n">
-        <v>-2.592902945120179e-05</v>
+        <v>-0.0008508778597000293</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-2.195538328928814e-06</v>
+        <v>0.00608973732646415</v>
       </c>
       <c r="AR12" t="n">
-        <v>5.818813870563539e-06</v>
+        <v>0.001160717297648144</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.388641036425902e-06</v>
+        <v>-0.005300970744525632</v>
       </c>
       <c r="AT12" t="n">
-        <v>-7.235968605543228e-07</v>
+        <v>-0.0009738913643536088</v>
       </c>
       <c r="AU12" t="n">
-        <v>-8.377381798553856e-07</v>
+        <v>0.00552882585828664</v>
       </c>
       <c r="AV12" t="n">
-        <v>-7.947246569903488e-08</v>
+        <v>0.0009269769236143479</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.89073829369893e-07</v>
+        <v>-0.005186950044610627</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.01198669881762288</v>
+        <v>-0.03656083327865135</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.0005586280757618001</v>
+        <v>0.003620718176743087</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.0005539110711255289</v>
+        <v>0.01362247027998238</v>
       </c>
       <c r="BA12" t="n">
-        <v>-0.0002847916442406274</v>
+        <v>0.000312091818777486</v>
       </c>
       <c r="BB12" t="n">
-        <v>8.335579699091228e-05</v>
+        <v>-0.02674274427936797</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.0001149365417884598</v>
+        <v>0.003306119832932498</v>
       </c>
       <c r="BD12" t="n">
-        <v>-2.076154584603074e-05</v>
+        <v>0.01789940228896743</v>
       </c>
       <c r="BE12" t="n">
-        <v>-3.550536394406773e-05</v>
+        <v>-0.0007909703896688162</v>
       </c>
       <c r="BF12" t="n">
-        <v>-1.947810207449096e-06</v>
+        <v>-0.02246649961692324</v>
       </c>
       <c r="BG12" t="n">
-        <v>8.181038425129247e-06</v>
+        <v>0.002975832219089229</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.651687324462736e-06</v>
+        <v>0.01877745529433595</v>
       </c>
       <c r="BI12" t="n">
-        <v>-1.201659352556539e-06</v>
+        <v>-0.00170134662889149</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-1.011720132832226e-06</v>
+        <v>-0.02025606406676134</v>
       </c>
       <c r="BK12" t="n">
-        <v>-1.928422895005216e-08</v>
+        <v>0.002862521049786874</v>
       </c>
       <c r="BL12" t="n">
-        <v>2.480460832456869e-07</v>
+        <v>0.01850883041745632</v>
       </c>
       <c r="BM12" t="n">
-        <v>8.394872671366621e-08</v>
+        <v>-0.002311380046451804</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0800849089710602</v>
+        <v>0.1441925163362647</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02049750097137827</v>
+        <v>0.02322995016426798</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001392818018163966</v>
+        <v>-0.04648786955938333</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01104359493790517</v>
+        <v>-0.01333724049636174</v>
       </c>
       <c r="F13" t="n">
-        <v>6.577057204368273e-05</v>
+        <v>-0.0003703326619690489</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004334443218148765</v>
+        <v>-0.008826917814218361</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003321949537820934</v>
+        <v>0.002905272145089466</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0007721055332187038</v>
+        <v>0.005719693535555975</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0002710481901137943</v>
+        <v>0.007281555080723938</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001285570352539432</v>
+        <v>-0.003539287716440728</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004125706790729548</v>
+        <v>-0.00381286097615667</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0004722271746882209</v>
+        <v>-0.001874225371966854</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0003245481786572173</v>
+        <v>0.004299069524817241</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0009839031545346368</v>
+        <v>-0.001154167430329812</v>
       </c>
       <c r="P13" t="n">
-        <v>7.318130400827274e-05</v>
+        <v>-0.0004563782623658965</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.000299004733880447</v>
+        <v>-0.001046833875624656</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03229289491878043</v>
+        <v>0.005077326730562156</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.003984354279537212</v>
+        <v>-0.01037152412781794</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.005623448102711605</v>
+        <v>-0.001523450543296867</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.009031817094128194</v>
+        <v>-0.006117077008072608</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.002255908968536659</v>
+        <v>0.02237847514862682</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.004544963111764132</v>
+        <v>-0.001743595335076124</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.0001831772385121752</v>
+        <v>-0.003091149507471459</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.0009118766221699844</v>
+        <v>-0.009290965677227753</v>
       </c>
       <c r="Z13" t="n">
-        <v>4.74064924806694e-05</v>
+        <v>0.01145305563258934</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.003382124547357783</v>
+        <v>-0.003278795637371457</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.0004127823349160815</v>
+        <v>0.001509149307104718</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.0004418321659074246</v>
+        <v>-0.006452945183464369</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001086780673311214</v>
+        <v>0.007849489950726414</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.002036073167016101</v>
+        <v>-0.003313659958988205</v>
       </c>
       <c r="AF13" t="n">
-        <v>-8.999211361345868e-05</v>
+        <v>0.002343552756573528</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.0005287323384353288</v>
+        <v>-0.005427886547398481</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0124283093921153</v>
+        <v>0.0007080359566224539</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.001418158724264713</v>
+        <v>0.007922147948746249</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0005394420252026817</v>
+        <v>0.002114965593483649</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.003070465034918139</v>
+        <v>-0.00213208949757084</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.01230907816049441</v>
+        <v>-0.005702870338771252</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.001214137968316361</v>
+        <v>0.002652645041534228</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0006954154149000798</v>
+        <v>0.001551573186887318</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.005818009565030829</v>
+        <v>0.0006174573485359754</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.008654414569338268</v>
+        <v>-0.002798506052677924</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.001231972637271111</v>
+        <v>0.001767161753045131</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.001856406486728623</v>
+        <v>0.0001501254664685066</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.006125087744276793</v>
+        <v>0.0005628185368172532</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.006261740032125075</v>
+        <v>-0.001999868696641588</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.001477484656942826</v>
+        <v>0.001229872572606048</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.002687287380106354</v>
+        <v>-0.0001544786633285754</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.005735944383754998</v>
+        <v>0.000754334626293878</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.03996281084950496</v>
+        <v>-0.01894598096702113</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.003574519183770023</v>
+        <v>0.002564647378749539</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.002255009542441989</v>
+        <v>-0.0008165007061821364</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.01067779366606057</v>
+        <v>0.004444239268445193</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.02585354081152401</v>
+        <v>-0.009679728205616885</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.003137549310304293</v>
+        <v>0.003832924264335044</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.0007482171399481542</v>
+        <v>-0.001681483336539825</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0133242709770231</v>
+        <v>0.004432763344568579</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.0184811998849945</v>
+        <v>-0.006597356071904276</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.002960851601958382</v>
+        <v>0.003365249693006239</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0.003461092038109556</v>
+        <v>-0.002188342183453861</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.01360742985435924</v>
+        <v>0.004011731550489647</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.0135591744647527</v>
+        <v>-0.004683729720975812</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.003190458355351566</v>
+        <v>0.002945469271487499</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.005533049742910166</v>
+        <v>-0.002387049129027134</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.01264045896295694</v>
+        <v>0.003368534012087099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SouthAfrica</t>
+          <t>NewZealand</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07899288534864324</v>
+        <v>0.05256952307929543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02075591533907071</v>
+        <v>0.01496841874539185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.005507411846110722</v>
+        <v>-0.009715080428997668</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001488552793917891</v>
+        <v>-0.0066418443949484</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004159894992588411</v>
+        <v>0.0004913403774513323</v>
       </c>
       <c r="G14" t="n">
-        <v>0.000122986084646586</v>
+        <v>0.001818736662241105</v>
       </c>
       <c r="H14" t="n">
-        <v>3.957099540922509e-05</v>
+        <v>0.000436615840412976</v>
       </c>
       <c r="I14" t="n">
-        <v>1.417886794181181e-05</v>
+        <v>-0.0003233022277292982</v>
       </c>
       <c r="J14" t="n">
-        <v>5.679613382833615e-06</v>
+        <v>-0.0002121775290447587</v>
       </c>
       <c r="K14" t="n">
-        <v>2.497849524268242e-06</v>
+        <v>1.546284924021184e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>1.17263176808191e-06</v>
+        <v>5.895905685665595e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>5.729472081690092e-07</v>
+        <v>1.461107786306224e-05</v>
       </c>
       <c r="N14" t="n">
-        <v>2.86312411912069e-07</v>
+        <v>-1.04616255255644e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.448128648752119e-07</v>
+        <v>-7.018811391197836e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>7.370751964945271e-08</v>
+        <v>4.677818813050467e-07</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.763800193911678e-08</v>
+        <v>1.939036024625006e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>0.0003824588139998825</v>
+        <v>0.01121702738571454</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.705821986987309e-05</v>
+        <v>-0.006113627701764361</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.000118200750341688</v>
+        <v>-0.007695465416519777</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.969966870488667e-05</v>
+        <v>0.0003802060196091363</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.581200830279244e-05</v>
+        <v>0.002330905201710854</v>
       </c>
       <c r="W14" t="n">
-        <v>-2.476668464582382e-05</v>
+        <v>0.0004837135169711796</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.302617510210955e-05</v>
+        <v>-0.0004614196045211812</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.761708293020454e-06</v>
+        <v>-0.0002505829067965772</v>
       </c>
       <c r="Z14" t="n">
-        <v>-3.487242647254887e-06</v>
+        <v>4.009535899534814e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>-1.792671507668206e-06</v>
+        <v>7.45390181096485e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>-9.200477556964446e-07</v>
+        <v>1.317182970189058e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>-4.718039754875269e-07</v>
+        <v>-1.467250853232712e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>-2.418417399102166e-07</v>
+        <v>-7.981349729419007e-06</v>
       </c>
       <c r="AE14" t="n">
-        <v>-1.239392500425237e-07</v>
+        <v>1.217085615958018e-06</v>
       </c>
       <c r="AF14" t="n">
-        <v>-6.35096575946915e-08</v>
+        <v>2.422200231353074e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>-3.254220560376549e-08</v>
+        <v>4.518712111450189e-07</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0015015586306815</v>
+        <v>0.001614913712371265</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.002273861694378136</v>
+        <v>0.002194431755837702</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.001556282220765062</v>
+        <v>-0.0002734016369966147</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.0008991234013316408</v>
+        <v>-0.000799027735579298</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.0004871370401349494</v>
+        <v>-0.0001112818544559942</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0002564729080564629</v>
+        <v>0.0001817379221016016</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.0001331975428530107</v>
+        <v>7.700575731044351e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.871143358854761e-05</v>
+        <v>-2.311965848710514e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.532656011282593e-05</v>
+        <v>-2.592902945120179e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.813168506579894e-05</v>
+        <v>-2.195538328928814e-06</v>
       </c>
       <c r="AR14" t="n">
-        <v>9.298291191024399e-06</v>
+        <v>5.818813870563539e-06</v>
       </c>
       <c r="AS14" t="n">
-        <v>4.766282444779304e-06</v>
+        <v>2.388641036425902e-06</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.442648154090622e-06</v>
+        <v>-7.235968605543228e-07</v>
       </c>
       <c r="AU14" t="n">
-        <v>1.251680871159788e-06</v>
+        <v>-8.377381798553856e-07</v>
       </c>
       <c r="AV14" t="n">
-        <v>6.413598049262689e-07</v>
+        <v>-7.947246569903488e-08</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.286225717448114e-07</v>
+        <v>1.89073829369893e-07</v>
       </c>
       <c r="AX14" t="n">
-        <v>-0.006561960916639166</v>
+        <v>-0.01198669881762288</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.003340549879133267</v>
+        <v>0.0005586280757618001</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-0.001705978521162479</v>
+        <v>0.0005539110711255289</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.0008726301872818239</v>
+        <v>-0.0002847916442406274</v>
       </c>
       <c r="BB14" t="n">
-        <v>-0.0004467288978090203</v>
+        <v>8.335579699091228e-05</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0.0002287912760983999</v>
+        <v>0.0001149365417884598</v>
       </c>
       <c r="BD14" t="n">
-        <v>-0.0001171998695303381</v>
+        <v>-2.076154584603074e-05</v>
       </c>
       <c r="BE14" t="n">
-        <v>-6.004289711337722e-05</v>
+        <v>-3.550536394406773e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>-3.076237979105877e-05</v>
+        <v>-1.947810207449096e-06</v>
       </c>
       <c r="BG14" t="n">
-        <v>-1.576123666395073e-05</v>
+        <v>8.181038425129247e-06</v>
       </c>
       <c r="BH14" t="n">
-        <v>-8.075450828389063e-06</v>
+        <v>2.651687324462736e-06</v>
       </c>
       <c r="BI14" t="n">
-        <v>-4.137579705831596e-06</v>
+        <v>-1.201659352556539e-06</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-2.119959416508298e-06</v>
+        <v>-1.011720132832226e-06</v>
       </c>
       <c r="BK14" t="n">
-        <v>-1.086199308503384e-06</v>
+        <v>-1.928422895005216e-08</v>
       </c>
       <c r="BL14" t="n">
-        <v>-5.565342585390808e-07</v>
+        <v>2.480460832456869e-07</v>
       </c>
       <c r="BM14" t="n">
-        <v>-2.851507321178477e-07</v>
+        <v>8.394872671366621e-08</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0417294442412436</v>
+        <v>0.0800849089710602</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01601217604766784</v>
+        <v>0.02049750097137827</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.008407438953215671</v>
+        <v>0.001392818018163966</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.011024831166698</v>
+        <v>-0.01104359493790517</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01059707396081049</v>
+        <v>6.577057204368273e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007310054422124445</v>
+        <v>0.004334443218148765</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0115906947291598</v>
+        <v>0.003321949537820934</v>
       </c>
       <c r="I15" t="n">
-        <v>0.008119151620996246</v>
+        <v>0.0007721055332187038</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.005808894108017438</v>
+        <v>-0.0002710481901137943</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.004926790870278034</v>
+        <v>0.001285570352539432</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.001689170988597885</v>
+        <v>0.0004125706790729548</v>
       </c>
       <c r="M15" t="n">
-        <v>0.004972550436056862</v>
+        <v>0.0004722271746882209</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0007964113868709984</v>
+        <v>-0.0003245481786572173</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001715560396702133</v>
+        <v>0.0009839031545346368</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.0007826689769315416</v>
+        <v>7.318130400827274e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0006395877533324196</v>
+        <v>0.000299004733880447</v>
       </c>
       <c r="R15" t="n">
-        <v>0.03319809980602154</v>
+        <v>0.03229289491878043</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.006503292842710446</v>
+        <v>-0.003984354279537212</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.01592272350721594</v>
+        <v>-0.005623448102711605</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.01251577348513899</v>
+        <v>-0.009031817094128194</v>
       </c>
       <c r="V15" t="n">
-        <v>0.004657098838741231</v>
+        <v>-0.002255908968536659</v>
       </c>
       <c r="W15" t="n">
-        <v>0.002099629628778102</v>
+        <v>-0.004544963111764132</v>
       </c>
       <c r="X15" t="n">
-        <v>0.003891134685380071</v>
+        <v>-0.0001831772385121752</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.001644353216194551</v>
+        <v>-0.0009118766221699844</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.001708682165038513</v>
+        <v>4.74064924806694e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.007042714135005325</v>
+        <v>-0.003382124547357783</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.001778729044693962</v>
+        <v>-0.0004127823349160815</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.000699938568437374</v>
+        <v>-0.0004418321659074246</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.006980285632725981</v>
+        <v>0.001086780673311214</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.00287018826762397</v>
+        <v>-0.002036073167016101</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0.002570073798312589</v>
+        <v>-8.999211361345868e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.002387021028234275</v>
+        <v>-0.0005287323384353288</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.01616660832200222</v>
+        <v>0.0124283093921153</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.005537759155382177</v>
+        <v>-0.001418158724264713</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.001289149212697557</v>
+        <v>0.0005394420252026817</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.005924618960355003</v>
+        <v>-0.003070465034918139</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.01069871467077213</v>
+        <v>0.01230907816049441</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.001869009201842722</v>
+        <v>-0.001214137968316361</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0003380605117455362</v>
+        <v>0.0006954154149000798</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.00493598499440758</v>
+        <v>-0.005818009565030829</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.008928242043822839</v>
+        <v>0.008654414569338268</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.0006264110517819956</v>
+        <v>-0.001231972637271111</v>
       </c>
       <c r="AR15" t="n">
-        <v>-0.0009603084797442283</v>
+        <v>0.001856406486728623</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.005315984543440508</v>
+        <v>-0.006125087744276793</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.007466683489096328</v>
+        <v>0.006261740032125075</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0007168348179739998</v>
+        <v>-0.001477484656942826</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.0008034485678239668</v>
+        <v>0.002687287380106354</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.005081757511170377</v>
+        <v>-0.005735944383754998</v>
       </c>
       <c r="AX15" t="n">
-        <v>-0.02183477967291648</v>
+        <v>-0.03996281084950496</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.009064088556015508</v>
+        <v>0.003574519183770023</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.003283560257875945</v>
+        <v>0.002255009542441989</v>
       </c>
       <c r="BA15" t="n">
-        <v>-0.001009000771783095</v>
+        <v>0.01067779366606057</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.01846591560429401</v>
+        <v>-0.02585354081152401</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.008236838205516099</v>
+        <v>0.003137549310304293</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.004531493973005172</v>
+        <v>-0.0007482171399481542</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.001122093837900174</v>
+        <v>0.0133242709770231</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.01543869794625716</v>
+        <v>-0.0184811998849945</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.006933360787992341</v>
+        <v>0.002960851601958382</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.003896403114166584</v>
+        <v>-0.003461092038109556</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.001517175708109497</v>
+        <v>0.01360742985435924</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.01292986484440024</v>
+        <v>-0.0135591744647527</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.006307194406259629</v>
+        <v>0.003190458355351566</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.003622631600891606</v>
+        <v>-0.005533049742910166</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.001557438763525951</v>
+        <v>0.01264045896295694</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1236636004360224</v>
+        <v>0.1005829359025959</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02982928242992423</v>
+        <v>0.01555503232065465</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02465475142860681</v>
+        <v>-0.02245377163928906</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02294273566548356</v>
+        <v>-0.01579360548718215</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.006344426461563753</v>
+        <v>-0.01071379084797534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002399751493736823</v>
+        <v>0.004085983993642055</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005451722552352443</v>
+        <v>0.009119498299359857</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001392717993006637</v>
+        <v>0.002910917174574124</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0005037009397317896</v>
+        <v>-0.002098143852451621</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.001641162987433149</v>
+        <v>-0.001865570136085937</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.000350774772153487</v>
+        <v>-0.0001128592289035738</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.00050282992976954</v>
+        <v>3.159574136200987e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>0.001059010232575415</v>
+        <v>-0.0005276283580704514</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.000294735943990955</v>
+        <v>0.0006391244158082076</v>
       </c>
       <c r="P16" t="n">
-        <v>9.840762944988332e-05</v>
+        <v>0.001100334758174075</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.0004582504145586542</v>
+        <v>-0.0002745706744247044</v>
       </c>
       <c r="R16" t="n">
-        <v>0.001373732439476836</v>
+        <v>0.01711655836651353</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.001326774539222189</v>
+        <v>-0.007010035067536466</v>
       </c>
       <c r="T16" t="n">
-        <v>0.003379011519672056</v>
+        <v>-0.009813616618015841</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.004385100559135535</v>
+        <v>-0.0006720727472194186</v>
       </c>
       <c r="V16" t="n">
-        <v>0.004544042399469995</v>
+        <v>0.006159689229431268</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.0008053673285191795</v>
+        <v>-0.003408184343117422</v>
       </c>
       <c r="X16" t="n">
-        <v>0.0006876833340257496</v>
+        <v>-0.0029915420828933</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.004281751675336841</v>
+        <v>0.001146878357434299</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.00379417897021544</v>
+        <v>0.00606707061585283</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.0001949562373101626</v>
+        <v>-0.004264053426154693</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0003685529220700746</v>
+        <v>-0.003470075501529849</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.003473892506312165</v>
+        <v>0.001011841021465518</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.003189239873103322</v>
+        <v>0.006149081650651118</v>
       </c>
       <c r="AE16" t="n">
-        <v>-7.894637896427786e-07</v>
+        <v>-0.00373174578454892</v>
       </c>
       <c r="AF16" t="n">
-        <v>-3.168200031709594e-05</v>
+        <v>-0.002990958575079942</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.002836127148090738</v>
+        <v>0.0007011649047438073</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0.004987919781083603</v>
+        <v>0.003257656937886168</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.01154136884810627</v>
+        <v>0.001888708649143311</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.002439603459288351</v>
+        <v>-0.0006279228610385739</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.00012346412941872</v>
+        <v>-7.392415853523864e-05</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.004416792348821306</v>
+        <v>0.001666993389159078</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.004225393130112108</v>
+        <v>4.214061797761384e-06</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0.001150626340158909</v>
+        <v>-0.001241838469564938</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.0005100399683192979</v>
+        <v>-0.0001659970563821797</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0.002619119960727569</v>
+        <v>0.001661329260260672</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.004296455775260447</v>
+        <v>5.530772527404516e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.000764317938112168</v>
+        <v>-0.0012301042003635</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0.0009946378446227823</v>
+        <v>-0.0003089698878424954</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0.002181301373839534</v>
+        <v>0.001457948734218948</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.003684294129641769</v>
+        <v>2.077891016143641e-05</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.0005477964615731413</v>
+        <v>-0.001105121100147935</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0.001126080616922475</v>
+        <v>-0.0002870361811867574</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.03167056792299831</v>
+        <v>-0.01275471350111195</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.01711445625951758</v>
+        <v>0.005016914771259346</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.009139502683776193</v>
+        <v>0.002196509703386075</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.0007300750099431237</v>
+        <v>0.002064065167081126</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.02593745835854869</v>
+        <v>-0.01116502872085612</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.01576333274560039</v>
+        <v>0.005555110970274411</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.009610675387705566</v>
+        <v>0.002120812991641754</v>
       </c>
       <c r="BE16" t="n">
-        <v>-0.001432026925058586</v>
+        <v>0.002638819070571156</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0.02217955739687346</v>
+        <v>-0.01042838381628871</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.01409849316586966</v>
+        <v>0.005628337222494595</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.009455370309747956</v>
+        <v>0.001650282933506792</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0.003039852441440729</v>
+        <v>0.002864023100651612</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.01897860631724848</v>
+        <v>-0.009954954042735421</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.01275917359819258</v>
+        <v>0.005586664359828655</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.009061492279878692</v>
+        <v>0.001158293888980956</v>
       </c>
       <c r="BM16" t="n">
-        <v>-0.004214183390665806</v>
+        <v>0.003043442298726664</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08412779828663271</v>
+        <v>0.1456463166488213</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006203961940902033</v>
+        <v>0.03033443213212286</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004082320221576782</v>
+        <v>-0.03081293694257089</v>
       </c>
       <c r="E17" t="n">
-        <v>1.3838998913481e-07</v>
+        <v>-0.01158490433985697</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.624270994966633e-05</v>
+        <v>-0.01420222391787166</v>
       </c>
       <c r="G17" t="n">
-        <v>-9.88329697208676e-06</v>
+        <v>-0.003064765391101889</v>
       </c>
       <c r="H17" t="n">
-        <v>-5.360767419672633e-06</v>
+        <v>0.007847792589574906</v>
       </c>
       <c r="I17" t="n">
-        <v>-2.864797374932886e-06</v>
+        <v>0.005692987824345676</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.527784829919907e-06</v>
+        <v>0.000944007198004119</v>
       </c>
       <c r="K17" t="n">
-        <v>-8.145246197142551e-07</v>
+        <v>-0.001071567385953789</v>
       </c>
       <c r="L17" t="n">
-        <v>-4.342386489048225e-07</v>
+        <v>-0.001984031684201541</v>
       </c>
       <c r="M17" t="n">
-        <v>-2.31499594203486e-07</v>
+        <v>0.0003867169760279532</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.234160497854062e-07</v>
+        <v>0.0001795506999276185</v>
       </c>
       <c r="O17" t="n">
-        <v>-6.579501644968804e-08</v>
+        <v>-0.000167124475045607</v>
       </c>
       <c r="P17" t="n">
-        <v>-3.507634645344236e-08</v>
+        <v>-0.0002670607236212474</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.869974572749121e-08</v>
+        <v>0.001113353347598695</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0004840600491859029</v>
+        <v>0.01117428600355926</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0001897055678770525</v>
+        <v>-0.00123515724024404</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0001347261592295196</v>
+        <v>-0.003794701871568576</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.434460529877321e-05</v>
+        <v>-0.005435379325641103</v>
       </c>
       <c r="V17" t="n">
-        <v>-3.982331402500373e-05</v>
+        <v>0.001561270884116699</v>
       </c>
       <c r="W17" t="n">
-        <v>-2.124461031242011e-05</v>
+        <v>0.0004700409495904489</v>
       </c>
       <c r="X17" t="n">
-        <v>-1.132689605943622e-05</v>
+        <v>0.0008482949669755941</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.038624236409203e-06</v>
+        <v>-0.003243169677336711</v>
       </c>
       <c r="Z17" t="n">
-        <v>-3.219290467021524e-06</v>
+        <v>0.002525336722836882</v>
       </c>
       <c r="AA17" t="n">
-        <v>-1.71625425613932e-06</v>
+        <v>0.0002407115592538752</v>
       </c>
       <c r="AB17" t="n">
-        <v>-9.149618648657265e-07</v>
+        <v>0.0001257914024096203</v>
       </c>
       <c r="AC17" t="n">
-        <v>-4.877804000597267e-07</v>
+        <v>-0.003344005526404082</v>
       </c>
       <c r="AD17" t="n">
-        <v>-2.600433162946212e-07</v>
+        <v>0.002546950009363533</v>
       </c>
       <c r="AE17" t="n">
-        <v>-1.386331355233735e-07</v>
+        <v>0.0004561495813939044</v>
       </c>
       <c r="AF17" t="n">
-        <v>-7.390748025060719e-08</v>
+        <v>0.0003121157542944146</v>
       </c>
       <c r="AG17" t="n">
-        <v>-3.940122695995116e-08</v>
+        <v>-0.00320853419259029</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.001333239763650245</v>
+        <v>0.01467034849747031</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.001446085690746368</v>
+        <v>0.01020713733759337</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0008260937634566979</v>
+        <v>0.0008662884506006477</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0004445417344290371</v>
+        <v>-0.003535629620325544</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.0002373025648251523</v>
+        <v>0.006363233301778001</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0001265329773901941</v>
+        <v>0.002317644038055856</v>
       </c>
       <c r="AN17" t="n">
-        <v>6.745844500817657e-05</v>
+        <v>-0.002453677691843322</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.596327706680299e-05</v>
+        <v>-0.004220762278389488</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.917259205525784e-05</v>
+        <v>0.006172060268482197</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.022120769016848e-05</v>
+        <v>0.00235987572629235</v>
       </c>
       <c r="AR17" t="n">
-        <v>5.449084811561876e-06</v>
+        <v>-0.002741386188418029</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.904991848764975e-06</v>
+        <v>-0.004747970907771245</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.548696326605488e-06</v>
+        <v>0.005489967171982291</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.256340934817217e-07</v>
+        <v>0.002139379614905879</v>
       </c>
       <c r="AV17" t="n">
-        <v>4.401583735895668e-07</v>
+        <v>-0.002670410429763808</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.346552732861907e-07</v>
+        <v>-0.004664202013316787</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.006172734363978373</v>
+        <v>-0.02537945908230997</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.00329930030515125</v>
+        <v>0.008873642043828322</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.001759547434778917</v>
+        <v>0.005559747927521847</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0009380900458217676</v>
+        <v>0.003480159974646017</v>
       </c>
       <c r="BB17" t="n">
-        <v>0.0005001139874676644</v>
+        <v>-0.02273293111875062</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0002666188131833584</v>
+        <v>0.009643296408814219</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0001421386553913194</v>
+        <v>0.006571223421777957</v>
       </c>
       <c r="BE17" t="n">
-        <v>7.577632891956831e-05</v>
+        <v>0.004458176352763958</v>
       </c>
       <c r="BF17" t="n">
-        <v>4.039753935923945e-05</v>
+        <v>-0.02141690346055182</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.153655641009807e-05</v>
+        <v>0.009506957767041569</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.148147310960122e-05</v>
+        <v>0.00666809521076553</v>
       </c>
       <c r="BI17" t="n">
-        <v>6.120951848103264e-06</v>
+        <v>0.004659759947385143</v>
       </c>
       <c r="BJ17" t="n">
-        <v>3.263174609120089e-06</v>
+        <v>-0.02066050922896417</v>
       </c>
       <c r="BK17" t="n">
-        <v>1.739649125469853e-06</v>
+        <v>0.009060327017530638</v>
       </c>
       <c r="BL17" t="n">
-        <v>9.274339997894505e-07</v>
+        <v>0.006583882436871645</v>
       </c>
       <c r="BM17" t="n">
-        <v>4.944294865972659e-07</v>
+        <v>0.004748619368892353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>SouthAfrica</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1122565494054445</v>
+        <v>0.07899288534864324</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03726717523546181</v>
+        <v>0.02075591533907071</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.02144280942661515</v>
+        <v>0.005507411846110722</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01482069947909384</v>
+        <v>0.001488552793917891</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003023883859392077</v>
+        <v>0.0004159894992588411</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004758850421448618</v>
+        <v>0.000122986084646586</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001274381361019887</v>
+        <v>3.957099540922509e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.001306201948208115</v>
+        <v>1.417886794181181e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.0003023426369186933</v>
+        <v>5.679613382833615e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003038015106274631</v>
+        <v>2.497849524268242e-06</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0001466650491808657</v>
+        <v>1.17263176808191e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>-5.507280461132511e-05</v>
+        <v>5.729472081690092e-07</v>
       </c>
       <c r="N18" t="n">
-        <v>-5.229425330962445e-05</v>
+        <v>2.86312411912069e-07</v>
       </c>
       <c r="O18" t="n">
-        <v>4.733277936060174e-06</v>
+        <v>1.448128648752119e-07</v>
       </c>
       <c r="P18" t="n">
-        <v>1.560225023099636e-05</v>
+        <v>7.370751964945271e-08</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.861694695720674e-06</v>
+        <v>3.763800193911678e-08</v>
       </c>
       <c r="R18" t="n">
-        <v>0.05216348908556507</v>
+        <v>0.0003824588139998825</v>
       </c>
       <c r="S18" t="n">
-        <v>-0.0279138970677581</v>
+        <v>-8.705821986987309e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.03458051767740427</v>
+        <v>-0.000118200750341688</v>
       </c>
       <c r="U18" t="n">
-        <v>0.001796324108741598</v>
+        <v>-7.969966870488667e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>0.009620842761655228</v>
+        <v>-4.581200830279244e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>0.001537672426382054</v>
+        <v>-2.476668464582382e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.002396842212521266</v>
+        <v>-1.302617510210955e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.000915969071864555</v>
+        <v>-6.761708293020454e-06</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0004828697581106959</v>
+        <v>-3.487242647254887e-06</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0003551569766701656</v>
+        <v>-1.792671507668206e-06</v>
       </c>
       <c r="AB18" t="n">
-        <v>-6.265002183249197e-05</v>
+        <v>-9.200477556964446e-07</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.0001121832643032286</v>
+        <v>-4.718039754875269e-07</v>
       </c>
       <c r="AD18" t="n">
-        <v>-5.379023019112358e-06</v>
+        <v>-2.418417399102166e-07</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.029860696928431e-05</v>
+        <v>-1.239392500425237e-07</v>
       </c>
       <c r="AF18" t="n">
-        <v>7.693115175603916e-06</v>
+        <v>-6.35096575946915e-08</v>
       </c>
       <c r="AG18" t="n">
-        <v>-6.90850058100615e-06</v>
+        <v>-3.254220560376549e-08</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.004626734177634565</v>
+        <v>0.0015015586306815</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.002370021669335848</v>
+        <v>0.002273861694378136</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.0002065694256031503</v>
+        <v>0.001556282220765062</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.0007539607834892822</v>
+        <v>0.0008991234013316408</v>
       </c>
       <c r="AL18" t="n">
-        <v>-7.768444470798398e-05</v>
+        <v>0.0004871370401349494</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.000191793344417071</v>
+        <v>0.0002564729080564629</v>
       </c>
       <c r="AN18" t="n">
-        <v>6.171565103112884e-05</v>
+        <v>0.0001331975428530107</v>
       </c>
       <c r="AO18" t="n">
-        <v>-4.124433624925233e-05</v>
+        <v>6.871143358854761e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>-2.565726920397613e-05</v>
+        <v>3.532656011282593e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>6.294759086891718e-06</v>
+        <v>1.813168506579894e-05</v>
       </c>
       <c r="AR18" t="n">
-        <v>8.468102269731223e-06</v>
+        <v>9.298291191024399e-06</v>
       </c>
       <c r="AS18" t="n">
-        <v>-3.270613406899263e-08</v>
+        <v>4.766282444779304e-06</v>
       </c>
       <c r="AT18" t="n">
-        <v>-2.37655516897839e-06</v>
+        <v>2.442648154090622e-06</v>
       </c>
       <c r="AU18" t="n">
-        <v>-4.762226261783627e-07</v>
+        <v>1.251680871159788e-06</v>
       </c>
       <c r="AV18" t="n">
-        <v>5.678727641387455e-07</v>
+        <v>6.413598049262689e-07</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.492541870390451e-07</v>
+        <v>3.286225717448114e-07</v>
       </c>
       <c r="AX18" t="n">
-        <v>-0.007999946890090273</v>
+        <v>-0.006561960916639166</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.00183409493092571</v>
+        <v>-0.003340549879133267</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.001937421376734165</v>
+        <v>-0.001705978521162479</v>
       </c>
       <c r="BA18" t="n">
-        <v>-0.0002555272449257606</v>
+        <v>-0.0008726301872818239</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.0003139068138674365</v>
+        <v>-0.0004467288978090203</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0001714573098853367</v>
+        <v>-0.0002287912760983999</v>
       </c>
       <c r="BD18" t="n">
-        <v>-6.100451800718773e-05</v>
+        <v>-0.0001171998695303381</v>
       </c>
       <c r="BE18" t="n">
-        <v>-5.867037691459032e-05</v>
+        <v>-6.004289711337722e-05</v>
       </c>
       <c r="BF18" t="n">
-        <v>4.698105447637473e-06</v>
+        <v>-3.076237979105877e-05</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.746593568200542e-05</v>
+        <v>-1.576123666395073e-05</v>
       </c>
       <c r="BH18" t="n">
-        <v>2.233103111415096e-06</v>
+        <v>-8.075450828389063e-06</v>
       </c>
       <c r="BI18" t="n">
-        <v>-4.427931835800668e-06</v>
+        <v>-4.137579705831596e-06</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-1.530204766027129e-06</v>
+        <v>-2.119959416508298e-06</v>
       </c>
       <c r="BK18" t="n">
-        <v>9.26938824683179e-07</v>
+        <v>-1.086199308503384e-06</v>
       </c>
       <c r="BL18" t="n">
-        <v>6.175189027233771e-07</v>
+        <v>-5.565342585390808e-07</v>
       </c>
       <c r="BM18" t="n">
-        <v>-1.332983088139809e-07</v>
+        <v>-2.851507321178477e-07</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.1441925163362647</v>
+        <v>0.0417294442412436</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02322995016426798</v>
+        <v>0.01601217604766784</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.04648786955938333</v>
+        <v>-0.008407438953215671</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.01333724049636174</v>
+        <v>-0.011024831166698</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0003703326619690489</v>
+        <v>-0.01059707396081049</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.008826917814218361</v>
+        <v>0.007310054422124445</v>
       </c>
       <c r="H19" t="n">
-        <v>0.002905272145089466</v>
+        <v>0.0115906947291598</v>
       </c>
       <c r="I19" t="n">
-        <v>0.005719693535555975</v>
+        <v>0.008119151620996246</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007281555080723938</v>
+        <v>-0.005808894108017438</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.003539287716440728</v>
+        <v>-0.004926790870278034</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.00381286097615667</v>
+        <v>-0.001689170988597885</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.001874225371966854</v>
+        <v>0.004972550436056862</v>
       </c>
       <c r="N19" t="n">
-        <v>0.004299069524817241</v>
+        <v>0.0007964113868709984</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.001154167430329812</v>
+        <v>0.001715560396702133</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0004563782623658965</v>
+        <v>-0.0007826689769315416</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.001046833875624656</v>
+        <v>0.0006395877533324196</v>
       </c>
       <c r="R19" t="n">
-        <v>0.005077326730562156</v>
+        <v>0.03319809980602154</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.01037152412781794</v>
+        <v>-0.006503292842710446</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.001523450543296867</v>
+        <v>-0.01592272350721594</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.006117077008072608</v>
+        <v>-0.01251577348513899</v>
       </c>
       <c r="V19" t="n">
-        <v>0.02237847514862682</v>
+        <v>0.004657098838741231</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.001743595335076124</v>
+        <v>0.002099629628778102</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.003091149507471459</v>
+        <v>0.003891134685380071</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.009290965677227753</v>
+        <v>-0.001644353216194551</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01145305563258934</v>
+        <v>0.001708682165038513</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.003278795637371457</v>
+        <v>-0.007042714135005325</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.001509149307104718</v>
+        <v>-0.001778729044693962</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.006452945183464369</v>
+        <v>0.000699938568437374</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.007849489950726414</v>
+        <v>0.006980285632725981</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.003313659958988205</v>
+        <v>-0.00287018826762397</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.002343552756573528</v>
+        <v>-0.002570073798312589</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.005427886547398481</v>
+        <v>-0.002387021028234275</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.0007080359566224539</v>
+        <v>0.01616660832200222</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.007922147948746249</v>
+        <v>0.005537759155382177</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.002114965593483649</v>
+        <v>0.001289149212697557</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.00213208949757084</v>
+        <v>-0.005924618960355003</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.005702870338771252</v>
+        <v>0.01069871467077213</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.002652645041534228</v>
+        <v>0.001869009201842722</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.001551573186887318</v>
+        <v>0.0003380605117455362</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.0006174573485359754</v>
+        <v>-0.00493598499440758</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0.002798506052677924</v>
+        <v>0.008928242043822839</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.001767161753045131</v>
+        <v>0.0006264110517819956</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.0001501254664685066</v>
+        <v>-0.0009603084797442283</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.0005628185368172532</v>
+        <v>-0.005315984543440508</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.001999868696641588</v>
+        <v>0.007466683489096328</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.001229872572606048</v>
+        <v>0.0007168348179739998</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0.0001544786633285754</v>
+        <v>-0.0008034485678239668</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.000754334626293878</v>
+        <v>-0.005081757511170377</v>
       </c>
       <c r="AX19" t="n">
-        <v>-0.01894598096702113</v>
+        <v>-0.02183477967291648</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.002564647378749539</v>
+        <v>0.009064088556015508</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-0.0008165007061821364</v>
+        <v>0.003283560257875945</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.004444239268445193</v>
+        <v>-0.001009000771783095</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.009679728205616885</v>
+        <v>-0.01846591560429401</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.003832924264335044</v>
+        <v>0.008236838205516099</v>
       </c>
       <c r="BD19" t="n">
-        <v>-0.001681483336539825</v>
+        <v>0.004531493973005172</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.004432763344568579</v>
+        <v>0.001122093837900174</v>
       </c>
       <c r="BF19" t="n">
-        <v>-0.006597356071904276</v>
+        <v>-0.01543869794625716</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.003365249693006239</v>
+        <v>0.006933360787992341</v>
       </c>
       <c r="BH19" t="n">
-        <v>-0.002188342183453861</v>
+        <v>0.003896403114166584</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.004011731550489647</v>
+        <v>0.001517175708109497</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-0.004683729720975812</v>
+        <v>-0.01292986484440024</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.002945469271487499</v>
+        <v>0.006307194406259629</v>
       </c>
       <c r="BL19" t="n">
-        <v>-0.002387049129027134</v>
+        <v>0.003622631600891606</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.003368534012087099</v>
+        <v>0.001557438763525951</v>
       </c>
     </row>
     <row r="20">

--- a/ind-IRs-to-idiosyncratic-shocks.xlsx
+++ b/ind-IRs-to-idiosyncratic-shocks.xlsx
@@ -765,193 +765,193 @@
         <v>0.06941559545735795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02103136388109618</v>
+        <v>0.09044695933845413</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006336550662267106</v>
+        <v>0.09678351000072123</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001901255290726076</v>
+        <v>0.0986847652914473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005687003791824324</v>
+        <v>0.09925346567062973</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001697129141724314</v>
+        <v>0.09942317858480217</v>
       </c>
       <c r="H2" t="n">
-        <v>5.055700160472456e-05</v>
+        <v>0.09947373558640689</v>
       </c>
       <c r="I2" t="n">
-        <v>1.504067273271425e-05</v>
+        <v>0.09948877625913961</v>
       </c>
       <c r="J2" t="n">
-        <v>4.470041346690812e-06</v>
+        <v>0.0994932463004863</v>
       </c>
       <c r="K2" t="n">
-        <v>1.327452696646921e-06</v>
+        <v>0.09949457375318295</v>
       </c>
       <c r="L2" t="n">
-        <v>3.939756560938354e-07</v>
+        <v>0.09949496772883905</v>
       </c>
       <c r="M2" t="n">
-        <v>1.168753919145858e-07</v>
+        <v>0.09949508460423095</v>
       </c>
       <c r="N2" t="n">
-        <v>3.465981837090962e-08</v>
+        <v>0.09949511926404933</v>
       </c>
       <c r="O2" t="n">
-        <v>1.027576662203717e-08</v>
+        <v>0.09949512953981594</v>
       </c>
       <c r="P2" t="n">
-        <v>3.045887568070383e-09</v>
+        <v>0.09949513258570351</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.027049108542688e-10</v>
+        <v>0.09949513348840842</v>
       </c>
       <c r="R2" t="n">
         <v>0.009118088357231829</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.004343868025203992</v>
+        <v>0.004774220332027838</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.002888587872276724</v>
+        <v>0.001885632459751113</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.001219882570424673</v>
+        <v>0.0006657498893264405</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.00044416994585206</v>
+        <v>0.0002215799434743806</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.0001504023879687863</v>
+        <v>7.117755550559427e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>-4.883370760294157e-05</v>
+        <v>2.23438479026527e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.543900729930669e-05</v>
+        <v>6.904840603346012e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>-4.794680338694848e-06</v>
+        <v>2.110160264651164e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.470603705277451e-06</v>
+        <v>6.395565593737133e-07</v>
       </c>
       <c r="AB2" t="n">
-        <v>-4.470634880809124e-07</v>
+        <v>1.924930712928009e-07</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.350302663124607e-07</v>
+        <v>5.746280498034024e-08</v>
       </c>
       <c r="AD2" t="n">
-        <v>-4.058998951252407e-08</v>
+        <v>1.687281546781616e-08</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1.215798634854558e-08</v>
+        <v>4.714829119270583e-09</v>
       </c>
       <c r="AF2" t="n">
-        <v>-3.631992405308288e-09</v>
+        <v>1.082836713962296e-09</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.082812908675069e-09</v>
+        <v>2.380528722694373e-14</v>
       </c>
       <c r="AH2" t="n">
         <v>0.001199562399703086</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.000326550239102906</v>
+        <v>0.001526112638805992</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.018549808154728e-05</v>
+        <v>0.001616298136887539</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.522642061138037e-05</v>
+        <v>0.00164152455749892</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.134132763884849e-06</v>
+        <v>0.001648658690262804</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.036312742227021e-06</v>
+        <v>0.001650695003005032</v>
       </c>
       <c r="AN2" t="n">
-        <v>5.856956243257054e-07</v>
+        <v>0.001651280698629357</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.69514888451833e-07</v>
+        <v>0.001651450213517809</v>
       </c>
       <c r="AP2" t="n">
-        <v>4.930861065714851e-08</v>
+        <v>0.001651499522128466</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.440035457564066e-08</v>
+        <v>0.001651513922483042</v>
       </c>
       <c r="AR2" t="n">
-        <v>4.218856146080512e-09</v>
+        <v>0.001651518141339188</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.23906067353821e-09</v>
+        <v>0.001651519380399861</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.64612128333872e-10</v>
+        <v>0.00165151974501199</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.074542761342565e-10</v>
+        <v>0.001651519852466266</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.170469640987747e-11</v>
+        <v>0.001651519884170962</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.363021965500022e-12</v>
+        <v>0.001651519893533984</v>
       </c>
       <c r="AX2" t="n">
         <v>-0.007231434833124972</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.00171008343794167</v>
+        <v>-0.008941518271066642</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.0004083286110432558</v>
+        <v>-0.009349846882109897</v>
       </c>
       <c r="BA2" t="n">
-        <v>-9.861871032878075e-05</v>
+        <v>-0.009448465592438678</v>
       </c>
       <c r="BB2" t="n">
-        <v>-2.413390590101456e-05</v>
+        <v>-0.009472599498339692</v>
       </c>
       <c r="BC2" t="n">
-        <v>-5.994079183712606e-06</v>
+        <v>-0.009478593577523405</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.51296769478261e-06</v>
+        <v>-0.009480106545218187</v>
       </c>
       <c r="BE2" t="n">
-        <v>-3.884604087135841e-07</v>
+        <v>-0.009480495005626902</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.014923593144736e-07</v>
+        <v>-0.009480596497986217</v>
       </c>
       <c r="BG2" t="n">
-        <v>-2.697675648401517e-08</v>
+        <v>-0.009480623474742701</v>
       </c>
       <c r="BH2" t="n">
-        <v>-7.289039515201825e-09</v>
+        <v>-0.009480630763782215</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.999528878684744e-09</v>
+        <v>-0.009480632763311092</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-5.560019810136195e-10</v>
+        <v>-0.009480633319313075</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.564448868063807e-10</v>
+        <v>-0.00948063347575796</v>
       </c>
       <c r="BL2" t="n">
-        <v>-4.446517099411009e-11</v>
+        <v>-0.009480633520223131</v>
       </c>
       <c r="BM2" t="n">
-        <v>-1.274465753842122e-11</v>
+        <v>-0.009480633532967788</v>
       </c>
     </row>
     <row r="3">
@@ -964,193 +964,193 @@
         <v>0.1282084437467351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01937494459056332</v>
+        <v>0.1475833883372984</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.03385226466816175</v>
+        <v>0.1137311236691367</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0120382405930602</v>
+        <v>0.1016928830760765</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01004431258020971</v>
+        <v>0.09164857049586678</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.001266591817901462</v>
+        <v>0.09038197867796532</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003918348904803943</v>
+        <v>0.09430032758276927</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004330906084809051</v>
+        <v>0.09863123366757832</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002933299761564399</v>
+        <v>0.1015645334291427</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.001298756598214901</v>
+        <v>0.1002657768309278</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.004522547574274883</v>
+        <v>0.09574322925665295</v>
       </c>
       <c r="M3" t="n">
-        <v>0.000397200900664976</v>
+        <v>0.09614043015731792</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00271188465799478</v>
+        <v>0.0988523148153127</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0001786403781707786</v>
+        <v>0.09867367443714192</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002688320124674647</v>
+        <v>0.09598535431246727</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0008921731948996098</v>
+        <v>0.09687752750736688</v>
       </c>
       <c r="R3" t="n">
         <v>0.01243469385968152</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.01627372268505405</v>
+        <v>-0.003839028825372529</v>
       </c>
       <c r="T3" t="n">
-        <v>0.005665401674048906</v>
+        <v>0.001826372848676376</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.000878538275700872</v>
+        <v>0.0009478345729755043</v>
       </c>
       <c r="V3" t="n">
-        <v>0.002527427767085593</v>
+        <v>0.003475262340061097</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.01104101867442577</v>
+        <v>-0.007565756334364672</v>
       </c>
       <c r="X3" t="n">
-        <v>0.006566928478773137</v>
+        <v>-0.0009988278555915346</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001124114679454792</v>
+        <v>0.0001252868238632569</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.002180897079665001</v>
+        <v>0.002306183903528258</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.009465704023638454</v>
+        <v>-0.007159520120110194</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.005074336042742421</v>
+        <v>-0.002085184077367774</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001959987697842664</v>
+        <v>-0.0001251963795251094</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001232728794272126</v>
+        <v>0.001107532414747017</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.007972428331925215</v>
+        <v>-0.006864895917178198</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.004361039489495987</v>
+        <v>-0.002503856427682212</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.00250385642768086</v>
+        <v>-1.35207048398146e-15</v>
       </c>
       <c r="AH3" t="n">
         <v>-0.0008426811616689912</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.01694432926726265</v>
+        <v>0.01610164810559366</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.00336455499105554</v>
+        <v>0.0194662030966492</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.01057735954514251</v>
+        <v>0.008888843551506693</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0005878197413679856</v>
+        <v>0.009476663292874679</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.01326459483068297</v>
+        <v>0.02274125812355765</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.0001138466394161219</v>
+        <v>0.02262741148414153</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.01023080535863551</v>
+        <v>0.01239660612550602</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0003786144497762551</v>
+        <v>0.01277522057528228</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.01177304725306701</v>
+        <v>0.02454826782834929</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.0005676858193013263</v>
+        <v>0.02398058200904796</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.010175160133763</v>
+        <v>0.01380542187528496</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0003790750846450185</v>
+        <v>0.01418449695992998</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.01082418408297739</v>
+        <v>0.02500868104290737</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.0008855416736669651</v>
+        <v>0.0241231393692404</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.009763343793266467</v>
+        <v>0.01435979557597394</v>
       </c>
       <c r="AX3" t="n">
         <v>0.041691580259388</v>
       </c>
       <c r="AY3" t="n">
-        <v>-0.005250403517809813</v>
+        <v>0.03644117674157819</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-0.01051709033152043</v>
+        <v>0.02592408641005775</v>
       </c>
       <c r="BA3" t="n">
-        <v>-0.003253868085004895</v>
+        <v>0.02267021832505286</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.03319889488589191</v>
+        <v>0.05586911321094477</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0.007250261059954324</v>
+        <v>0.04861885215099044</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0.01427105087139104</v>
+        <v>0.0343478012795994</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.002726273663077674</v>
+        <v>0.03162152761652172</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.02821403617615059</v>
+        <v>0.05983556379267231</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.007135133632384444</v>
+        <v>0.05270043016028787</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0.01559710750411477</v>
+        <v>0.0371033226561731</v>
       </c>
       <c r="BI3" t="n">
-        <v>-0.001481723136620931</v>
+        <v>0.03562159951955216</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.02490481674850203</v>
+        <v>0.0605264162680542</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.00660268367374716</v>
+        <v>0.05392373259430704</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0.01593056761381162</v>
+        <v>0.03799316498049542</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0.0001975881159021155</v>
+        <v>0.0377955768645933</v>
       </c>
     </row>
     <row r="4">
@@ -1163,193 +1163,193 @@
         <v>0.06562937905197809</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01578221429974067</v>
+        <v>0.08141159335171876</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.009239372769236047</v>
+        <v>0.07217222058248271</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.005621606285553919</v>
+        <v>0.06655061429692878</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001785549896240657</v>
+        <v>0.06833616419316944</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0008648813577844532</v>
+        <v>0.0692010455509539</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0007955799671717736</v>
+        <v>0.06840546558378212</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0005664992081853239</v>
+        <v>0.06783896637559679</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001400191670705045</v>
+        <v>0.06923915804630183</v>
       </c>
       <c r="K4" t="n">
-        <v>-6.644317687217703e-06</v>
+        <v>0.06923251372861462</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0009274792257692861</v>
+        <v>0.06830503450284534</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0004275884275891513</v>
+        <v>0.06787744607525618</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001263611171887364</v>
+        <v>0.06914105724714355</v>
       </c>
       <c r="O4" t="n">
-        <v>6.026241416304539e-05</v>
+        <v>0.06920131966130659</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.0008361554534361479</v>
+        <v>0.06836516420787045</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.0004022889070833935</v>
+        <v>0.06796287530078705</v>
       </c>
       <c r="R4" t="n">
         <v>0.003791943647967813</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001776968010899717</v>
+        <v>0.005568911658867529</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.002379330514947763</v>
+        <v>0.003189581143919766</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.004631350422865253</v>
+        <v>-0.001441769278945487</v>
       </c>
       <c r="V4" t="n">
-        <v>0.003834618620126951</v>
+        <v>0.002392849341181464</v>
       </c>
       <c r="W4" t="n">
-        <v>0.002867156513228594</v>
+        <v>0.005260005854410057</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.001876383200626422</v>
+        <v>0.003383622653783636</v>
       </c>
       <c r="Y4" t="n">
-        <v>-0.004245639590673127</v>
+        <v>-0.0008620169368894918</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.003075454072155908</v>
+        <v>0.002213437135266416</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.002702831106626871</v>
+        <v>0.004916268241893286</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.001564655213588389</v>
+        <v>0.003351613028304897</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.003750253182193941</v>
+        <v>-0.0003986401538890436</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002505307966530479</v>
+        <v>0.002106667812641435</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.002513892076585082</v>
+        <v>0.004620559889226518</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.001304842091936911</v>
+        <v>0.003315717797289607</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.003315717797287857</v>
+        <v>1.750016185400573e-15</v>
       </c>
       <c r="AH4" t="n">
         <v>0.004718014161866457</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.008197960628700625</v>
+        <v>0.01291597479056708</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.0001073223783369741</v>
+        <v>0.01280865241223011</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0.001312505303388039</v>
+        <v>0.01149614710884207</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.002743276860242333</v>
+        <v>0.008752870248599736</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.003999782851116544</v>
+        <v>0.01275265309971628</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.684526510841776e-05</v>
+        <v>0.0127994983648247</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.001025570833770663</v>
+        <v>0.01177392753105403</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.002428422404150391</v>
+        <v>0.009345505126903643</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.003208516762059962</v>
+        <v>0.01255402188896361</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.0001927376573176733</v>
+        <v>0.01274675954628128</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.0009724461825649117</v>
+        <v>0.01177431336371637</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.002106544029121945</v>
+        <v>0.009667769334594423</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.002666566455859699</v>
+        <v>0.01233433579045412</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.0003365891538883973</v>
+        <v>0.01267092494434252</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.0008971549210354051</v>
+        <v>0.01177377002330711</v>
       </c>
       <c r="AX4" t="n">
         <v>-0.01678147192074372</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.007857703156635218</v>
+        <v>-0.008923768764108499</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.004644343437735727</v>
+        <v>-0.004279425326372772</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.001325984094283702</v>
+        <v>-0.00295344123208907</v>
       </c>
       <c r="BB4" t="n">
-        <v>-0.01343550117707788</v>
+        <v>-0.01638894240916695</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.00661323424038327</v>
+        <v>-0.009775708168783679</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.004873589416698514</v>
+        <v>-0.004902118752085165</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.001205979491770768</v>
+        <v>-0.003696139260314397</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0.01146843802739254</v>
+        <v>-0.01516457728770693</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.005131076481625027</v>
+        <v>-0.01003350080608191</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.004721013204699949</v>
+        <v>-0.005312487601381956</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.001059465093152431</v>
+        <v>-0.004253022508229525</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-0.009838301854704074</v>
+        <v>-0.0140913243629336</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.003922202227153015</v>
+        <v>-0.01016912213578058</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.004478799350054931</v>
+        <v>-0.005690322785725652</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0009579793867106327</v>
+        <v>-0.004732343399015019</v>
       </c>
     </row>
     <row r="5">
@@ -1362,193 +1362,193 @@
         <v>0.1236636004360224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02982928242992423</v>
+        <v>0.1534928828659467</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02465475142860681</v>
+        <v>0.1288381314373399</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02294273566548356</v>
+        <v>0.1058953957718563</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.006344426461563753</v>
+        <v>0.09955096931029257</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002399751493736823</v>
+        <v>0.1019507208040294</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005451722552352443</v>
+        <v>0.1074024433563818</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001392717993006637</v>
+        <v>0.1087951613493885</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005037009397317896</v>
+        <v>0.1092988622891203</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.001641162987433149</v>
+        <v>0.1076576993016871</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.000350774772153487</v>
+        <v>0.1073069245295336</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.00050282992976954</v>
+        <v>0.1068040945997641</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001059010232575415</v>
+        <v>0.1078631048323395</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.000294735943990955</v>
+        <v>0.1075683688883485</v>
       </c>
       <c r="P5" t="n">
-        <v>9.840762944988332e-05</v>
+        <v>0.1076667765177984</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.0004582504145586542</v>
+        <v>0.1072085261032398</v>
       </c>
       <c r="R5" t="n">
         <v>0.001373732439476836</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.001326774539222189</v>
+        <v>4.695790025464668e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0.003379011519672056</v>
+        <v>0.003425969419926703</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.004385100559135535</v>
+        <v>-0.0009591311392088324</v>
       </c>
       <c r="V5" t="n">
-        <v>0.004544042399469995</v>
+        <v>0.003584911260261163</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.0008053673285191795</v>
+        <v>0.002779543931741983</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0006876833340257496</v>
+        <v>0.003467227265767733</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.004281751675336841</v>
+        <v>-0.0008145244095691084</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00379417897021544</v>
+        <v>0.002979654560646331</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.0001949562373101626</v>
+        <v>0.002784698323336169</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0003685529220700746</v>
+        <v>0.003153251245406244</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.003473892506312165</v>
+        <v>-0.000320641260905922</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.003189239873103322</v>
+        <v>0.0028685986121974</v>
       </c>
       <c r="AE5" t="n">
-        <v>-7.894637896427786e-07</v>
+        <v>0.002867809148407757</v>
       </c>
       <c r="AF5" t="n">
-        <v>-3.168200031709594e-05</v>
+        <v>0.002836127148090661</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.002836127148090738</v>
+        <v>-7.637715289758543e-17</v>
       </c>
       <c r="AH5" t="n">
         <v>-0.004987919781083603</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.01154136884810627</v>
+        <v>0.006553449067022669</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.002439603459288351</v>
+        <v>0.00899305252631102</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.00012346412941872</v>
+        <v>0.009116516655729739</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.004416792348821306</v>
+        <v>0.004699724306908433</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.004225393130112108</v>
+        <v>0.008925117437020541</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.001150626340158909</v>
+        <v>0.007774491096861631</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.0005100399683192979</v>
+        <v>0.007264451128542334</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.002619119960727569</v>
+        <v>0.004645331167814765</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.004296455775260447</v>
+        <v>0.008941786943075214</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.000764317938112168</v>
+        <v>0.008177469004963045</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.0009946378446227823</v>
+        <v>0.007182831160340262</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.002181301373839534</v>
+        <v>0.005001529786500728</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.003684294129641769</v>
+        <v>0.008685823916142497</v>
       </c>
       <c r="AV5" t="n">
-        <v>-0.0005477964615731413</v>
+        <v>0.008138027454569355</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0.001126080616922475</v>
+        <v>0.00701194683764688</v>
       </c>
       <c r="AX5" t="n">
         <v>-0.03167056792299831</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.01711445625951758</v>
+        <v>-0.01455611166348073</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.009139502683776193</v>
+        <v>-0.005416608979704538</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0007300750099431237</v>
+        <v>-0.004686533969761413</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.02593745835854869</v>
+        <v>-0.03062399232831011</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.01576333274560039</v>
+        <v>-0.01486065958270972</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.009610675387705566</v>
+        <v>-0.005249984195004156</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0.001432026925058586</v>
+        <v>-0.006682011120062743</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.02217955739687346</v>
+        <v>-0.0288615685169362</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01409849316586966</v>
+        <v>-0.01476307535106654</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.009455370309747956</v>
+        <v>-0.005307705041318582</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.003039852441440729</v>
+        <v>-0.00834755748275931</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.01897860631724848</v>
+        <v>-0.02732616380000779</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01275917359819258</v>
+        <v>-0.01456699020181521</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.009061492279878692</v>
+        <v>-0.005505497921936516</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0.004214183390665806</v>
+        <v>-0.009719681312602323</v>
       </c>
     </row>
     <row r="6">
@@ -1561,193 +1561,193 @@
         <v>0.08412779828663271</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006203961940902033</v>
+        <v>0.09033176022753474</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0004082320221576782</v>
+        <v>0.09073999224969241</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3838998913481e-07</v>
+        <v>0.09074013063968155</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.624270994966633e-05</v>
+        <v>0.09072388792973189</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.88329697208676e-06</v>
+        <v>0.09071400463275979</v>
       </c>
       <c r="H6" t="n">
-        <v>-5.360767419672633e-06</v>
+        <v>0.09070864386534012</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.864797374932886e-06</v>
+        <v>0.09070577906796519</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.527784829919907e-06</v>
+        <v>0.09070425128313528</v>
       </c>
       <c r="K6" t="n">
-        <v>-8.145246197142551e-07</v>
+        <v>0.09070343675851557</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.342386489048225e-07</v>
+        <v>0.09070300251986665</v>
       </c>
       <c r="M6" t="n">
-        <v>-2.31499594203486e-07</v>
+        <v>0.09070277102027245</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.234160497854062e-07</v>
+        <v>0.09070264760422266</v>
       </c>
       <c r="O6" t="n">
-        <v>-6.579501644968804e-08</v>
+        <v>0.09070258180920621</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.507634645344236e-08</v>
+        <v>0.09070254673285975</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.869974572749121e-08</v>
+        <v>0.09070252803311403</v>
       </c>
       <c r="R6" t="n">
         <v>0.0004840600491859029</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0001897055678770525</v>
+        <v>0.0002943544813088504</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0001347261592295196</v>
+        <v>0.0001596283220793309</v>
       </c>
       <c r="U6" t="n">
-        <v>-7.434460529877321e-05</v>
+        <v>8.528371678055767e-05</v>
       </c>
       <c r="V6" t="n">
-        <v>-3.982331402500373e-05</v>
+        <v>4.546040275555395e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>-2.124461031242011e-05</v>
+        <v>2.421579244313384e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>-1.132689605943622e-05</v>
+        <v>1.288889638369761e-05</v>
       </c>
       <c r="Y6" t="n">
-        <v>-6.038624236409203e-06</v>
+        <v>6.850272147288412e-06</v>
       </c>
       <c r="Z6" t="n">
-        <v>-3.219290467021524e-06</v>
+        <v>3.630981680266888e-06</v>
       </c>
       <c r="AA6" t="n">
-        <v>-1.71625425613932e-06</v>
+        <v>1.914727424127568e-06</v>
       </c>
       <c r="AB6" t="n">
-        <v>-9.149618648657265e-07</v>
+        <v>9.997655592618414e-07</v>
       </c>
       <c r="AC6" t="n">
-        <v>-4.877804000597267e-07</v>
+        <v>5.119851592021147e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>-2.600433162946212e-07</v>
+        <v>2.519418429074936e-07</v>
       </c>
       <c r="AE6" t="n">
-        <v>-1.386331355233735e-07</v>
+        <v>1.133087073841201e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>-7.390748025060719e-08</v>
+        <v>3.940122713351287e-08</v>
       </c>
       <c r="AG6" t="n">
-        <v>-3.940122695995116e-08</v>
+        <v>1.735617057092465e-16</v>
       </c>
       <c r="AH6" t="n">
         <v>0.001333239763650245</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.001446085690746368</v>
+        <v>0.002779325454396613</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0008260937634566979</v>
+        <v>0.00360541921785331</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0004445417344290371</v>
+        <v>0.004049960952282347</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.0002373025648251523</v>
+        <v>0.004287263517107499</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0001265329773901941</v>
+        <v>0.004413796494497694</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.745844500817657e-05</v>
+        <v>0.004481254939505869</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.596327706680299e-05</v>
+        <v>0.004517218216572673</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.917259205525784e-05</v>
+        <v>0.004536390808627931</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.022120769016848e-05</v>
+        <v>0.004546612016318099</v>
       </c>
       <c r="AR6" t="n">
-        <v>5.449084811561876e-06</v>
+        <v>0.004552061101129661</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.904991848764975e-06</v>
+        <v>0.004554966092978426</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.548696326605488e-06</v>
+        <v>0.004556514789305031</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.256340934817217e-07</v>
+        <v>0.004557340423398513</v>
       </c>
       <c r="AV6" t="n">
-        <v>4.401583735895668e-07</v>
+        <v>0.004557780581772104</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.346552732861907e-07</v>
+        <v>0.004558015237045389</v>
       </c>
       <c r="AX6" t="n">
         <v>0.006172734363978373</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.00329930030515125</v>
+        <v>0.009472034669129622</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.001759547434778917</v>
+        <v>0.01123158210390854</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0009380900458217676</v>
+        <v>0.01216967214973031</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.0005001139874676644</v>
+        <v>0.01266978613719797</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0002666188131833584</v>
+        <v>0.01293640495038133</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.0001421386553913194</v>
+        <v>0.01307854360577265</v>
       </c>
       <c r="BE6" t="n">
-        <v>7.577632891956831e-05</v>
+        <v>0.01315431993469222</v>
       </c>
       <c r="BF6" t="n">
-        <v>4.039753935923945e-05</v>
+        <v>0.01319471747405145</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.153655641009807e-05</v>
+        <v>0.01321625403046155</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.148147310960122e-05</v>
+        <v>0.01322773550357115</v>
       </c>
       <c r="BI6" t="n">
-        <v>6.120951848103264e-06</v>
+        <v>0.01323385645541925</v>
       </c>
       <c r="BJ6" t="n">
-        <v>3.263174609120089e-06</v>
+        <v>0.01323711963002838</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.739649125469853e-06</v>
+        <v>0.01323885927915384</v>
       </c>
       <c r="BL6" t="n">
-        <v>9.274339997894505e-07</v>
+        <v>0.01323978671315364</v>
       </c>
       <c r="BM6" t="n">
-        <v>4.944294865972659e-07</v>
+        <v>0.01324028114264023</v>
       </c>
     </row>
     <row r="7">
@@ -1760,193 +1760,193 @@
         <v>0.1227352506967094</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02674420102416479</v>
+        <v>0.1494794517208742</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01384228162496561</v>
+        <v>0.1356371700959086</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0233690703920327</v>
+        <v>0.1122680997038759</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00317659257556556</v>
+        <v>0.1154446922794415</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.001944679293794064</v>
+        <v>0.1135000129856474</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.004058864675315086</v>
+        <v>0.1094411483103323</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000170870466944027</v>
+        <v>0.1096120187772764</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001665754923089802</v>
+        <v>0.1112777737003662</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.00502932652874265</v>
+        <v>0.1062484471716235</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.00397498513595839</v>
+        <v>0.1022734620356651</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004461416220698057</v>
+        <v>0.1067348782563632</v>
       </c>
       <c r="N7" t="n">
-        <v>0.004032226311268657</v>
+        <v>0.1107671045676318</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.003713912115356235</v>
+        <v>0.1070531924522756</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.004227238084691161</v>
+        <v>0.1028259543675844</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.003496898373491372</v>
+        <v>0.1063228527410758</v>
       </c>
       <c r="R7" t="n">
         <v>0.02262343647565215</v>
       </c>
       <c r="S7" t="n">
-        <v>0.009372558999618428</v>
+        <v>0.03199599547527058</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.005321039696976212</v>
+        <v>0.02667495577829437</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.02017752966402052</v>
+        <v>0.006497426114273854</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.02005822881733441</v>
+        <v>-0.01356080270306056</v>
       </c>
       <c r="W7" t="n">
-        <v>0.008737877251977968</v>
+        <v>-0.004822925451082593</v>
       </c>
       <c r="X7" t="n">
-        <v>0.009553516178208531</v>
+        <v>0.004730590727125939</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.003334824359903195</v>
+        <v>0.001395766367222744</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.01671589408442307</v>
+        <v>-0.01532012771720033</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.006288348288975487</v>
+        <v>-0.009031779428224845</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.008640054209739005</v>
+        <v>-0.0003917252184858402</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0009438947860951728</v>
+        <v>0.0005521695676093326</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.01325924836817688</v>
+        <v>-0.01270707880056755</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.00487108885142703</v>
+        <v>-0.007835989949140521</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.006123034876461445</v>
+        <v>-0.001712955072679077</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.001712955072675108</v>
+        <v>-3.969562145713409e-15</v>
       </c>
       <c r="AH7" t="n">
         <v>-0.0003181530391825551</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.005360652941170729</v>
+        <v>0.005042499901988174</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.005158167970343213</v>
+        <v>0.01020066787233139</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.001015162392478319</v>
+        <v>0.009185505479853069</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.002352012057581508</v>
+        <v>0.00683349342227156</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.001763993957885992</v>
+        <v>0.008597487380157554</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.003305571712522713</v>
+        <v>0.01190305909268027</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.001468435655586128</v>
+        <v>0.01043462343709414</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.002441534234237693</v>
+        <v>0.007993089202856445</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0008017476184995324</v>
+        <v>0.008794836821355978</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.002586630296252667</v>
+        <v>0.01138146711760865</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.001160090463520138</v>
+        <v>0.01022137665408851</v>
       </c>
       <c r="AT7" t="n">
-        <v>-0.001954241445557543</v>
+        <v>0.008267135208530963</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0005256710218609793</v>
+        <v>0.008792806230391944</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.002185332723974579</v>
+        <v>0.01097813895436652</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0.0008798534523024197</v>
+        <v>0.0100982855020641</v>
       </c>
       <c r="AX7" t="n">
         <v>0.01565810602561375</v>
       </c>
       <c r="AY7" t="n">
-        <v>-0.00243999107090813</v>
+        <v>0.01321811495470562</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0.0009668079417321428</v>
+        <v>0.01225130701297348</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0.004383729128500413</v>
+        <v>0.007867577884473065</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.01085697494544757</v>
+        <v>0.01872455282992063</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.004327845323472154</v>
+        <v>0.01439670750644848</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.0007592150699732508</v>
+        <v>0.01363749243647523</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.005007410344216884</v>
+        <v>0.008630082092258344</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.009343037592079603</v>
+        <v>0.01797311968433795</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.004221522025222367</v>
+        <v>0.01375159765911558</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0001520356588383818</v>
+        <v>0.01390363331795396</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0.004972344397155163</v>
+        <v>0.008931288920798797</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.00839174198893488</v>
+        <v>0.01732303090973368</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.003975621504079183</v>
+        <v>0.01334740940565449</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0009043534174822009</v>
+        <v>0.0142517628231367</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0.004928642289839676</v>
+        <v>0.009323120533297018</v>
       </c>
     </row>
     <row r="8">
@@ -1959,193 +1959,193 @@
         <v>0.1122565494054445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03726717523546181</v>
+        <v>0.1495237246409063</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.02144280942661515</v>
+        <v>0.1280809152142911</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01482069947909384</v>
+        <v>0.1132602157351973</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003023883859392077</v>
+        <v>0.1162840995945894</v>
       </c>
       <c r="G8" t="n">
-        <v>0.004758850421448618</v>
+        <v>0.121042950016038</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001274381361019887</v>
+        <v>0.12117038815214</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.001306201948208115</v>
+        <v>0.1198641862039319</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.0003023426369186933</v>
+        <v>0.1195618435670132</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003038015106274631</v>
+        <v>0.1198656450776407</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001466650491808657</v>
+        <v>0.1200123101268215</v>
       </c>
       <c r="M8" t="n">
-        <v>-5.507280461132511e-05</v>
+        <v>0.1199572373222102</v>
       </c>
       <c r="N8" t="n">
-        <v>-5.229425330962445e-05</v>
+        <v>0.1199049430689006</v>
       </c>
       <c r="O8" t="n">
-        <v>4.733277936060174e-06</v>
+        <v>0.1199096763468366</v>
       </c>
       <c r="P8" t="n">
-        <v>1.560225023099636e-05</v>
+        <v>0.1199252785970676</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.861694695720674e-06</v>
+        <v>0.1199271402917633</v>
       </c>
       <c r="R8" t="n">
         <v>0.05216348908556507</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.0279138970677581</v>
+        <v>0.02424959201780697</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.03458051767740427</v>
+        <v>-0.0103309256595973</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001796324108741598</v>
+        <v>-0.008534601550855699</v>
       </c>
       <c r="V8" t="n">
-        <v>0.009620842761655228</v>
+        <v>0.001086241210799528</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001537672426382054</v>
+        <v>0.002623913637181582</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.002396842212521266</v>
+        <v>0.0002270714246603159</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.000915969071864555</v>
+        <v>-0.0006888976472042392</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0004828697581106959</v>
+        <v>-0.0002060278890935432</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0003551569766701656</v>
+        <v>0.0001491290875766224</v>
       </c>
       <c r="AB8" t="n">
-        <v>-6.265002183249197e-05</v>
+        <v>8.647906574413039e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.0001121832643032286</v>
+        <v>-2.570419855909817e-05</v>
       </c>
       <c r="AD8" t="n">
-        <v>-5.379023019112358e-06</v>
+        <v>-3.108322157821053e-05</v>
       </c>
       <c r="AE8" t="n">
-        <v>3.029860696928431e-05</v>
+        <v>-7.846146089262205e-07</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.693115175603916e-06</v>
+        <v>6.908500566677696e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>-6.90850058100615e-06</v>
+        <v>-1.432845372634949e-14</v>
       </c>
       <c r="AH8" t="n">
         <v>0.004626734177634565</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.002370021669335848</v>
+        <v>0.006996755846970413</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.0002065694256031503</v>
+        <v>0.006790186421367263</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.0007539607834892822</v>
+        <v>0.006036225637877981</v>
       </c>
       <c r="AL8" t="n">
-        <v>-7.768444470798398e-05</v>
+        <v>0.005958541193169997</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.000191793344417071</v>
+        <v>0.006150334537587068</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.171565103112884e-05</v>
+        <v>0.006212050188618197</v>
       </c>
       <c r="AO8" t="n">
-        <v>-4.124433624925233e-05</v>
+        <v>0.006170805852368944</v>
       </c>
       <c r="AP8" t="n">
-        <v>-2.565726920397613e-05</v>
+        <v>0.006145148583164968</v>
       </c>
       <c r="AQ8" t="n">
-        <v>6.294759086891718e-06</v>
+        <v>0.00615144334225186</v>
       </c>
       <c r="AR8" t="n">
-        <v>8.468102269731223e-06</v>
+        <v>0.006159911444521592</v>
       </c>
       <c r="AS8" t="n">
-        <v>-3.270613406899263e-08</v>
+        <v>0.006159878738387523</v>
       </c>
       <c r="AT8" t="n">
-        <v>-2.37655516897839e-06</v>
+        <v>0.006157502183218544</v>
       </c>
       <c r="AU8" t="n">
-        <v>-4.762226261783627e-07</v>
+        <v>0.006157025960592366</v>
       </c>
       <c r="AV8" t="n">
-        <v>5.678727641387455e-07</v>
+        <v>0.006157593833356505</v>
       </c>
       <c r="AW8" t="n">
-        <v>2.492541870390451e-07</v>
+        <v>0.006157843087543543</v>
       </c>
       <c r="AX8" t="n">
         <v>-0.007999946890090273</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.00183409493092571</v>
+        <v>-0.006165851959164563</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0.001937421376734165</v>
+        <v>-0.008103273335898728</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.0002555272449257606</v>
+        <v>-0.008358800580824489</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0003139068138674365</v>
+        <v>-0.008044893766957053</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0001714573098853367</v>
+        <v>-0.007873436457071717</v>
       </c>
       <c r="BD8" t="n">
-        <v>-6.100451800718773e-05</v>
+        <v>-0.007934440975078904</v>
       </c>
       <c r="BE8" t="n">
-        <v>-5.867037691459032e-05</v>
+        <v>-0.007993111351993494</v>
       </c>
       <c r="BF8" t="n">
-        <v>4.698105447637473e-06</v>
+        <v>-0.007988413246545856</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.746593568200542e-05</v>
+        <v>-0.007970947310863851</v>
       </c>
       <c r="BH8" t="n">
-        <v>2.233103111415096e-06</v>
+        <v>-0.007968714207752437</v>
       </c>
       <c r="BI8" t="n">
-        <v>-4.427931835800668e-06</v>
+        <v>-0.007973142139588238</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-1.530204766027129e-06</v>
+        <v>-0.007974672344354266</v>
       </c>
       <c r="BK8" t="n">
-        <v>9.26938824683179e-07</v>
+        <v>-0.007973745405529581</v>
       </c>
       <c r="BL8" t="n">
-        <v>6.175189027233771e-07</v>
+        <v>-0.007973127886626859</v>
       </c>
       <c r="BM8" t="n">
-        <v>-1.332983088139809e-07</v>
+        <v>-0.007973261184935673</v>
       </c>
     </row>
     <row r="9">
@@ -2158,193 +2158,193 @@
         <v>0.1248442358971953</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.05340630531101232</v>
+        <v>0.07143793058618295</v>
       </c>
       <c r="D9" t="n">
-        <v>0.004302342834145296</v>
+        <v>0.07574027342032824</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.002951974684767507</v>
+        <v>0.07278829873556072</v>
       </c>
       <c r="F9" t="n">
-        <v>0.008182598259173328</v>
+        <v>0.08097089699473405</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.006462604375590662</v>
+        <v>0.07450829261914339</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00413026027797365</v>
+        <v>0.07863855289711703</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.002393104733588149</v>
+        <v>0.07624544816352889</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001055904890954199</v>
+        <v>0.07730135305448309</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.001370270013624227</v>
+        <v>0.07593108304085887</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002211267235732406</v>
+        <v>0.07814235027659126</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.001539792013849544</v>
+        <v>0.07660255826274172</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0002894708219129475</v>
+        <v>0.07689202908465466</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.0004064808622282752</v>
+        <v>0.0764855482224264</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001212335239762826</v>
+        <v>0.07769788346218923</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0009672288113701462</v>
+        <v>0.07673065465081907</v>
       </c>
       <c r="R9" t="n">
         <v>0.002314478999525158</v>
       </c>
       <c r="S9" t="n">
-        <v>0.009773303591912561</v>
+        <v>0.01208778259143772</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.004877060844487468</v>
+        <v>0.007210721746950252</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.01834772993501008</v>
+        <v>-0.01113700818805982</v>
       </c>
       <c r="V9" t="n">
-        <v>0.01887121863079749</v>
+        <v>0.007734210442737666</v>
       </c>
       <c r="W9" t="n">
-        <v>0.003443334040481516</v>
+        <v>0.01117754448321918</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.006845175877429639</v>
+        <v>0.004332368605789544</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.01066025886012087</v>
+        <v>-0.006327890254331327</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.01404821262382947</v>
+        <v>0.007720322369498139</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.001396137848789854</v>
+        <v>0.009116460218287993</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.006329595531677059</v>
+        <v>0.002786864686610936</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.005293767730016266</v>
+        <v>-0.00250690304340533</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.009643046243273425</v>
+        <v>0.007136143199868095</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0002551324665136858</v>
+        <v>0.007391275666381781</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.005133170147841207</v>
+        <v>0.002258105518540575</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.002258105518544426</v>
+        <v>-3.850884856157571e-15</v>
       </c>
       <c r="AH9" t="n">
         <v>0.001787083940086885</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.001357666789236257</v>
+        <v>0.0004294171508506275</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.002151331017486757</v>
+        <v>0.002580748168337385</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0.002306405533813061</v>
+        <v>0.000274342634524324</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.001023852105787308</v>
+        <v>0.001298194740311632</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.0003628273986325139</v>
+        <v>0.0009353673416791179</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.001201385908239753</v>
+        <v>0.002136753249918871</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.001540650696480166</v>
+        <v>0.0005961025534387051</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0006128326607787824</v>
+        <v>0.001208935214217488</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-2.632881979497078e-05</v>
+        <v>0.001182606394422517</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.0005736168742194995</v>
+        <v>0.001756223268642017</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.0009421188735487885</v>
+        <v>0.0008141043950932281</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0003816985094353108</v>
+        <v>0.001195802904528539</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.622515142265719e-05</v>
+        <v>0.001282028055951196</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0002435331278619704</v>
+        <v>0.001525561183813166</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.0005722673771567904</v>
+        <v>0.000953293806656376</v>
       </c>
       <c r="AX9" t="n">
         <v>0.0224307203997493</v>
       </c>
       <c r="AY9" t="n">
-        <v>-0.005596904007165447</v>
+        <v>0.01683381639258386</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0.00594058208452471</v>
+        <v>0.01089323430805915</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0006788834975270644</v>
+        <v>0.01157211780558621</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.01249185427805109</v>
+        <v>0.0240639720836373</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0.005520780422626642</v>
+        <v>0.01854319166101066</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0.004987662642736486</v>
+        <v>0.01355552901827417</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.001781960890351272</v>
+        <v>0.01533748990862545</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.00735387506848069</v>
+        <v>0.02269136497710614</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.004490518653455037</v>
+        <v>0.0182008463236511</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0.003405978387868856</v>
+        <v>0.01479486793578224</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.002170324965207918</v>
+        <v>0.01696519290099016</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0043099573420854</v>
+        <v>0.02127515024307556</v>
       </c>
       <c r="BK9" t="n">
-        <v>-0.003473989817821291</v>
+        <v>0.01780116042525427</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.002118104868023506</v>
+        <v>0.01568305555723076</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.002067762435924815</v>
+        <v>0.01775081799315557</v>
       </c>
     </row>
     <row r="10">
@@ -2357,193 +2357,193 @@
         <v>0.1114845094073023</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01958925953740482</v>
+        <v>0.1310737689447072</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.02681719599433372</v>
+        <v>0.1042565729503734</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.020182909614859</v>
+        <v>0.08407366333551443</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01570222990240195</v>
+        <v>0.06837143343311247</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002726544431973788</v>
+        <v>0.07109797786508626</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0107069722095169</v>
+        <v>0.08180495007460316</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006017648086324877</v>
+        <v>0.08782259816092802</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001361716433569723</v>
+        <v>0.08918431459449776</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.002496924300237372</v>
+        <v>0.08668739029426038</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.003752707880180233</v>
+        <v>0.08293468241408014</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.001208795803159771</v>
+        <v>0.08172588661092038</v>
       </c>
       <c r="N10" t="n">
-        <v>0.001600539268279604</v>
+        <v>0.08332642587919999</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00169413091519531</v>
+        <v>0.08502055679439528</v>
       </c>
       <c r="P10" t="n">
-        <v>-5.722797938831266e-05</v>
+        <v>0.08496332881500697</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0006156530886119266</v>
+        <v>0.08434767572639505</v>
       </c>
       <c r="R10" t="n">
         <v>0.007175961879663647</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0001189664679609281</v>
+        <v>0.007294928347624575</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.001189134195509762</v>
+        <v>0.006105794152114813</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.005327009895703685</v>
+        <v>0.0007787842564111286</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.001105464213559017</v>
+        <v>-0.0003266799571478886</v>
       </c>
       <c r="W10" t="n">
-        <v>0.00204051763444926</v>
+        <v>0.001713837677301371</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001722869647881231</v>
+        <v>0.003436707325182602</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.002515271792235963</v>
+        <v>0.000921435532946639</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.0005583158209069411</v>
+        <v>0.0003631197120396979</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001612926346175666</v>
+        <v>0.001976046058215364</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0005847884270152767</v>
+        <v>0.002560834485230641</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.002602725298751369</v>
+        <v>-4.189081352072859e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0005199130377618377</v>
+        <v>-0.0005618038512825663</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.002237904575783984</v>
+        <v>0.001676100724501418</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0008244477761652735</v>
+        <v>0.002500548500666692</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.002500548500666981</v>
+        <v>-2.897300904808494e-16</v>
       </c>
       <c r="AH10" t="n">
         <v>0.005361071359106392</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.008248659745643188</v>
+        <v>0.01360973110474958</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.003318473387698011</v>
+        <v>0.01692820449244759</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.003504680853363326</v>
+        <v>0.01342352363908426</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.001017979754482965</v>
+        <v>0.0124055438846013</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.004447776925008663</v>
+        <v>0.01685332080960996</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.002416971515470436</v>
+        <v>0.0192702923250804</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.002835798883715077</v>
+        <v>0.01643449344136532</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.000554348595604295</v>
+        <v>0.01588014484576103</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.004230942785216834</v>
+        <v>0.02011108763097786</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.001606589432616638</v>
+        <v>0.0217176770635945</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.003726559879107418</v>
+        <v>0.01799111718448708</v>
       </c>
       <c r="AT10" t="n">
-        <v>-0.001188451337797159</v>
+        <v>0.01680266584668992</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.00414070058188521</v>
+        <v>0.02094336642857513</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.001710700684317073</v>
+        <v>0.02265406711289221</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0.003795430861495453</v>
+        <v>0.01885863625139675</v>
       </c>
       <c r="AX10" t="n">
         <v>-0.01979969148272501</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0007272646890999498</v>
+        <v>-0.01907242679362506</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.006782807860797935</v>
+        <v>-0.01228961893282713</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.239495988906084e-05</v>
+        <v>-0.01227722397293807</v>
       </c>
       <c r="BB10" t="n">
-        <v>-0.01608110750321561</v>
+        <v>-0.02835833147615367</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.00025064950784472</v>
+        <v>-0.02810768196830895</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.009967181758112764</v>
+        <v>-0.01814050021019619</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0003634164004483043</v>
+        <v>-0.01777708380974788</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.01422395599035468</v>
+        <v>-0.03200103980010256</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.0001288277112023088</v>
+        <v>-0.03212986751130487</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.01146695600124454</v>
+        <v>-0.02066291151006033</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0005523677548277513</v>
+        <v>-0.02011054375523258</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-0.01351795066518778</v>
+        <v>-0.03362849442042036</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.0004833332183095495</v>
+        <v>-0.03411182763872991</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.01230140024133032</v>
+        <v>-0.02181042739739959</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0008154603967292467</v>
+        <v>-0.02099496700067035</v>
       </c>
     </row>
     <row r="11">
@@ -2556,193 +2556,193 @@
         <v>0.07821463439539741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0324029261325355</v>
+        <v>0.1106175605279329</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02189848154247925</v>
+        <v>0.08871907898545368</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01053590009239624</v>
+        <v>0.07818317889305745</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01619900997502233</v>
+        <v>0.06198416891803513</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005402263549615025</v>
+        <v>0.06738643246765015</v>
       </c>
       <c r="H11" t="n">
-        <v>0.008201530035912586</v>
+        <v>0.07558796250356274</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0112063934022368</v>
+        <v>0.08679435590579954</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.005771671490140376</v>
+        <v>0.08102268441565917</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.00150693846699927</v>
+        <v>0.0795157459486599</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.006123038299867572</v>
+        <v>0.07339270764879233</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005431006293075293</v>
+        <v>0.07882371394186762</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.002518996203981649</v>
+        <v>0.07630471773788597</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003770706361748829</v>
+        <v>0.08007542409963479</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.003093745343183535</v>
+        <v>0.07698167875645126</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.00421848537489471</v>
+        <v>0.08120016413134597</v>
       </c>
       <c r="R11" t="n">
         <v>0.0299810241026415</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.006892721261614504</v>
+        <v>0.023088302841027</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.01403108870200275</v>
+        <v>0.009057214139024251</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.01437581854804195</v>
+        <v>-0.005318604409017697</v>
       </c>
       <c r="V11" t="n">
-        <v>0.003878810439679205</v>
+        <v>-0.001439793969338492</v>
       </c>
       <c r="W11" t="n">
-        <v>0.005418842446831297</v>
+        <v>0.003979048477492805</v>
       </c>
       <c r="X11" t="n">
-        <v>0.006411728920580484</v>
+        <v>0.01039077739807329</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.007441921492445332</v>
+        <v>0.002948855905627958</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.002209773722632226</v>
+        <v>0.005158629628260184</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.001298418628380686</v>
+        <v>0.003860210999879498</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.001688112214645529</v>
+        <v>0.005548323214525027</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.005932925248257477</v>
+        <v>-0.000384602033732449</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.005338611563469212</v>
+        <v>0.004954009529736763</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0005092607843697933</v>
+        <v>0.005463270314106556</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.001420783760981754</v>
+        <v>0.006884054075088311</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.006884054075089128</v>
+        <v>-8.176515475368699e-16</v>
       </c>
       <c r="AH11" t="n">
         <v>0.02144058037354417</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.01341577799360593</v>
+        <v>0.008024802379938236</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01133043039189364</v>
+        <v>0.01935523277183187</v>
       </c>
       <c r="AK11" t="n">
-        <v>-0.007225004788451489</v>
+        <v>0.01213022798338038</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.01997070697797164</v>
+        <v>0.03210093496135203</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.01745561115159072</v>
+        <v>0.01464532380976131</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.004309801234658806</v>
+        <v>0.01895512504442011</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.007639512989179371</v>
+        <v>0.01131561205524074</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.02025639014652501</v>
+        <v>0.03157200220176574</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0.01601982863782794</v>
+        <v>0.01555217356393781</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.004912036430377088</v>
+        <v>0.02046420999431489</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.007927372324028091</v>
+        <v>0.0125368376702868</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.01839310424480534</v>
+        <v>0.03092994191509215</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.01587176289514531</v>
+        <v>0.01505817901994684</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.005233693075381141</v>
+        <v>0.02029187209532798</v>
       </c>
       <c r="AW11" t="n">
-        <v>-0.007204826900135724</v>
+        <v>0.01308704519519225</v>
       </c>
       <c r="AX11" t="n">
         <v>-0.03652315773760919</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.02019347324446199</v>
+        <v>-0.01632968449314719</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0117198863819486</v>
+        <v>-0.004609798111198591</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0003622065788794666</v>
+        <v>-0.004247591532319125</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.03268725039234715</v>
+        <v>-0.03693484192466627</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.01912988959698931</v>
+        <v>-0.01780495232767696</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.009847109834452359</v>
+        <v>-0.007957842493224603</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.001323758348851361</v>
+        <v>-0.006634084144373243</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0.02963407924393776</v>
+        <v>-0.036268163388311</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.01942085895507964</v>
+        <v>-0.01684730443323136</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.008720996570853906</v>
+        <v>-0.008126307862377452</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0004054828402047269</v>
+        <v>-0.007720825022172725</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.0281029185475924</v>
+        <v>-0.03582374356976513</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.01933098924675948</v>
+        <v>-0.01649275432300565</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.007921194718008907</v>
+        <v>-0.00857155960499674</v>
       </c>
       <c r="BM11" t="n">
-        <v>7.683701087346604e-05</v>
+        <v>-0.008494722594123275</v>
       </c>
     </row>
     <row r="12">
@@ -2755,193 +2755,193 @@
         <v>0.1201374944014003</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01624618604089774</v>
+        <v>0.136383680442298</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.02851320849512745</v>
+        <v>0.1078704719471706</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01440841423213951</v>
+        <v>0.09346205771503108</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.005977824720501138</v>
+        <v>0.08748423299452994</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002501354195276647</v>
+        <v>0.08998558718980658</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004257906058907636</v>
+        <v>0.09424349324871421</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001073797310186673</v>
+        <v>0.09531729055890088</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001079925207997208</v>
+        <v>0.09639721576689808</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0003345230584816239</v>
+        <v>0.09606269270841646</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.001989739787553721</v>
+        <v>0.09407295292086273</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0007921907379329464</v>
+        <v>0.0932807621829298</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001643445383001929</v>
+        <v>0.09492420756593174</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0008153042523850248</v>
+        <v>0.09573951181831677</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.001263396867393541</v>
+        <v>0.09447611495092323</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0007183970545172103</v>
+        <v>0.09375771789640602</v>
       </c>
       <c r="R12" t="n">
         <v>0.003445934511903753</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.0006840434124073621</v>
+        <v>0.002761891099496391</v>
       </c>
       <c r="T12" t="n">
-        <v>0.004473656102066033</v>
+        <v>0.007235547201562424</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.008874856865760188</v>
+        <v>-0.001639309664197764</v>
       </c>
       <c r="V12" t="n">
-        <v>0.0008459582518648423</v>
+        <v>-0.0007933514123329221</v>
       </c>
       <c r="W12" t="n">
-        <v>0.004494565983659266</v>
+        <v>0.003701214571326344</v>
       </c>
       <c r="X12" t="n">
-        <v>0.002603758373585953</v>
+        <v>0.006304972944912298</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.006720007783778828</v>
+        <v>-0.0004150348388665309</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.000263703716699682</v>
+        <v>-0.000678738555566213</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.004720963891778226</v>
+        <v>0.004042225336212013</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.001588616283726303</v>
+        <v>0.005630841619938317</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.005795064044102124</v>
+        <v>-0.0001642224241638071</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.0005425102606134274</v>
+        <v>-0.0007067326847772345</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.004926986096208777</v>
+        <v>0.004220253411431544</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.001094086627531794</v>
+        <v>0.005314340038963338</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.005314340038960817</v>
+        <v>2.520185216453342e-15</v>
       </c>
       <c r="AH12" t="n">
         <v>-0.000428933393744838</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.01289928940717105</v>
+        <v>0.01247035601342621</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.005435314784045745</v>
+        <v>0.01790567079747196</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.003742487789563279</v>
+        <v>0.01416318300790868</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.0007522338058577843</v>
+        <v>0.0134109492020509</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.006824024275918611</v>
+        <v>0.0202349734779695</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.001550566297910067</v>
+        <v>0.02178553977587957</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.004938414111805011</v>
+        <v>0.01684712566407456</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0.0008508778597000293</v>
+        <v>0.01599624780437453</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.00608973732646415</v>
+        <v>0.02208598513083868</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.001160717297648144</v>
+        <v>0.02324670242848682</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.005300970744525632</v>
+        <v>0.01794573168396119</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0.0009738913643536088</v>
+        <v>0.01697184031960758</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.00552882585828664</v>
+        <v>0.02250066617789422</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.0009269769236143479</v>
+        <v>0.02342764310150857</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.005186950044610627</v>
+        <v>0.01824069305689794</v>
       </c>
       <c r="AX12" t="n">
         <v>-0.03656083327865135</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.003620718176743087</v>
+        <v>-0.03294011510190827</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.01362247027998238</v>
+        <v>-0.01931764482192588</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.000312091818777486</v>
+        <v>-0.0190055530031484</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0.02674274427936797</v>
+        <v>-0.04574829728251637</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.003306119832932498</v>
+        <v>-0.04244217744958387</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.01789940228896743</v>
+        <v>-0.02454277516061644</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.0007909703896688162</v>
+        <v>-0.02533374555028526</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.02246649961692324</v>
+        <v>-0.0478002451672085</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.002975832219089229</v>
+        <v>-0.04482441294811927</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.01877745529433595</v>
+        <v>-0.02604695765378332</v>
       </c>
       <c r="BI12" t="n">
-        <v>-0.00170134662889149</v>
+        <v>-0.02774830428267481</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.02025606406676134</v>
+        <v>-0.04800436834943615</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.002862521049786874</v>
+        <v>-0.04514184729964928</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.01850883041745632</v>
+        <v>-0.02663301688219296</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0.002311380046451804</v>
+        <v>-0.02894439692864476</v>
       </c>
     </row>
     <row r="13">
@@ -2954,193 +2954,193 @@
         <v>0.1441925163362647</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02322995016426798</v>
+        <v>0.1674224665005327</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.04648786955938333</v>
+        <v>0.1209345969411494</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.01333724049636174</v>
+        <v>0.1075973564447876</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0003703326619690489</v>
+        <v>0.1072270237828186</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.008826917814218361</v>
+        <v>0.09840010596860022</v>
       </c>
       <c r="H13" t="n">
-        <v>0.002905272145089466</v>
+        <v>0.1013053781136897</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005719693535555975</v>
+        <v>0.1070250716492457</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007281555080723938</v>
+        <v>0.1143066267299696</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.003539287716440728</v>
+        <v>0.1107673390135289</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.00381286097615667</v>
+        <v>0.1069544780373722</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001874225371966854</v>
+        <v>0.1050802526654054</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004299069524817241</v>
+        <v>0.1093793221902226</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.001154167430329812</v>
+        <v>0.1082251547598928</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0004563782623658965</v>
+        <v>0.1077687764975269</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001046833875624656</v>
+        <v>0.1067219426219022</v>
       </c>
       <c r="R13" t="n">
         <v>0.005077326730562156</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.01037152412781794</v>
+        <v>-0.005294197397255784</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.001523450543296867</v>
+        <v>-0.006817647940552653</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.006117077008072608</v>
+        <v>-0.01293472494862526</v>
       </c>
       <c r="V13" t="n">
-        <v>0.02237847514862682</v>
+        <v>0.009443750200001558</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.001743595335076124</v>
+        <v>0.007700154864925435</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.003091149507471459</v>
+        <v>0.004609005357453976</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.009290965677227753</v>
+        <v>-0.004681960319773777</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01145305563258934</v>
+        <v>0.006771095312815568</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.003278795637371457</v>
+        <v>0.003492299675444112</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.001509149307104718</v>
+        <v>0.00500144898254883</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.006452945183464369</v>
+        <v>-0.00145149620091554</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.007849489950726414</v>
+        <v>0.006397993749810873</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.003313659958988205</v>
+        <v>0.003084333790822669</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.002343552756573528</v>
+        <v>0.005427886547396198</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.005427886547398481</v>
+        <v>-2.283934413281032e-15</v>
       </c>
       <c r="AH13" t="n">
         <v>0.0007080359566224539</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.007922147948746249</v>
+        <v>0.008630183905368701</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.002114965593483649</v>
+        <v>0.01074514949885235</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0.00213208949757084</v>
+        <v>0.008613060001281512</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0.005702870338771252</v>
+        <v>0.002910189662510259</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.002652645041534228</v>
+        <v>0.005562834704044487</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.001551573186887318</v>
+        <v>0.007114407890931804</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0006174573485359754</v>
+        <v>0.007731865239467779</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0.002798506052677924</v>
+        <v>0.004933359186789854</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.001767161753045131</v>
+        <v>0.006700520939834985</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0001501254664685066</v>
+        <v>0.006850646406303492</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0005628185368172532</v>
+        <v>0.007413464943120745</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.001999868696641588</v>
+        <v>0.005413596246479156</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.001229872572606048</v>
+        <v>0.006643468819085205</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.0001544786633285754</v>
+        <v>0.006488990155756629</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.000754334626293878</v>
+        <v>0.007243324782050507</v>
       </c>
       <c r="AX13" t="n">
         <v>-0.01894598096702113</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.002564647378749539</v>
+        <v>-0.0163813335882716</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-0.0008165007061821364</v>
+        <v>-0.01719783429445373</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.004444239268445193</v>
+        <v>-0.01275359502600854</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.009679728205616885</v>
+        <v>-0.02243332323162542</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.003832924264335044</v>
+        <v>-0.01860039896729038</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0.001681483336539825</v>
+        <v>-0.0202818823038302</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.004432763344568579</v>
+        <v>-0.01584911895926162</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.006597356071904276</v>
+        <v>-0.0224464750311659</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.003365249693006239</v>
+        <v>-0.01908122533815966</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0.002188342183453861</v>
+        <v>-0.02126956752161352</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.004011731550489647</v>
+        <v>-0.01725783597112387</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.004683729720975812</v>
+        <v>-0.02194156569209968</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.002945469271487499</v>
+        <v>-0.01899609642061218</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.002387049129027134</v>
+        <v>-0.02138314554963932</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.003368534012087099</v>
+        <v>-0.01801461153755222</v>
       </c>
     </row>
     <row r="14">
@@ -3153,193 +3153,193 @@
         <v>0.05256952307929543</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01496841874539185</v>
+        <v>0.06753794182468728</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.009715080428997668</v>
+        <v>0.05782286139568961</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0066418443949484</v>
+        <v>0.05118101700074121</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0004913403774513323</v>
+        <v>0.05167235737819253</v>
       </c>
       <c r="G14" t="n">
-        <v>0.001818736662241105</v>
+        <v>0.05349109404043365</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000436615840412976</v>
+        <v>0.05392770988084662</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0003233022277292982</v>
+        <v>0.05360440765311732</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.0002121775290447587</v>
+        <v>0.05339223012407256</v>
       </c>
       <c r="K14" t="n">
-        <v>1.546284924021184e-05</v>
+        <v>0.05340769297331277</v>
       </c>
       <c r="L14" t="n">
-        <v>5.895905685665595e-05</v>
+        <v>0.05346665203016943</v>
       </c>
       <c r="M14" t="n">
-        <v>1.461107786306224e-05</v>
+        <v>0.05348126310803249</v>
       </c>
       <c r="N14" t="n">
-        <v>-1.04616255255644e-05</v>
+        <v>0.05347080148250693</v>
       </c>
       <c r="O14" t="n">
-        <v>-7.018811391197836e-06</v>
+        <v>0.05346378267111573</v>
       </c>
       <c r="P14" t="n">
-        <v>4.677818813050467e-07</v>
+        <v>0.05346425045299703</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.939036024625006e-06</v>
+        <v>0.05346618948902165</v>
       </c>
       <c r="R14" t="n">
         <v>0.01121702738571454</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.006113627701764361</v>
+        <v>0.005103399683950181</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.007695465416519777</v>
+        <v>-0.002592065732569597</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0003802060196091363</v>
+        <v>-0.002211859712960461</v>
       </c>
       <c r="V14" t="n">
-        <v>0.002330905201710854</v>
+        <v>0.000119045488750394</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0004837135169711796</v>
+        <v>0.0006027590057215735</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.0004614196045211812</v>
+        <v>0.0001413394012003923</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.0002505829067965772</v>
+        <v>-0.0001092435055961849</v>
       </c>
       <c r="Z14" t="n">
-        <v>4.009535899534814e-05</v>
+        <v>-6.914814660083676e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>7.45390181096485e-05</v>
+        <v>5.390871508811749e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.317182970189058e-05</v>
+        <v>1.856270121070233e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>-1.467250853232712e-05</v>
+        <v>3.890192678375215e-06</v>
       </c>
       <c r="AD14" t="n">
-        <v>-7.981349729419007e-06</v>
+        <v>-4.091157051043793e-06</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.217085615958018e-06</v>
+        <v>-2.874071435085774e-06</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.422200231353074e-06</v>
+        <v>-4.518712037327004e-07</v>
       </c>
       <c r="AG14" t="n">
-        <v>4.518712111450189e-07</v>
+        <v>7.412318445881251e-15</v>
       </c>
       <c r="AH14" t="n">
         <v>0.001614913712371265</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.002194431755837702</v>
+        <v>0.003809345468208967</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.0002734016369966147</v>
+        <v>0.003535943831212352</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.000799027735579298</v>
+        <v>0.002736916095633054</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.0001112818544559942</v>
+        <v>0.00262563424117706</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.0001817379221016016</v>
+        <v>0.002807372163278662</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.700575731044351e-05</v>
+        <v>0.002884377920589105</v>
       </c>
       <c r="AO14" t="n">
-        <v>-2.311965848710514e-05</v>
+        <v>0.002861258262102</v>
       </c>
       <c r="AP14" t="n">
-        <v>-2.592902945120179e-05</v>
+        <v>0.002835329232650798</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-2.195538328928814e-06</v>
+        <v>0.002833133694321869</v>
       </c>
       <c r="AR14" t="n">
-        <v>5.818813870563539e-06</v>
+        <v>0.002838952508192432</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.388641036425902e-06</v>
+        <v>0.002841341149228858</v>
       </c>
       <c r="AT14" t="n">
-        <v>-7.235968605543228e-07</v>
+        <v>0.002840617552368304</v>
       </c>
       <c r="AU14" t="n">
-        <v>-8.377381798553856e-07</v>
+        <v>0.002839779814188448</v>
       </c>
       <c r="AV14" t="n">
-        <v>-7.947246569903488e-08</v>
+        <v>0.002839700341722749</v>
       </c>
       <c r="AW14" t="n">
-        <v>1.89073829369893e-07</v>
+        <v>0.002839889415552119</v>
       </c>
       <c r="AX14" t="n">
         <v>-0.01198669881762288</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.0005586280757618001</v>
+        <v>-0.01142807074186108</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.0005539110711255289</v>
+        <v>-0.01087415967073555</v>
       </c>
       <c r="BA14" t="n">
-        <v>-0.0002847916442406274</v>
+        <v>-0.01115895131497618</v>
       </c>
       <c r="BB14" t="n">
-        <v>8.335579699091228e-05</v>
+        <v>-0.01107559551798527</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.0001149365417884598</v>
+        <v>-0.01096065897619681</v>
       </c>
       <c r="BD14" t="n">
-        <v>-2.076154584603074e-05</v>
+        <v>-0.01098142052204284</v>
       </c>
       <c r="BE14" t="n">
-        <v>-3.550536394406773e-05</v>
+        <v>-0.01101692588598691</v>
       </c>
       <c r="BF14" t="n">
-        <v>-1.947810207449096e-06</v>
+        <v>-0.01101887369619436</v>
       </c>
       <c r="BG14" t="n">
-        <v>8.181038425129247e-06</v>
+        <v>-0.01101069265776923</v>
       </c>
       <c r="BH14" t="n">
-        <v>2.651687324462736e-06</v>
+        <v>-0.01100804097044476</v>
       </c>
       <c r="BI14" t="n">
-        <v>-1.201659352556539e-06</v>
+        <v>-0.01100924262979732</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-1.011720132832226e-06</v>
+        <v>-0.01101025434993015</v>
       </c>
       <c r="BK14" t="n">
-        <v>-1.928422895005216e-08</v>
+        <v>-0.0110102736341591</v>
       </c>
       <c r="BL14" t="n">
-        <v>2.480460832456869e-07</v>
+        <v>-0.01101002558807586</v>
       </c>
       <c r="BM14" t="n">
-        <v>8.394872671366621e-08</v>
+        <v>-0.01100994163934914</v>
       </c>
     </row>
     <row r="15">
@@ -3352,193 +3352,193 @@
         <v>0.0800849089710602</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02049750097137827</v>
+        <v>0.1005824099424385</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001392818018163966</v>
+        <v>0.1019752279606024</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01104359493790517</v>
+        <v>0.09093163302269727</v>
       </c>
       <c r="F15" t="n">
-        <v>6.577057204368273e-05</v>
+        <v>0.09099740359474096</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004334443218148765</v>
+        <v>0.09533184681288973</v>
       </c>
       <c r="H15" t="n">
-        <v>0.003321949537820934</v>
+        <v>0.09865379635071066</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0007721055332187038</v>
+        <v>0.09942590188392936</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.0002710481901137943</v>
+        <v>0.09915485369381556</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001285570352539432</v>
+        <v>0.100440424046355</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004125706790729548</v>
+        <v>0.1008529947254279</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0004722271746882209</v>
+        <v>0.1013252219001162</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.0003245481786572173</v>
+        <v>0.1010006737214589</v>
       </c>
       <c r="O15" t="n">
-        <v>0.0009839031545346368</v>
+        <v>0.1019845768759936</v>
       </c>
       <c r="P15" t="n">
-        <v>7.318130400827274e-05</v>
+        <v>0.1020577581800018</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.000299004733880447</v>
+        <v>0.1023567629138823</v>
       </c>
       <c r="R15" t="n">
         <v>0.03229289491878043</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.003984354279537212</v>
+        <v>0.02830854063924322</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.005623448102711605</v>
+        <v>0.02268509253653161</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.009031817094128194</v>
+        <v>0.01365327544240342</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.002255908968536659</v>
+        <v>0.01139736647386676</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.004544963111764132</v>
+        <v>0.006852403362102628</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.0001831772385121752</v>
+        <v>0.006669226123590452</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.0009118766221699844</v>
+        <v>0.005757349501420469</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.74064924806694e-05</v>
+        <v>0.005804755993901138</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.003382124547357783</v>
+        <v>0.002422631446543355</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.0004127823349160815</v>
+        <v>0.002009849111627273</v>
       </c>
       <c r="AC15" t="n">
-        <v>-0.0004418321659074246</v>
+        <v>0.001568016945719849</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.001086780673311214</v>
+        <v>0.002654797619031062</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.002036073167016101</v>
+        <v>0.000618724452014962</v>
       </c>
       <c r="AF15" t="n">
-        <v>-8.999211361345868e-05</v>
+        <v>0.0005287323384015034</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.0005287323384353288</v>
+        <v>-3.382537305807185e-14</v>
       </c>
       <c r="AH15" t="n">
         <v>0.0124283093921153</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.001418158724264713</v>
+        <v>0.01101015066785059</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0005394420252026817</v>
+        <v>0.01154959269305327</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.003070465034918139</v>
+        <v>0.008479127658135133</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.01230907816049441</v>
+        <v>0.02078820581862954</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.001214137968316361</v>
+        <v>0.01957406785031318</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0006954154149000798</v>
+        <v>0.02026948326521326</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.005818009565030829</v>
+        <v>0.01445147370018243</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.008654414569338268</v>
+        <v>0.0231058882695207</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0.001231972637271111</v>
+        <v>0.02187391563224959</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.001856406486728623</v>
+        <v>0.02373032211897822</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.006125087744276793</v>
+        <v>0.01760523437470142</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.006261740032125075</v>
+        <v>0.0238669744068265</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.001477484656942826</v>
+        <v>0.02238948974988367</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.002687287380106354</v>
+        <v>0.02507677712999003</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.005735944383754998</v>
+        <v>0.01934083274623503</v>
       </c>
       <c r="AX15" t="n">
         <v>-0.03996281084950496</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.003574519183770023</v>
+        <v>-0.03638829166573494</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.002255009542441989</v>
+        <v>-0.03413328212329295</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.01067779366606057</v>
+        <v>-0.02345548845723239</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.02585354081152401</v>
+        <v>-0.0493090292687564</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.003137549310304293</v>
+        <v>-0.04617147995845211</v>
       </c>
       <c r="BD15" t="n">
-        <v>-0.0007482171399481542</v>
+        <v>-0.04691969709840026</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.0133242709770231</v>
+        <v>-0.03359542612137716</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.0184811998849945</v>
+        <v>-0.05207662600637166</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.002960851601958382</v>
+        <v>-0.04911577440441328</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0.003461092038109556</v>
+        <v>-0.05257686644252284</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.01360742985435924</v>
+        <v>-0.0389694365881636</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-0.0135591744647527</v>
+        <v>-0.05252861105291631</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.003190458355351566</v>
+        <v>-0.04933815269756475</v>
       </c>
       <c r="BL15" t="n">
-        <v>-0.005533049742910166</v>
+        <v>-0.05487120244047491</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.01264045896295694</v>
+        <v>-0.04223074347751796</v>
       </c>
     </row>
     <row r="16">
@@ -3551,193 +3551,193 @@
         <v>0.1005829359025959</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01555503232065465</v>
+        <v>0.1161379682232506</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02245377163928906</v>
+        <v>0.09368419658396152</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01579360548718215</v>
+        <v>0.07789059109677936</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01071379084797534</v>
+        <v>0.06717680024880403</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004085983993642055</v>
+        <v>0.07126278424244609</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009119498299359857</v>
+        <v>0.08038228254180595</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002910917174574124</v>
+        <v>0.08329319971638006</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.002098143852451621</v>
+        <v>0.08119505586392844</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.001865570136085937</v>
+        <v>0.07932948572784251</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0001128592289035738</v>
+        <v>0.07921662649893893</v>
       </c>
       <c r="M16" t="n">
-        <v>3.159574136200987e-05</v>
+        <v>0.07924822224030095</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0005276283580704514</v>
+        <v>0.0787205938822305</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0006391244158082076</v>
+        <v>0.07935971829803871</v>
       </c>
       <c r="P16" t="n">
-        <v>0.001100334758174075</v>
+        <v>0.08046005305621279</v>
       </c>
       <c r="Q16" t="n">
-        <v>-0.0002745706744247044</v>
+        <v>0.08018548238178808</v>
       </c>
       <c r="R16" t="n">
         <v>0.01711655836651353</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.007010035067536466</v>
+        <v>0.01010652329897706</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.009813616618015841</v>
+        <v>0.0002929066809612214</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.0006720727472194186</v>
+        <v>-0.0003791660662581972</v>
       </c>
       <c r="V16" t="n">
-        <v>0.006159689229431268</v>
+        <v>0.00578052316317307</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.003408184343117422</v>
+        <v>0.002372338820055648</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.0029915420828933</v>
+        <v>-0.0006192032628376518</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001146878357434299</v>
+        <v>0.0005276750945966475</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.00606707061585283</v>
+        <v>0.006594745710449477</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.004264053426154693</v>
+        <v>0.002330692284294783</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.003470075501529849</v>
+        <v>-0.001139383217235066</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.001011841021465518</v>
+        <v>-0.0001275421957695479</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.006149081650651118</v>
+        <v>0.00602153945488157</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.00373174578454892</v>
+        <v>0.00228979367033265</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.002990958575079942</v>
+        <v>-0.0007011649047472918</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.0007011649047438073</v>
+        <v>-3.484544841477647e-15</v>
       </c>
       <c r="AH16" t="n">
         <v>0.003257656937886168</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.001888708649143311</v>
+        <v>0.005146365587029481</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.0006279228610385739</v>
+        <v>0.004518442725990906</v>
       </c>
       <c r="AK16" t="n">
-        <v>-7.392415853523864e-05</v>
+        <v>0.004444518567455667</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.001666993389159078</v>
+        <v>0.006111511956614746</v>
       </c>
       <c r="AM16" t="n">
-        <v>4.214061797761384e-06</v>
+        <v>0.006115726018412508</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0.001241838469564938</v>
+        <v>0.004873887548847569</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.0001659970563821797</v>
+        <v>0.00470789049246539</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.001661329260260672</v>
+        <v>0.006369219752726062</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5.530772527404516e-05</v>
+        <v>0.006424527478000107</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0.0012301042003635</v>
+        <v>0.005194423277636607</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0.0003089698878424954</v>
+        <v>0.004885453389794111</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.001457948734218948</v>
+        <v>0.006343402124013059</v>
       </c>
       <c r="AU16" t="n">
-        <v>2.077891016143641e-05</v>
+        <v>0.006364181034174496</v>
       </c>
       <c r="AV16" t="n">
-        <v>-0.001105121100147935</v>
+        <v>0.00525905993402656</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0.0002870361811867574</v>
+        <v>0.004972023752839803</v>
       </c>
       <c r="AX16" t="n">
         <v>-0.01275471350111195</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.005016914771259346</v>
+        <v>-0.007737798729852603</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.002196509703386075</v>
+        <v>-0.005541289026466528</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.002064065167081126</v>
+        <v>-0.003477223859385402</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.01116502872085612</v>
+        <v>-0.01464225258024152</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.005555110970274411</v>
+        <v>-0.009087141609967112</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.002120812991641754</v>
+        <v>-0.006966328618325357</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.002638819070571156</v>
+        <v>-0.004327509547754201</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0.01042838381628871</v>
+        <v>-0.01475589336404291</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.005628337222494595</v>
+        <v>-0.009127556141548318</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.001650282933506792</v>
+        <v>-0.007477273208041527</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.002864023100651612</v>
+        <v>-0.004613250107389915</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.009954954042735421</v>
+        <v>-0.01456820415012534</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.005586664359828655</v>
+        <v>-0.008981539790296681</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.001158293888980956</v>
+        <v>-0.007823245901315725</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.003043442298726664</v>
+        <v>-0.004779803602589061</v>
       </c>
     </row>
     <row r="17">
@@ -3750,193 +3750,193 @@
         <v>0.1456463166488213</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03033443213212286</v>
+        <v>0.1759807487809442</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.03081293694257089</v>
+        <v>0.1451678118383733</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01158490433985697</v>
+        <v>0.1335829074985163</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01420222391787166</v>
+        <v>0.1193806835806447</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.003064765391101889</v>
+        <v>0.1163159181895428</v>
       </c>
       <c r="H17" t="n">
-        <v>0.007847792589574906</v>
+        <v>0.1241637107791177</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005692987824345676</v>
+        <v>0.1298566986034634</v>
       </c>
       <c r="J17" t="n">
-        <v>0.000944007198004119</v>
+        <v>0.1308007058014675</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001071567385953789</v>
+        <v>0.1297291384155137</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001984031684201541</v>
+        <v>0.1277451067313122</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003867169760279532</v>
+        <v>0.1281318237073401</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0001795506999276185</v>
+        <v>0.1283113744072677</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.000167124475045607</v>
+        <v>0.1281442499322221</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0002670607236212474</v>
+        <v>0.1278771892086009</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.001113353347598695</v>
+        <v>0.1289905425561996</v>
       </c>
       <c r="R17" t="n">
         <v>0.01117428600355926</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.00123515724024404</v>
+        <v>0.009939128763315225</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.003794701871568576</v>
+        <v>0.006144426891746648</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.005435379325641103</v>
+        <v>0.0007090475661055454</v>
       </c>
       <c r="V17" t="n">
-        <v>0.001561270884116699</v>
+        <v>0.002270318450222245</v>
       </c>
       <c r="W17" t="n">
-        <v>0.0004700409495904489</v>
+        <v>0.002740359399812693</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0008482949669755941</v>
+        <v>0.003588654366788288</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.003243169677336711</v>
+        <v>0.0003454846894515763</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.002525336722836882</v>
+        <v>0.002870821412288458</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.0002407115592538752</v>
+        <v>0.003111532971542334</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.0001257914024096203</v>
+        <v>0.003237324373951954</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.003344005526404082</v>
+        <v>-0.0001066811524521286</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.002546950009363533</v>
+        <v>0.002440268856911404</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.0004561495813939044</v>
+        <v>0.002896418438305309</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0003121157542944146</v>
+        <v>0.003208534192599723</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.00320853419259029</v>
+        <v>9.433086134341211e-15</v>
       </c>
       <c r="AH17" t="n">
         <v>0.01467034849747031</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.01020713733759337</v>
+        <v>0.02487748583506368</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0008662884506006477</v>
+        <v>0.02574377428566433</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.003535629620325544</v>
+        <v>0.02220814466533878</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.006363233301778001</v>
+        <v>0.02857137796711678</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.002317644038055856</v>
+        <v>0.03088902200517264</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.002453677691843322</v>
+        <v>0.02843534431332932</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.004220762278389488</v>
+        <v>0.02421458203493983</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.006172060268482197</v>
+        <v>0.03038664230342203</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.00235987572629235</v>
+        <v>0.03274651802971437</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.002741386188418029</v>
+        <v>0.03000513184129635</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.004747970907771245</v>
+        <v>0.0252571609335251</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.005489967171982291</v>
+        <v>0.03074712810550739</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.002139379614905879</v>
+        <v>0.03288650772041327</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0.002670410429763808</v>
+        <v>0.03021609729064946</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0.004664202013316787</v>
+        <v>0.02555189527733267</v>
       </c>
       <c r="AX17" t="n">
         <v>-0.02537945908230997</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.008873642043828322</v>
+        <v>-0.01650581703848165</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.005559747927521847</v>
+        <v>-0.0109460691109598</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.003480159974646017</v>
+        <v>-0.007465909136313781</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.02273293111875062</v>
+        <v>-0.0301988402550644</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.009643296408814219</v>
+        <v>-0.02055554384625018</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.006571223421777957</v>
+        <v>-0.01398432042447222</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.004458176352763958</v>
+        <v>-0.009526144071708266</v>
       </c>
       <c r="BF17" t="n">
-        <v>-0.02141690346055182</v>
+        <v>-0.03094304753226008</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.009506957767041569</v>
+        <v>-0.02143608976521852</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.00666809521076553</v>
+        <v>-0.01476799455445298</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.004659759947385143</v>
+        <v>-0.01010823460706784</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.02066050922896417</v>
+        <v>-0.03076874383603201</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.009060327017530638</v>
+        <v>-0.02170841681850138</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.006583882436871645</v>
+        <v>-0.01512453438162973</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.004748619368892353</v>
+        <v>-0.01037591501273738</v>
       </c>
     </row>
     <row r="18">
@@ -3949,193 +3949,193 @@
         <v>0.07899288534864324</v>
       </c>
       <c r="C18" t="n">
-        <v>0.02075591533907071</v>
+        <v>0.09974880068771395</v>
       </c>
       <c r="D18" t="n">
-        <v>0.005507411846110722</v>
+        <v>0.1052562125338247</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001488552793917891</v>
+        <v>0.1067447653277426</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0004159894992588411</v>
+        <v>0.1071607548270014</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000122986084646586</v>
+        <v>0.107283740911648</v>
       </c>
       <c r="H18" t="n">
-        <v>3.957099540922509e-05</v>
+        <v>0.1073233119070572</v>
       </c>
       <c r="I18" t="n">
-        <v>1.417886794181181e-05</v>
+        <v>0.107337490774999</v>
       </c>
       <c r="J18" t="n">
-        <v>5.679613382833615e-06</v>
+        <v>0.1073431703883819</v>
       </c>
       <c r="K18" t="n">
-        <v>2.497849524268242e-06</v>
+        <v>0.1073456682379061</v>
       </c>
       <c r="L18" t="n">
-        <v>1.17263176808191e-06</v>
+        <v>0.1073468408696742</v>
       </c>
       <c r="M18" t="n">
-        <v>5.729472081690092e-07</v>
+        <v>0.1073474138168824</v>
       </c>
       <c r="N18" t="n">
-        <v>2.86312411912069e-07</v>
+        <v>0.1073477001292943</v>
       </c>
       <c r="O18" t="n">
-        <v>1.448128648752119e-07</v>
+        <v>0.1073478449421592</v>
       </c>
       <c r="P18" t="n">
-        <v>7.370751964945271e-08</v>
+        <v>0.1073479186496788</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.763800193911678e-08</v>
+        <v>0.1073479562876808</v>
       </c>
       <c r="R18" t="n">
         <v>0.0003824588139998825</v>
       </c>
       <c r="S18" t="n">
-        <v>-8.705821986987309e-05</v>
+        <v>0.0002954005941300094</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.000118200750341688</v>
+        <v>0.0001771998437883215</v>
       </c>
       <c r="U18" t="n">
-        <v>-7.969966870488667e-05</v>
+        <v>9.750017508343482e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>-4.581200830279244e-05</v>
+        <v>5.168816678064239e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>-2.476668464582382e-05</v>
+        <v>2.692148213481857e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>-1.302617510210955e-05</v>
+        <v>1.389530703270902e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>-6.761708293020454e-06</v>
+        <v>7.13359873968857e-06</v>
       </c>
       <c r="Z18" t="n">
-        <v>-3.487242647254887e-06</v>
+        <v>3.646356092433683e-06</v>
       </c>
       <c r="AA18" t="n">
-        <v>-1.792671507668206e-06</v>
+        <v>1.853684584765477e-06</v>
       </c>
       <c r="AB18" t="n">
-        <v>-9.200477556964446e-07</v>
+        <v>9.336368290690324e-07</v>
       </c>
       <c r="AC18" t="n">
-        <v>-4.718039754875269e-07</v>
+        <v>4.618328535815055e-07</v>
       </c>
       <c r="AD18" t="n">
-        <v>-2.418417399102166e-07</v>
+        <v>2.199911136712889e-07</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.239392500425237e-07</v>
+        <v>9.605186362876522e-08</v>
       </c>
       <c r="AF18" t="n">
-        <v>-6.35096575946915e-08</v>
+        <v>3.254220603407371e-08</v>
       </c>
       <c r="AG18" t="n">
-        <v>-3.254220560376549e-08</v>
+        <v>4.303082266292313e-16</v>
       </c>
       <c r="AH18" t="n">
         <v>0.0015015586306815</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.002273861694378136</v>
+        <v>0.003775420325059637</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.001556282220765062</v>
+        <v>0.005331702545824698</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0008991234013316408</v>
+        <v>0.006230825947156339</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0004871370401349494</v>
+        <v>0.006717962987291288</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.0002564729080564629</v>
+        <v>0.006974435895347751</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0001331975428530107</v>
+        <v>0.007107633438200762</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.871143358854761e-05</v>
+        <v>0.007176344871789309</v>
       </c>
       <c r="AP18" t="n">
-        <v>3.532656011282593e-05</v>
+        <v>0.007211671431902135</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.813168506579894e-05</v>
+        <v>0.007229803116967934</v>
       </c>
       <c r="AR18" t="n">
-        <v>9.298291191024399e-06</v>
+        <v>0.007239101408158958</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.766282444779304e-06</v>
+        <v>0.007243867690603738</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.442648154090622e-06</v>
+        <v>0.007246310338757829</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.251680871159788e-06</v>
+        <v>0.007247562019628988</v>
       </c>
       <c r="AV18" t="n">
-        <v>6.413598049262689e-07</v>
+        <v>0.007248203379433916</v>
       </c>
       <c r="AW18" t="n">
-        <v>3.286225717448114e-07</v>
+        <v>0.007248532002005661</v>
       </c>
       <c r="AX18" t="n">
         <v>-0.006561960916639166</v>
       </c>
       <c r="AY18" t="n">
-        <v>-0.003340549879133267</v>
+        <v>-0.009902510795772432</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.001705978521162479</v>
+        <v>-0.01160848931693491</v>
       </c>
       <c r="BA18" t="n">
-        <v>-0.0008726301872818239</v>
+        <v>-0.01248111950421674</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0.0004467288978090203</v>
+        <v>-0.01292784840202576</v>
       </c>
       <c r="BC18" t="n">
-        <v>-0.0002287912760983999</v>
+        <v>-0.01315663967812416</v>
       </c>
       <c r="BD18" t="n">
-        <v>-0.0001171998695303381</v>
+        <v>-0.01327383954765449</v>
       </c>
       <c r="BE18" t="n">
-        <v>-6.004289711337722e-05</v>
+        <v>-0.01333388244476787</v>
       </c>
       <c r="BF18" t="n">
-        <v>-3.076237979105877e-05</v>
+        <v>-0.01336464482455893</v>
       </c>
       <c r="BG18" t="n">
-        <v>-1.576123666395073e-05</v>
+        <v>-0.01338040606122288</v>
       </c>
       <c r="BH18" t="n">
-        <v>-8.075450828389063e-06</v>
+        <v>-0.01338848151205127</v>
       </c>
       <c r="BI18" t="n">
-        <v>-4.137579705831596e-06</v>
+        <v>-0.0133926190917571</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-2.119959416508298e-06</v>
+        <v>-0.01339473905117361</v>
       </c>
       <c r="BK18" t="n">
-        <v>-1.086199308503384e-06</v>
+        <v>-0.01339582525048211</v>
       </c>
       <c r="BL18" t="n">
-        <v>-5.565342585390808e-07</v>
+        <v>-0.01339638178474065</v>
       </c>
       <c r="BM18" t="n">
-        <v>-2.851507321178477e-07</v>
+        <v>-0.01339666693547277</v>
       </c>
     </row>
     <row r="19">
@@ -4148,193 +4148,193 @@
         <v>0.0417294442412436</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01601217604766784</v>
+        <v>0.05774162028891144</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.008407438953215671</v>
+        <v>0.04933418133569577</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.011024831166698</v>
+        <v>0.03830935016899777</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01059707396081049</v>
+        <v>0.02771227620818728</v>
       </c>
       <c r="G19" t="n">
-        <v>0.007310054422124445</v>
+        <v>0.03502233063031172</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0115906947291598</v>
+        <v>0.04661302535947152</v>
       </c>
       <c r="I19" t="n">
-        <v>0.008119151620996246</v>
+        <v>0.05473217698046776</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.005808894108017438</v>
+        <v>0.04892328287245033</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.004926790870278034</v>
+        <v>0.04399649200217229</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.001689170988597885</v>
+        <v>0.04230732101357441</v>
       </c>
       <c r="M19" t="n">
-        <v>0.004972550436056862</v>
+        <v>0.04727987144963127</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0007964113868709984</v>
+        <v>0.04807628283650227</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001715560396702133</v>
+        <v>0.0497918432332044</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0007826689769315416</v>
+        <v>0.04900917425627286</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0006395877533324196</v>
+        <v>0.04964876200960527</v>
       </c>
       <c r="R19" t="n">
         <v>0.03319809980602154</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.006503292842710446</v>
+        <v>0.0266948069633111</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.01592272350721594</v>
+        <v>0.01077208345609516</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.01251577348513899</v>
+        <v>-0.001743690029043823</v>
       </c>
       <c r="V19" t="n">
-        <v>0.004657098838741231</v>
+        <v>0.002913408809697409</v>
       </c>
       <c r="W19" t="n">
-        <v>0.002099629628778102</v>
+        <v>0.005013038438475511</v>
       </c>
       <c r="X19" t="n">
-        <v>0.003891134685380071</v>
+        <v>0.008904173123855582</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.001644353216194551</v>
+        <v>0.007259819907661031</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.001708682165038513</v>
+        <v>0.008968502072699544</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.007042714135005325</v>
+        <v>0.001925787937694218</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.001778729044693962</v>
+        <v>0.0001470588930002559</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.000699938568437374</v>
+        <v>0.0008469974614376298</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.006980285632725981</v>
+        <v>0.007827283094163612</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.00287018826762397</v>
+        <v>0.004957094826539641</v>
       </c>
       <c r="AF19" t="n">
-        <v>-0.002570073798312589</v>
+        <v>0.002387021028227052</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.002387021028234275</v>
+        <v>-7.223039700898577e-15</v>
       </c>
       <c r="AH19" t="n">
         <v>0.01616660832200222</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.005537759155382177</v>
+        <v>0.02170436747738439</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.001289149212697557</v>
+        <v>0.02299351669008195</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.005924618960355003</v>
+        <v>0.01706889772972694</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.01069871467077213</v>
+        <v>0.02776761240049907</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.001869009201842722</v>
+        <v>0.02963662160234179</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.0003380605117455362</v>
+        <v>0.02997468211408732</v>
       </c>
       <c r="AO19" t="n">
-        <v>-0.00493598499440758</v>
+        <v>0.02503869711967974</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.008928242043822839</v>
+        <v>0.03396693916350258</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.0006264110517819956</v>
+        <v>0.03459335021528458</v>
       </c>
       <c r="AR19" t="n">
-        <v>-0.0009603084797442283</v>
+        <v>0.03363304173554035</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.005315984543440508</v>
+        <v>0.02831705719209984</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.007466683489096328</v>
+        <v>0.03578374068119617</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.0007168348179739998</v>
+        <v>0.03650057549917016</v>
       </c>
       <c r="AV19" t="n">
-        <v>-0.0008034485678239668</v>
+        <v>0.0356971269313462</v>
       </c>
       <c r="AW19" t="n">
-        <v>-0.005081757511170377</v>
+        <v>0.03061536942017582</v>
       </c>
       <c r="AX19" t="n">
         <v>-0.02183477967291648</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.009064088556015508</v>
+        <v>-0.01277069111690097</v>
       </c>
       <c r="AZ19" t="n">
-        <v>0.003283560257875945</v>
+        <v>-0.009487130859025026</v>
       </c>
       <c r="BA19" t="n">
-        <v>-0.001009000771783095</v>
+        <v>-0.01049613163080812</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.01846591560429401</v>
+        <v>-0.02896204723510214</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.008236838205516099</v>
+        <v>-0.02072520902958604</v>
       </c>
       <c r="BD19" t="n">
-        <v>0.004531493973005172</v>
+        <v>-0.01619371505658087</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.001122093837900174</v>
+        <v>-0.01507162121868069</v>
       </c>
       <c r="BF19" t="n">
-        <v>-0.01543869794625716</v>
+        <v>-0.03051031916493785</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.006933360787992341</v>
+        <v>-0.02357695837694551</v>
       </c>
       <c r="BH19" t="n">
-        <v>0.003896403114166584</v>
+        <v>-0.01968055526277892</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.001517175708109497</v>
+        <v>-0.01816337955466943</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-0.01292986484440024</v>
+        <v>-0.03109324439906967</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.006307194406259629</v>
+        <v>-0.02478604999281004</v>
       </c>
       <c r="BL19" t="n">
-        <v>0.003622631600891606</v>
+        <v>-0.02116341839191843</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.001557438763525951</v>
+        <v>-0.01960597962839248</v>
       </c>
     </row>
     <row r="20">
